--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_0_14.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/25/Output_0_14.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1022783.95752872</v>
+        <v>-1023496.222282466</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>632041.4518058547</v>
+        <v>632041.4518058541</v>
       </c>
     </row>
     <row r="9">
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>0.1776483877525582</v>
       </c>
       <c r="F8" t="n">
         <v>3.199249640013477</v>
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0.1776483877525586</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1209,7 +1209,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>3.516869431124803</v>
       </c>
       <c r="C9" t="n">
         <v>0</v>
@@ -1254,25 +1254,25 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
+        <v>0</v>
+      </c>
+      <c r="R9" t="n">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>3.097658594934726</v>
+      </c>
+      <c r="T9" t="n">
         <v>3.516869431124803</v>
       </c>
-      <c r="R9" t="n">
-        <v>0</v>
-      </c>
-      <c r="S9" t="n">
-        <v>0</v>
-      </c>
-      <c r="T9" t="n">
-        <v>0</v>
-      </c>
       <c r="U9" t="n">
+        <v>0</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="n">
         <v>3.516869431124803</v>
-      </c>
-      <c r="V9" t="n">
-        <v>3.516869431124803</v>
-      </c>
-      <c r="W9" t="n">
-        <v>3.097658594934726</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1370,16 +1370,16 @@
         <v>188.4860450762373</v>
       </c>
       <c r="C11" t="n">
-        <v>172.0637335316379</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>159.6303957926863</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>188.4860450762373</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>188.4860450762373</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -1421,19 +1421,19 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>44.32438889692376</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>72.00878260204223</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>94.00972590110757</v>
       </c>
       <c r="X11" t="n">
-        <v>166.9720804343764</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -1449,7 +1449,7 @@
         <v>0</v>
       </c>
       <c r="C12" t="n">
-        <v>9.376387674824969</v>
+        <v>9.376387674824855</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -1470,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>52.47830382393111</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -1491,31 +1491,31 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>6.873689458423137</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>13.44964351050425</v>
+        <v>18.13451973516867</v>
       </c>
       <c r="T12" t="n">
+        <v>36.82929343736541</v>
+      </c>
+      <c r="U12" t="n">
         <v>188.4860450762373</v>
       </c>
-      <c r="U12" t="n">
-        <v>59.08630782930766</v>
-      </c>
       <c r="V12" t="n">
-        <v>79.43487927044069</v>
+        <v>62.50715706586118</v>
       </c>
       <c r="W12" t="n">
-        <v>88.56281972747064</v>
+        <v>188.4860450762373</v>
       </c>
       <c r="X12" t="n">
+        <v>39.17115058992954</v>
+      </c>
+      <c r="Y12" t="n">
         <v>188.4860450762373</v>
-      </c>
-      <c r="Y12" t="n">
-        <v>45.24252228448466</v>
       </c>
     </row>
     <row r="13">
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>25.28944752386651</v>
+        <v>25.2894475238664</v>
       </c>
       <c r="S13" t="n">
-        <v>57.29676508345553</v>
+        <v>57.29676508345541</v>
       </c>
       <c r="T13" t="n">
-        <v>45.61991340433108</v>
+        <v>45.61991340433097</v>
       </c>
       <c r="U13" t="n">
-        <v>110.5147946356657</v>
+        <v>110.5147946356656</v>
       </c>
       <c r="V13" t="n">
-        <v>66.96725133490895</v>
+        <v>66.96725133490884</v>
       </c>
       <c r="W13" t="n">
-        <v>112.1689432397944</v>
+        <v>112.1689432397943</v>
       </c>
       <c r="X13" t="n">
-        <v>43.77769155870158</v>
+        <v>43.77769155870146</v>
       </c>
       <c r="Y13" t="n">
-        <v>38.99950896462747</v>
+        <v>38.99950896462735</v>
       </c>
     </row>
     <row r="14">
@@ -1607,16 +1607,16 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>172.0637335316379</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>159.6303957926862</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>188.4860450762373</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>25.22087713859753</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1625,7 +1625,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>25.90259678908474</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1652,10 +1652,10 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>16.74367530294975</v>
       </c>
       <c r="S14" t="n">
-        <v>49.37664323013701</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1664,13 +1664,13 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>142.7380197596111</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>159.7546999762259</v>
+        <v>159.7546999762258</v>
       </c>
       <c r="X14" t="n">
-        <v>181.6409504451652</v>
+        <v>181.6409504451651</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1686,13 +1686,13 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>9.376387674824969</v>
+        <v>9.376387674824855</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
         <v>0</v>
@@ -1701,10 +1701,10 @@
         <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>125.7358448975026</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>79.68794487481077</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,28 +1731,28 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>134.7218599774646</v>
       </c>
       <c r="S15" t="n">
-        <v>13.44964351050425</v>
+        <v>156.0559197963867</v>
       </c>
       <c r="T15" t="n">
-        <v>36.82929343736552</v>
+        <v>36.82929343736541</v>
       </c>
       <c r="U15" t="n">
-        <v>59.08630782930766</v>
+        <v>59.08630782930755</v>
       </c>
       <c r="V15" t="n">
-        <v>62.50715706586129</v>
+        <v>62.50715706586118</v>
       </c>
       <c r="W15" t="n">
-        <v>88.56281972747064</v>
+        <v>188.4860450762373</v>
       </c>
       <c r="X15" t="n">
-        <v>39.17115058992965</v>
+        <v>39.17115058992954</v>
       </c>
       <c r="Y15" t="n">
-        <v>45.24252228448466</v>
+        <v>45.24252228448455</v>
       </c>
     </row>
     <row r="16">
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>25.28944752386651</v>
+        <v>25.2894475238664</v>
       </c>
       <c r="S16" t="n">
-        <v>57.29676508345553</v>
+        <v>57.29676508345541</v>
       </c>
       <c r="T16" t="n">
-        <v>45.61991340433108</v>
+        <v>45.61991340433097</v>
       </c>
       <c r="U16" t="n">
-        <v>110.5147946356657</v>
+        <v>110.5147946356656</v>
       </c>
       <c r="V16" t="n">
-        <v>66.96725133490895</v>
+        <v>66.96725133490884</v>
       </c>
       <c r="W16" t="n">
-        <v>112.1689432397944</v>
+        <v>112.1689432397943</v>
       </c>
       <c r="X16" t="n">
-        <v>43.77769155870158</v>
+        <v>43.77769155870146</v>
       </c>
       <c r="Y16" t="n">
-        <v>38.99950896462747</v>
+        <v>38.99950896462735</v>
       </c>
     </row>
     <row r="17">
@@ -1926,19 +1926,19 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>159.1723150765785</v>
+        <v>94.04684870441986</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>148.7446376404189</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>125.7358448975026</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -1965,31 +1965,31 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>6.873689458423137</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>134.7218599774646</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>188.4860450762373</v>
       </c>
       <c r="U18" t="n">
-        <v>0</v>
+        <v>188.4860450762373</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>69.37651736027546</v>
+        <v>0</v>
       </c>
       <c r="X18" t="n">
         <v>0</v>
       </c>
       <c r="Y18" t="n">
-        <v>188.4860450762373</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2090,7 +2090,7 @@
         <v>74.02698361636806</v>
       </c>
       <c r="F20" t="n">
-        <v>105.747321194745</v>
+        <v>105.7473211947454</v>
       </c>
       <c r="G20" t="n">
         <v>121.3863065040499</v>
@@ -2175,13 +2175,13 @@
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>125.7358448975026</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>107.364552236389</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>52.47830382393111</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2202,31 +2202,31 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>6.873689458423137</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
       </c>
       <c r="S21" t="n">
-        <v>0</v>
+        <v>188.4860450762373</v>
       </c>
       <c r="T21" t="n">
         <v>0</v>
       </c>
       <c r="U21" t="n">
-        <v>0</v>
+        <v>188.4860450762373</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>62.05216316314126</v>
+        <v>188.4860450762373</v>
       </c>
       <c r="X21" t="n">
-        <v>188.4860450762373</v>
+        <v>0</v>
       </c>
       <c r="Y21" t="n">
-        <v>188.4860450762373</v>
+        <v>166.0185085031497</v>
       </c>
     </row>
     <row r="22">
@@ -2333,7 +2333,7 @@
         <v>121.3863065040499</v>
       </c>
       <c r="H23" t="n">
-        <v>49.57010498426084</v>
+        <v>49.57010498426087</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2439,31 +2439,31 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>6.873689458423137</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>166.0185085031494</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>188.4860450762374</v>
       </c>
       <c r="U24" t="n">
         <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>188.4860450762373</v>
+        <v>188.4860450762374</v>
       </c>
       <c r="W24" t="n">
-        <v>188.4860450762373</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>188.4860450762373</v>
+        <v>188.4860450762374</v>
       </c>
       <c r="Y24" t="n">
-        <v>159.1448190447266</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2561,19 +2561,19 @@
         <v>124.2841302900983</v>
       </c>
       <c r="E26" t="n">
-        <v>157.9908827095072</v>
+        <v>157.9908827095071</v>
       </c>
       <c r="F26" t="n">
         <v>189.7112202878845</v>
       </c>
       <c r="G26" t="n">
-        <v>205.350205597189</v>
+        <v>205.3502055971889</v>
       </c>
       <c r="H26" t="n">
         <v>133.5340040773999</v>
       </c>
       <c r="I26" t="n">
-        <v>27.52412960442049</v>
+        <v>27.52412960442047</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,13 +2603,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>14.03037772754896</v>
+        <v>14.03037772754894</v>
       </c>
       <c r="T26" t="n">
-        <v>8.978123394335718</v>
+        <v>8.978123394335682</v>
       </c>
       <c r="U26" t="n">
-        <v>36.66251709945431</v>
+        <v>36.66251709945428</v>
       </c>
       <c r="V26" t="n">
         <v>107.391754257023</v>
@@ -2631,7 +2631,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -2676,31 +2676,31 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>6.873689458423137</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>134.7218599774646</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>191.5914073600452</v>
       </c>
       <c r="T27" t="n">
-        <v>1.48302793477748</v>
+        <v>1.483027934777452</v>
       </c>
       <c r="U27" t="n">
-        <v>23.74004232671962</v>
+        <v>23.74004232671959</v>
       </c>
       <c r="V27" t="n">
-        <v>223.5784288660537</v>
+        <v>27.16089156327322</v>
       </c>
       <c r="W27" t="n">
-        <v>266.7045835770116</v>
+        <v>53.21655422488257</v>
       </c>
       <c r="X27" t="n">
-        <v>3.824885087341613</v>
+        <v>131.0284088176276</v>
       </c>
       <c r="Y27" t="n">
-        <v>223.3842861340256</v>
+        <v>9.896256781896597</v>
       </c>
     </row>
     <row r="28">
@@ -2761,25 +2761,25 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>21.95049958086748</v>
+        <v>21.95049958086746</v>
       </c>
       <c r="T28" t="n">
-        <v>10.27364790174304</v>
+        <v>10.27364790174301</v>
       </c>
       <c r="U28" t="n">
-        <v>75.16852913307767</v>
+        <v>75.16852913307764</v>
       </c>
       <c r="V28" t="n">
-        <v>31.62098583232091</v>
+        <v>31.62098583232088</v>
       </c>
       <c r="W28" t="n">
-        <v>76.82267773720633</v>
+        <v>76.82267773720631</v>
       </c>
       <c r="X28" t="n">
-        <v>8.431426056113537</v>
+        <v>8.431426056113509</v>
       </c>
       <c r="Y28" t="n">
-        <v>3.653243462039427</v>
+        <v>3.653243462039399</v>
       </c>
     </row>
     <row r="29">
@@ -2798,19 +2798,19 @@
         <v>124.2841302900983</v>
       </c>
       <c r="E29" t="n">
-        <v>157.9908827095072</v>
+        <v>157.9908827095071</v>
       </c>
       <c r="F29" t="n">
         <v>189.7112202878845</v>
       </c>
       <c r="G29" t="n">
-        <v>205.350205597189</v>
+        <v>205.3502055971889</v>
       </c>
       <c r="H29" t="n">
         <v>133.5340040773999</v>
       </c>
       <c r="I29" t="n">
-        <v>27.52412960442049</v>
+        <v>27.52412960442047</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,13 +2840,13 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>14.03037772754896</v>
+        <v>14.03037772754894</v>
       </c>
       <c r="T29" t="n">
-        <v>8.978123394335718</v>
+        <v>8.978123394335691</v>
       </c>
       <c r="U29" t="n">
-        <v>36.66251709945431</v>
+        <v>36.66251709945428</v>
       </c>
       <c r="V29" t="n">
         <v>107.391754257023</v>
@@ -2913,7 +2913,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>6.873689458423137</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -2922,22 +2922,22 @@
         <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>1.48302793477748</v>
+        <v>214.9710572869065</v>
       </c>
       <c r="U30" t="n">
-        <v>23.74004232671962</v>
+        <v>23.74004232671959</v>
       </c>
       <c r="V30" t="n">
-        <v>27.16089156327325</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W30" t="n">
-        <v>249.634091527663</v>
+        <v>53.21655422488257</v>
       </c>
       <c r="X30" t="n">
-        <v>217.3129144394706</v>
+        <v>207.1161118485451</v>
       </c>
       <c r="Y30" t="n">
-        <v>223.3842861340256</v>
+        <v>9.896256781896597</v>
       </c>
     </row>
     <row r="31">
@@ -2998,25 +2998,25 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>21.95049958086748</v>
+        <v>21.95049958086746</v>
       </c>
       <c r="T31" t="n">
-        <v>10.27364790174304</v>
+        <v>10.27364790174301</v>
       </c>
       <c r="U31" t="n">
-        <v>75.16852913307767</v>
+        <v>75.16852913307764</v>
       </c>
       <c r="V31" t="n">
-        <v>31.62098583232091</v>
+        <v>31.62098583232088</v>
       </c>
       <c r="W31" t="n">
-        <v>76.82267773720633</v>
+        <v>76.82267773720631</v>
       </c>
       <c r="X31" t="n">
-        <v>8.431426056113537</v>
+        <v>8.431426056113509</v>
       </c>
       <c r="Y31" t="n">
-        <v>3.653243462039427</v>
+        <v>3.653243462039399</v>
       </c>
     </row>
     <row r="32">
@@ -3105,7 +3105,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0</v>
+        <v>15.33935723804045</v>
       </c>
       <c r="C33" t="n">
         <v>0</v>
@@ -3120,7 +3120,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>148.7446376404189</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3150,25 +3150,25 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>6.873689458423137</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>191.5914073600452</v>
       </c>
       <c r="T33" t="n">
-        <v>51.88558097480065</v>
+        <v>214.9710572869065</v>
       </c>
       <c r="U33" t="n">
-        <v>22.83015786749906</v>
+        <v>237.2280716788486</v>
       </c>
       <c r="V33" t="n">
-        <v>240.6489209154022</v>
+        <v>26.25100710405269</v>
       </c>
       <c r="W33" t="n">
-        <v>266.7045835770116</v>
+        <v>52.30666976566204</v>
       </c>
       <c r="X33" t="n">
         <v>2.915000628121049</v>
@@ -3351,22 +3351,22 @@
         <v>0</v>
       </c>
       <c r="E36" t="n">
-        <v>171.8275718397997</v>
+        <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>148.7446376404189</v>
+        <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>125.7358448975026</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>107.364552236389</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>30.2192081918911</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3387,10 +3387,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>6.873689458423137</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>48.43048795353554</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -3405,13 +3405,13 @@
         <v>0</v>
       </c>
       <c r="W36" t="n">
-        <v>0</v>
+        <v>260.4612548573208</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y36" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="37">
@@ -3582,7 +3582,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>0</v>
+        <v>187.5181515243659</v>
       </c>
       <c r="D39" t="n">
         <v>0</v>
@@ -3591,7 +3591,7 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
         <v>0</v>
@@ -3600,10 +3600,10 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>107.364552236389</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>52.47830382393111</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -3630,25 +3630,25 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>191.5914073600452</v>
+        <v>106.450813657678</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>214.9710572869065</v>
       </c>
       <c r="U39" t="n">
         <v>0</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W39" t="n">
         <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>15.94695471003345</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -3743,19 +3743,19 @@
         <v>109.1933384246293</v>
       </c>
       <c r="D41" t="n">
-        <v>96.7600006856778</v>
+        <v>96.76000068567777</v>
       </c>
       <c r="E41" t="n">
-        <v>130.4667531050867</v>
+        <v>130.4667531050866</v>
       </c>
       <c r="F41" t="n">
         <v>162.187090683464</v>
       </c>
       <c r="G41" t="n">
-        <v>177.8260759927685</v>
+        <v>177.8260759927684</v>
       </c>
       <c r="H41" t="n">
-        <v>106.0098744729795</v>
+        <v>106.0098744729794</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3794,13 +3794,13 @@
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>9.138387495033811</v>
+        <v>9.138387495033783</v>
       </c>
       <c r="V41" t="n">
-        <v>79.86762465260253</v>
+        <v>79.8676246526025</v>
       </c>
       <c r="W41" t="n">
-        <v>96.8843048692174</v>
+        <v>96.88430486921737</v>
       </c>
       <c r="X41" t="n">
         <v>118.7705553381566</v>
@@ -3816,19 +3816,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0</v>
+        <v>176.7504943976657</v>
       </c>
       <c r="C42" t="n">
         <v>0</v>
       </c>
       <c r="D42" t="n">
-        <v>102.5794119832304</v>
+        <v>0</v>
       </c>
       <c r="E42" t="n">
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3861,28 +3861,28 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>6.873689458423137</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
       </c>
       <c r="S42" t="n">
-        <v>0</v>
+        <v>191.5914073600452</v>
       </c>
       <c r="T42" t="n">
-        <v>214.9710572869065</v>
+        <v>0</v>
       </c>
       <c r="U42" t="n">
         <v>0</v>
       </c>
       <c r="V42" t="n">
-        <v>240.6489209154022</v>
+        <v>138.241702566709</v>
       </c>
       <c r="W42" t="n">
-        <v>25.69242462046211</v>
+        <v>25.69242462046208</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y42" t="n">
         <v>0</v>
@@ -3952,13 +3952,13 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>47.64439952865717</v>
+        <v>47.64439952865714</v>
       </c>
       <c r="V43" t="n">
-        <v>4.096856227900417</v>
+        <v>4.096856227900389</v>
       </c>
       <c r="W43" t="n">
-        <v>49.29854813278584</v>
+        <v>49.29854813278581</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -3980,10 +3980,10 @@
         <v>109.1933384246293</v>
       </c>
       <c r="D44" t="n">
-        <v>96.7600006856778</v>
+        <v>96.76000068567777</v>
       </c>
       <c r="E44" t="n">
-        <v>130.4667531050867</v>
+        <v>130.4667531050866</v>
       </c>
       <c r="F44" t="n">
         <v>162.187090683464</v>
@@ -3992,7 +3992,7 @@
         <v>177.8260759927685</v>
       </c>
       <c r="H44" t="n">
-        <v>106.0098744729795</v>
+        <v>106.0098744729794</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4031,13 +4031,13 @@
         <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>9.138387495033818</v>
+        <v>9.13838749503379</v>
       </c>
       <c r="V44" t="n">
-        <v>79.86762465260253</v>
+        <v>79.8676246526025</v>
       </c>
       <c r="W44" t="n">
-        <v>96.8843048692174</v>
+        <v>96.88430486921737</v>
       </c>
       <c r="X44" t="n">
         <v>118.7705553381566</v>
@@ -4065,16 +4065,16 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>158.8234391199283</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>84.0868340950981</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
-        <v>125.7358448975026</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>107.364552236389</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4098,25 +4098,25 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>6.873689458423137</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>80.10598243809025</v>
       </c>
       <c r="S45" t="n">
-        <v>0</v>
+        <v>191.5914073600452</v>
       </c>
       <c r="T45" t="n">
-        <v>0</v>
+        <v>214.9710572869065</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>237.2280716788486</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>266.7045835770116</v>
+        <v>25.69242462046208</v>
       </c>
       <c r="X45" t="n">
         <v>0</v>
@@ -4189,13 +4189,13 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>47.64439952865717</v>
+        <v>47.64439952865714</v>
       </c>
       <c r="V46" t="n">
-        <v>4.096856227900417</v>
+        <v>4.096856227900389</v>
       </c>
       <c r="W46" t="n">
-        <v>49.29854813278584</v>
+        <v>49.29854813278581</v>
       </c>
       <c r="X46" t="n">
         <v>0</v>
@@ -4787,19 +4787,19 @@
         <v>7.244751028117094</v>
       </c>
       <c r="E8" t="n">
-        <v>7.244751028117094</v>
+        <v>7.065308212205419</v>
       </c>
       <c r="F8" t="n">
-        <v>4.013185735174188</v>
+        <v>3.833742919262513</v>
       </c>
       <c r="G8" t="n">
-        <v>0.4607923704016597</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="H8" t="n">
-        <v>0.4607923704016597</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4607923704016597</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="J8" t="n">
         <v>0.2813495544899843</v>
@@ -4902,31 +4902,31 @@
         <v>14.06747772449921</v>
       </c>
       <c r="Q9" t="n">
-        <v>10.51508435972668</v>
+        <v>14.06747772449921</v>
       </c>
       <c r="R9" t="n">
-        <v>10.51508435972668</v>
+        <v>14.06747772449921</v>
       </c>
       <c r="S9" t="n">
-        <v>10.51508435972668</v>
+        <v>10.93852964880757</v>
       </c>
       <c r="T9" t="n">
-        <v>10.51508435972668</v>
+        <v>7.386136284035041</v>
       </c>
       <c r="U9" t="n">
-        <v>6.962690994954155</v>
+        <v>7.386136284035041</v>
       </c>
       <c r="V9" t="n">
-        <v>3.410297630181626</v>
+        <v>7.386136284035041</v>
       </c>
       <c r="W9" t="n">
-        <v>0.2813495544899843</v>
+        <v>3.833742919262513</v>
       </c>
       <c r="X9" t="n">
-        <v>0.2813495544899843</v>
+        <v>3.833742919262513</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.2813495544899843</v>
+        <v>3.833742919262513</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14.06747772449921</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="C10" t="n">
-        <v>14.06747772449921</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="D10" t="n">
-        <v>14.06747772449921</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="E10" t="n">
-        <v>14.06747772449921</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="F10" t="n">
-        <v>14.06747772449921</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="G10" t="n">
-        <v>14.06747772449921</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="H10" t="n">
-        <v>14.06747772449921</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="I10" t="n">
-        <v>14.06747772449921</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="J10" t="n">
-        <v>14.06747772449921</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="K10" t="n">
-        <v>14.06747772449921</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="L10" t="n">
-        <v>14.06747772449921</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="M10" t="n">
-        <v>14.06747772449921</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="N10" t="n">
-        <v>14.06747772449921</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="O10" t="n">
-        <v>14.06747772449921</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="P10" t="n">
-        <v>14.06747772449921</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="Q10" t="n">
-        <v>14.06747772449921</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="R10" t="n">
-        <v>14.06747772449921</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="S10" t="n">
-        <v>14.06747772449921</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="T10" t="n">
-        <v>14.06747772449921</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="U10" t="n">
-        <v>14.06747772449921</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="V10" t="n">
-        <v>14.06747772449921</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="W10" t="n">
-        <v>14.06747772449921</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="X10" t="n">
-        <v>14.06747772449921</v>
+        <v>0.2813495544899843</v>
       </c>
       <c r="Y10" t="n">
-        <v>14.06747772449921</v>
+        <v>0.2813495544899843</v>
       </c>
     </row>
     <row r="11">
@@ -5015,16 +5015,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>350.1234586811739</v>
+        <v>395.8587726490026</v>
       </c>
       <c r="C11" t="n">
-        <v>176.3217076391155</v>
+        <v>395.8587726490026</v>
       </c>
       <c r="D11" t="n">
-        <v>15.07888360609898</v>
+        <v>395.8587726490026</v>
       </c>
       <c r="E11" t="n">
-        <v>15.07888360609898</v>
+        <v>205.4688281275508</v>
       </c>
       <c r="F11" t="n">
         <v>15.07888360609898</v>
@@ -5039,52 +5039,52 @@
         <v>15.07888360609898</v>
       </c>
       <c r="J11" t="n">
-        <v>115.4202186115222</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="K11" t="n">
-        <v>156.6208500701072</v>
+        <v>184.7715035048724</v>
       </c>
       <c r="L11" t="n">
-        <v>203.3320084091436</v>
+        <v>231.4826618439088</v>
       </c>
       <c r="M11" t="n">
-        <v>284.183132022489</v>
+        <v>312.3337854572541</v>
       </c>
       <c r="N11" t="n">
-        <v>470.7843166479639</v>
+        <v>479.8038960597959</v>
       </c>
       <c r="O11" t="n">
-        <v>504.9946117247462</v>
+        <v>666.4050806852708</v>
       </c>
       <c r="P11" t="n">
-        <v>666.4050806852711</v>
+        <v>666.4050806852708</v>
       </c>
       <c r="Q11" t="n">
-        <v>753.9441803049492</v>
+        <v>753.9441803049491</v>
       </c>
       <c r="R11" t="n">
-        <v>753.9441803049492</v>
+        <v>753.9441803049491</v>
       </c>
       <c r="S11" t="n">
-        <v>753.9441803049492</v>
+        <v>753.9441803049491</v>
       </c>
       <c r="T11" t="n">
-        <v>709.1720703080565</v>
+        <v>753.9441803049491</v>
       </c>
       <c r="U11" t="n">
-        <v>709.1720703080565</v>
+        <v>681.2080362624822</v>
       </c>
       <c r="V11" t="n">
-        <v>709.1720703080565</v>
+        <v>681.2080362624822</v>
       </c>
       <c r="W11" t="n">
-        <v>709.1720703080565</v>
+        <v>586.2487171704545</v>
       </c>
       <c r="X11" t="n">
-        <v>540.5134032026258</v>
+        <v>586.2487171704545</v>
       </c>
       <c r="Y11" t="n">
-        <v>540.5134032026258</v>
+        <v>586.2487171704545</v>
       </c>
     </row>
     <row r="12">
@@ -5094,28 +5094,28 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>77.55836996847887</v>
+        <v>24.54998226753823</v>
       </c>
       <c r="C12" t="n">
-        <v>68.08727130703952</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="D12" t="n">
-        <v>68.08727130703952</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="E12" t="n">
-        <v>68.08727130703952</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="F12" t="n">
-        <v>68.08727130703952</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="G12" t="n">
-        <v>68.08727130703952</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="H12" t="n">
-        <v>68.08727130703952</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="I12" t="n">
-        <v>68.08727130703952</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="J12" t="n">
         <v>15.07888360609898</v>
@@ -5124,46 +5124,46 @@
         <v>53.03690762936455</v>
       </c>
       <c r="L12" t="n">
-        <v>170.3626975743617</v>
+        <v>170.3626975743615</v>
       </c>
       <c r="M12" t="n">
-        <v>352.0310247576278</v>
+        <v>352.0310247576277</v>
       </c>
       <c r="N12" t="n">
         <v>538.6322093831028</v>
       </c>
       <c r="O12" t="n">
-        <v>670.325336926374</v>
+        <v>670.3253369263739</v>
       </c>
       <c r="P12" t="n">
-        <v>753.9441803049492</v>
+        <v>753.9441803049491</v>
       </c>
       <c r="Q12" t="n">
-        <v>747.0010596398754</v>
+        <v>753.9441803049491</v>
       </c>
       <c r="R12" t="n">
-        <v>747.0010596398754</v>
+        <v>753.9441803049491</v>
       </c>
       <c r="S12" t="n">
-        <v>733.4155611444165</v>
+        <v>735.6264836027585</v>
       </c>
       <c r="T12" t="n">
-        <v>543.0256166229647</v>
+        <v>698.4251771003692</v>
       </c>
       <c r="U12" t="n">
-        <v>483.3424774014418</v>
+        <v>508.0352325789174</v>
       </c>
       <c r="V12" t="n">
-        <v>403.1052256131179</v>
+        <v>444.8966900881485</v>
       </c>
       <c r="W12" t="n">
-        <v>313.6478319490061</v>
+        <v>254.5067455666967</v>
       </c>
       <c r="X12" t="n">
-        <v>123.2578874275543</v>
+        <v>214.93992678899</v>
       </c>
       <c r="Y12" t="n">
-        <v>77.55836996847887</v>
+        <v>24.54998226753823</v>
       </c>
     </row>
     <row r="13">
@@ -5179,67 +5179,67 @@
         <v>15.07888360609898</v>
       </c>
       <c r="D13" t="n">
-        <v>47.70840606894092</v>
+        <v>47.70840606894104</v>
       </c>
       <c r="E13" t="n">
-        <v>47.70840606894092</v>
+        <v>47.70840606894104</v>
       </c>
       <c r="F13" t="n">
-        <v>47.70840606894092</v>
+        <v>86.53113888372451</v>
       </c>
       <c r="G13" t="n">
-        <v>47.70840606894092</v>
+        <v>88.43313193233242</v>
       </c>
       <c r="H13" t="n">
-        <v>47.70840606894092</v>
+        <v>100.6270797248917</v>
       </c>
       <c r="I13" t="n">
-        <v>60.86348607968242</v>
+        <v>113.7821597356333</v>
       </c>
       <c r="J13" t="n">
-        <v>60.86348607968242</v>
+        <v>171.1033482782188</v>
       </c>
       <c r="K13" t="n">
-        <v>64.85164351911612</v>
+        <v>171.1033482782188</v>
       </c>
       <c r="L13" t="n">
-        <v>209.3775991250852</v>
+        <v>171.1033482782188</v>
       </c>
       <c r="M13" t="n">
-        <v>360.7689336033542</v>
+        <v>171.1033482782188</v>
       </c>
       <c r="N13" t="n">
-        <v>520.7701116317063</v>
+        <v>331.104526306571</v>
       </c>
       <c r="O13" t="n">
-        <v>520.7701116317063</v>
+        <v>470.3568865385316</v>
       </c>
       <c r="P13" t="n">
-        <v>520.7701116317063</v>
+        <v>470.3568865385316</v>
       </c>
       <c r="Q13" t="n">
-        <v>520.7701116317063</v>
+        <v>520.7701116317054</v>
       </c>
       <c r="R13" t="n">
-        <v>495.2252151429522</v>
+        <v>495.2252151429514</v>
       </c>
       <c r="S13" t="n">
-        <v>437.3496948566335</v>
+        <v>437.3496948566328</v>
       </c>
       <c r="T13" t="n">
-        <v>391.2689742461981</v>
+        <v>391.2689742461975</v>
       </c>
       <c r="U13" t="n">
-        <v>279.6378685536064</v>
+        <v>279.637868553606</v>
       </c>
       <c r="V13" t="n">
-        <v>211.9941803365267</v>
+        <v>211.9941803365263</v>
       </c>
       <c r="W13" t="n">
-        <v>98.69221746804752</v>
+        <v>98.69221746804729</v>
       </c>
       <c r="X13" t="n">
-        <v>54.47232700471259</v>
+        <v>54.47232700471248</v>
       </c>
       <c r="Y13" t="n">
         <v>15.07888360609898</v>
@@ -5252,25 +5252,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>215.044873829051</v>
+        <v>392.1872856338979</v>
       </c>
       <c r="C14" t="n">
-        <v>41.24312278699244</v>
+        <v>392.1872856338979</v>
       </c>
       <c r="D14" t="n">
-        <v>41.24312278699244</v>
+        <v>230.9444616008816</v>
       </c>
       <c r="E14" t="n">
-        <v>41.24312278699244</v>
+        <v>40.55451707942983</v>
       </c>
       <c r="F14" t="n">
-        <v>41.24312278699244</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="G14" t="n">
-        <v>41.24312278699244</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="H14" t="n">
-        <v>41.24312278699244</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="I14" t="n">
         <v>15.07888360609898</v>
@@ -5279,49 +5279,49 @@
         <v>15.07888360609898</v>
       </c>
       <c r="K14" t="n">
-        <v>162.1550303797903</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="L14" t="n">
-        <v>208.8661887188267</v>
+        <v>201.6800682315739</v>
       </c>
       <c r="M14" t="n">
-        <v>395.4673733443017</v>
+        <v>282.5311918449192</v>
       </c>
       <c r="N14" t="n">
-        <v>470.7843166479639</v>
+        <v>405.9325267189492</v>
       </c>
       <c r="O14" t="n">
-        <v>504.9946117247462</v>
+        <v>592.5337113444241</v>
       </c>
       <c r="P14" t="n">
-        <v>666.4050806852711</v>
+        <v>753.9441803049491</v>
       </c>
       <c r="Q14" t="n">
-        <v>753.9441803049492</v>
+        <v>753.9441803049491</v>
       </c>
       <c r="R14" t="n">
-        <v>753.9441803049492</v>
+        <v>737.0313769686362</v>
       </c>
       <c r="S14" t="n">
-        <v>704.0687831027906</v>
+        <v>737.0313769686362</v>
       </c>
       <c r="T14" t="n">
-        <v>704.0687831027906</v>
+        <v>737.0313769686362</v>
       </c>
       <c r="U14" t="n">
-        <v>704.0687831027906</v>
+        <v>737.0313769686362</v>
       </c>
       <c r="V14" t="n">
-        <v>559.8889651637894</v>
+        <v>737.0313769686362</v>
       </c>
       <c r="W14" t="n">
-        <v>398.5205813494198</v>
+        <v>575.6629931542667</v>
       </c>
       <c r="X14" t="n">
-        <v>215.044873829051</v>
+        <v>392.1872856338979</v>
       </c>
       <c r="Y14" t="n">
-        <v>215.044873829051</v>
+        <v>392.1872856338979</v>
       </c>
     </row>
     <row r="15">
@@ -5331,25 +5331,25 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>405.6119636939152</v>
+        <v>24.54998226753823</v>
       </c>
       <c r="C15" t="n">
-        <v>396.1408650324758</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="D15" t="n">
-        <v>396.1408650324758</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="E15" t="n">
-        <v>222.5776611538903</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="F15" t="n">
-        <v>222.5776611538903</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="G15" t="n">
-        <v>222.5776611538903</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="H15" t="n">
-        <v>95.57175721701896</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="I15" t="n">
         <v>15.07888360609898</v>
@@ -5358,49 +5358,49 @@
         <v>15.07888360609898</v>
       </c>
       <c r="K15" t="n">
-        <v>53.0369076293646</v>
+        <v>53.03690762936458</v>
       </c>
       <c r="L15" t="n">
         <v>170.3626975743616</v>
       </c>
       <c r="M15" t="n">
-        <v>352.0310247576278</v>
+        <v>352.0310247576277</v>
       </c>
       <c r="N15" t="n">
-        <v>538.6322093831028</v>
+        <v>538.6322093831027</v>
       </c>
       <c r="O15" t="n">
-        <v>670.325336926374</v>
+        <v>670.3253369263739</v>
       </c>
       <c r="P15" t="n">
-        <v>753.9441803049492</v>
+        <v>753.9441803049491</v>
       </c>
       <c r="Q15" t="n">
-        <v>753.9441803049492</v>
+        <v>753.9441803049491</v>
       </c>
       <c r="R15" t="n">
-        <v>753.9441803049492</v>
+        <v>617.8614934590253</v>
       </c>
       <c r="S15" t="n">
-        <v>740.3586818094903</v>
+        <v>460.2292512404529</v>
       </c>
       <c r="T15" t="n">
-        <v>703.1573753071009</v>
+        <v>423.0279447380636</v>
       </c>
       <c r="U15" t="n">
-        <v>643.474236085578</v>
+        <v>363.3448055165408</v>
       </c>
       <c r="V15" t="n">
-        <v>580.3356935948091</v>
+        <v>300.2062630257719</v>
       </c>
       <c r="W15" t="n">
-        <v>490.8782999306973</v>
+        <v>109.8163185043202</v>
       </c>
       <c r="X15" t="n">
-        <v>451.3114811529906</v>
+        <v>70.24949972661354</v>
       </c>
       <c r="Y15" t="n">
-        <v>405.6119636939152</v>
+        <v>24.54998226753823</v>
       </c>
     </row>
     <row r="16">
@@ -5410,73 +5410,73 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>15.59847835882611</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="C16" t="n">
-        <v>27.16621540761903</v>
+        <v>26.64662065489201</v>
       </c>
       <c r="D16" t="n">
-        <v>27.16621540761903</v>
+        <v>59.27614311773407</v>
       </c>
       <c r="E16" t="n">
-        <v>63.26718181856183</v>
+        <v>59.27614311773407</v>
       </c>
       <c r="F16" t="n">
-        <v>63.26718181856183</v>
+        <v>98.09887593251753</v>
       </c>
       <c r="G16" t="n">
-        <v>63.26718181856183</v>
+        <v>98.09887593251753</v>
       </c>
       <c r="H16" t="n">
-        <v>75.461129611121</v>
+        <v>98.09887593251753</v>
       </c>
       <c r="I16" t="n">
-        <v>75.461129611121</v>
+        <v>111.2539559432591</v>
       </c>
       <c r="J16" t="n">
-        <v>132.7823181537063</v>
+        <v>168.5751444858446</v>
       </c>
       <c r="K16" t="n">
-        <v>242.7797858859688</v>
+        <v>278.5726122181071</v>
       </c>
       <c r="L16" t="n">
-        <v>242.7797858859688</v>
+        <v>278.5726122181071</v>
       </c>
       <c r="M16" t="n">
-        <v>394.1711203642378</v>
+        <v>381.5177513997448</v>
       </c>
       <c r="N16" t="n">
-        <v>394.1711203642378</v>
+        <v>381.5177513997448</v>
       </c>
       <c r="O16" t="n">
-        <v>402.3069076016775</v>
+        <v>520.7701116317054</v>
       </c>
       <c r="P16" t="n">
-        <v>520.7701116317063</v>
+        <v>520.7701116317054</v>
       </c>
       <c r="Q16" t="n">
-        <v>520.7701116317063</v>
+        <v>520.7701116317054</v>
       </c>
       <c r="R16" t="n">
-        <v>495.2252151429522</v>
+        <v>495.2252151429514</v>
       </c>
       <c r="S16" t="n">
-        <v>437.3496948566335</v>
+        <v>437.3496948566328</v>
       </c>
       <c r="T16" t="n">
-        <v>391.2689742461981</v>
+        <v>391.2689742461975</v>
       </c>
       <c r="U16" t="n">
-        <v>279.6378685536064</v>
+        <v>279.637868553606</v>
       </c>
       <c r="V16" t="n">
-        <v>211.9941803365267</v>
+        <v>211.9941803365263</v>
       </c>
       <c r="W16" t="n">
-        <v>98.69221746804752</v>
+        <v>98.69221746804729</v>
       </c>
       <c r="X16" t="n">
-        <v>54.47232700471259</v>
+        <v>54.47232700471248</v>
       </c>
       <c r="Y16" t="n">
         <v>15.07888360609898</v>
@@ -5489,19 +5489,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>463.3662739417493</v>
+        <v>463.3662739417492</v>
       </c>
       <c r="C17" t="n">
-        <v>410.0798406731527</v>
+        <v>410.0798406731525</v>
       </c>
       <c r="D17" t="n">
-        <v>369.3523344135979</v>
+        <v>369.3523344135978</v>
       </c>
       <c r="E17" t="n">
-        <v>294.5776034879736</v>
+        <v>294.5776034879735</v>
       </c>
       <c r="F17" t="n">
-        <v>187.7621275336854</v>
+        <v>187.7621275336853</v>
       </c>
       <c r="G17" t="n">
         <v>65.14969672151398</v>
@@ -5510,55 +5510,55 @@
         <v>15.07888360609898</v>
       </c>
       <c r="I17" t="n">
-        <v>15.07888360609898</v>
+        <v>37.78501987433214</v>
       </c>
       <c r="J17" t="n">
-        <v>107.6483648312351</v>
+        <v>224.386204499807</v>
       </c>
       <c r="K17" t="n">
-        <v>107.6483648312351</v>
+        <v>224.386204499807</v>
       </c>
       <c r="L17" t="n">
-        <v>154.3595231702716</v>
+        <v>410.9873891252819</v>
       </c>
       <c r="M17" t="n">
-        <v>235.2106467836169</v>
+        <v>597.5885737507568</v>
       </c>
       <c r="N17" t="n">
-        <v>310.5275900872791</v>
+        <v>672.905517054419</v>
       </c>
       <c r="O17" t="n">
-        <v>344.7378851640614</v>
+        <v>707.1158121312012</v>
       </c>
       <c r="P17" t="n">
-        <v>344.7378851640614</v>
+        <v>707.1158121312012</v>
       </c>
       <c r="Q17" t="n">
-        <v>531.3390697895363</v>
+        <v>707.1158121312012</v>
       </c>
       <c r="R17" t="n">
-        <v>632.8798941893858</v>
+        <v>707.1158121312012</v>
       </c>
       <c r="S17" t="n">
-        <v>632.8798941893858</v>
+        <v>707.1158121312012</v>
       </c>
       <c r="T17" t="n">
         <v>707.1158121312012</v>
       </c>
       <c r="U17" t="n">
-        <v>753.9441803049492</v>
+        <v>753.9441803049491</v>
       </c>
       <c r="V17" t="n">
-        <v>730.2796801394098</v>
+        <v>730.2796801394097</v>
       </c>
       <c r="W17" t="n">
-        <v>689.4266140985021</v>
+        <v>689.4266140985019</v>
       </c>
       <c r="X17" t="n">
-        <v>626.466224351595</v>
+        <v>626.4662243515949</v>
       </c>
       <c r="Y17" t="n">
-        <v>540.7756799342396</v>
+        <v>540.7756799342395</v>
       </c>
     </row>
     <row r="18">
@@ -5568,22 +5568,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>486.533824855519</v>
+        <v>237.0816044161216</v>
       </c>
       <c r="C18" t="n">
-        <v>486.533824855519</v>
+        <v>237.0816044161216</v>
       </c>
       <c r="D18" t="n">
-        <v>325.7537086165507</v>
+        <v>142.0847875429703</v>
       </c>
       <c r="E18" t="n">
-        <v>325.7537086165507</v>
+        <v>142.0847875429703</v>
       </c>
       <c r="F18" t="n">
-        <v>165.3259923337948</v>
+        <v>142.0847875429703</v>
       </c>
       <c r="G18" t="n">
-        <v>15.07888360609898</v>
+        <v>142.0847875429703</v>
       </c>
       <c r="H18" t="n">
         <v>15.07888360609898</v>
@@ -5595,49 +5595,49 @@
         <v>15.07888360609898</v>
       </c>
       <c r="K18" t="n">
-        <v>53.0369076293646</v>
+        <v>53.03690762936458</v>
       </c>
       <c r="L18" t="n">
         <v>170.3626975743616</v>
       </c>
       <c r="M18" t="n">
-        <v>352.0310247576278</v>
+        <v>352.0310247576277</v>
       </c>
       <c r="N18" t="n">
-        <v>538.6322093831028</v>
+        <v>538.6322093831027</v>
       </c>
       <c r="O18" t="n">
-        <v>670.325336926374</v>
+        <v>670.3253369263739</v>
       </c>
       <c r="P18" t="n">
-        <v>753.9441803049492</v>
+        <v>753.9441803049491</v>
       </c>
       <c r="Q18" t="n">
-        <v>747.0010596398754</v>
+        <v>753.9441803049491</v>
       </c>
       <c r="R18" t="n">
-        <v>747.0010596398754</v>
+        <v>617.8614934590253</v>
       </c>
       <c r="S18" t="n">
-        <v>747.0010596398754</v>
+        <v>617.8614934590253</v>
       </c>
       <c r="T18" t="n">
-        <v>747.0010596398754</v>
+        <v>427.4715489375735</v>
       </c>
       <c r="U18" t="n">
-        <v>747.0010596398754</v>
+        <v>237.0816044161216</v>
       </c>
       <c r="V18" t="n">
-        <v>747.0010596398754</v>
+        <v>237.0816044161216</v>
       </c>
       <c r="W18" t="n">
-        <v>676.9237693769709</v>
+        <v>237.0816044161216</v>
       </c>
       <c r="X18" t="n">
-        <v>676.9237693769709</v>
+        <v>237.0816044161216</v>
       </c>
       <c r="Y18" t="n">
-        <v>486.533824855519</v>
+        <v>237.0816044161216</v>
       </c>
     </row>
     <row r="19">
@@ -5726,19 +5726,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>463.3662739417495</v>
+        <v>463.3662739417492</v>
       </c>
       <c r="C20" t="n">
-        <v>410.0798406731528</v>
+        <v>410.0798406731525</v>
       </c>
       <c r="D20" t="n">
-        <v>369.3523344135981</v>
+        <v>369.3523344135978</v>
       </c>
       <c r="E20" t="n">
-        <v>294.5776034879734</v>
+        <v>294.5776034879735</v>
       </c>
       <c r="F20" t="n">
-        <v>187.7621275336855</v>
+        <v>187.7621275336852</v>
       </c>
       <c r="G20" t="n">
         <v>65.149696721514</v>
@@ -5747,55 +5747,55 @@
         <v>15.07888360609898</v>
       </c>
       <c r="I20" t="n">
-        <v>70.95425539993042</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="J20" t="n">
-        <v>70.95425539993042</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="K20" t="n">
-        <v>70.95425539993042</v>
+        <v>201.6800682315739</v>
       </c>
       <c r="L20" t="n">
-        <v>117.6654137389669</v>
+        <v>388.2812528570488</v>
       </c>
       <c r="M20" t="n">
-        <v>198.5165373523122</v>
+        <v>469.1323764703941</v>
       </c>
       <c r="N20" t="n">
-        <v>273.8334806559744</v>
+        <v>645.4979672863515</v>
       </c>
       <c r="O20" t="n">
-        <v>308.0437757327567</v>
+        <v>679.7082623631337</v>
       </c>
       <c r="P20" t="n">
-        <v>396.5679851276906</v>
+        <v>679.7082623631337</v>
       </c>
       <c r="Q20" t="n">
-        <v>583.1691697531655</v>
+        <v>679.7082623631337</v>
       </c>
       <c r="R20" t="n">
-        <v>684.709994153015</v>
+        <v>679.7082623631337</v>
       </c>
       <c r="S20" t="n">
-        <v>753.9441803049492</v>
+        <v>679.7082623631337</v>
       </c>
       <c r="T20" t="n">
-        <v>753.9441803049492</v>
+        <v>753.9441803049491</v>
       </c>
       <c r="U20" t="n">
-        <v>753.9441803049492</v>
+        <v>753.9441803049491</v>
       </c>
       <c r="V20" t="n">
-        <v>730.2796801394099</v>
+        <v>730.2796801394097</v>
       </c>
       <c r="W20" t="n">
-        <v>689.4266140985021</v>
+        <v>689.4266140985019</v>
       </c>
       <c r="X20" t="n">
-        <v>626.466224351595</v>
+        <v>626.4662243515949</v>
       </c>
       <c r="Y20" t="n">
-        <v>540.7756799342396</v>
+        <v>540.7756799342395</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5805,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>303.54221790693</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="C21" t="n">
-        <v>303.54221790693</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="D21" t="n">
-        <v>303.54221790693</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="E21" t="n">
-        <v>303.54221790693</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="F21" t="n">
-        <v>303.54221790693</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="G21" t="n">
-        <v>303.54221790693</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="H21" t="n">
-        <v>176.5363139700587</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="I21" t="n">
-        <v>68.08727130703952</v>
+        <v>15.07888360609898</v>
       </c>
       <c r="J21" t="n">
         <v>15.07888360609898</v>
       </c>
       <c r="K21" t="n">
-        <v>53.0369076293646</v>
+        <v>53.03690762936458</v>
       </c>
       <c r="L21" t="n">
         <v>170.3626975743616</v>
       </c>
       <c r="M21" t="n">
-        <v>352.0310247576278</v>
+        <v>352.0310247576277</v>
       </c>
       <c r="N21" t="n">
-        <v>538.6322093831028</v>
+        <v>538.6322093831027</v>
       </c>
       <c r="O21" t="n">
-        <v>670.325336926374</v>
+        <v>670.3253369263739</v>
       </c>
       <c r="P21" t="n">
-        <v>753.9441803049492</v>
+        <v>753.9441803049491</v>
       </c>
       <c r="Q21" t="n">
-        <v>747.0010596398754</v>
+        <v>753.9441803049491</v>
       </c>
       <c r="R21" t="n">
-        <v>747.0010596398754</v>
+        <v>753.9441803049491</v>
       </c>
       <c r="S21" t="n">
-        <v>747.0010596398754</v>
+        <v>563.5542357834972</v>
       </c>
       <c r="T21" t="n">
-        <v>747.0010596398754</v>
+        <v>563.5542357834972</v>
       </c>
       <c r="U21" t="n">
-        <v>747.0010596398754</v>
+        <v>373.1642912620454</v>
       </c>
       <c r="V21" t="n">
-        <v>747.0010596398754</v>
+        <v>373.1642912620454</v>
       </c>
       <c r="W21" t="n">
-        <v>684.3221069498337</v>
+        <v>182.7743467405936</v>
       </c>
       <c r="X21" t="n">
-        <v>493.9321624283818</v>
+        <v>182.7743467405936</v>
       </c>
       <c r="Y21" t="n">
-        <v>303.54221790693</v>
+        <v>15.07888360609898</v>
       </c>
     </row>
     <row r="22">
@@ -5963,13 +5963,13 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>463.3662739417496</v>
+        <v>463.3662739417499</v>
       </c>
       <c r="C23" t="n">
-        <v>410.0798406731529</v>
+        <v>410.0798406731533</v>
       </c>
       <c r="D23" t="n">
-        <v>369.3523344135982</v>
+        <v>369.3523344135986</v>
       </c>
       <c r="E23" t="n">
         <v>294.5776034879739</v>
@@ -5978,61 +5978,61 @@
         <v>187.7621275336856</v>
       </c>
       <c r="G23" t="n">
-        <v>65.14969672151398</v>
+        <v>65.14969672151402</v>
       </c>
       <c r="H23" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609899</v>
       </c>
       <c r="I23" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609899</v>
       </c>
       <c r="J23" t="n">
-        <v>96.82392254742525</v>
+        <v>15.07888360609899</v>
       </c>
       <c r="K23" t="n">
-        <v>96.82392254742525</v>
+        <v>15.07888360609899</v>
       </c>
       <c r="L23" t="n">
-        <v>143.5350808864617</v>
+        <v>201.680068231574</v>
       </c>
       <c r="M23" t="n">
-        <v>224.3862044998071</v>
+        <v>282.5311918449194</v>
       </c>
       <c r="N23" t="n">
-        <v>299.7031478034692</v>
+        <v>357.8481351485815</v>
       </c>
       <c r="O23" t="n">
-        <v>333.9134428802515</v>
+        <v>544.4493197740566</v>
       </c>
       <c r="P23" t="n">
-        <v>520.5146275057265</v>
+        <v>544.4493197740566</v>
       </c>
       <c r="Q23" t="n">
-        <v>707.1158121312014</v>
+        <v>632.8798941893863</v>
       </c>
       <c r="R23" t="n">
-        <v>707.1158121312014</v>
+        <v>632.8798941893863</v>
       </c>
       <c r="S23" t="n">
-        <v>707.1158121312014</v>
+        <v>632.8798941893863</v>
       </c>
       <c r="T23" t="n">
-        <v>707.1158121312014</v>
+        <v>707.1158121312017</v>
       </c>
       <c r="U23" t="n">
-        <v>753.9441803049493</v>
+        <v>753.9441803049497</v>
       </c>
       <c r="V23" t="n">
-        <v>730.2796801394101</v>
+        <v>730.2796801394104</v>
       </c>
       <c r="W23" t="n">
-        <v>689.4266140985022</v>
+        <v>689.4266140985026</v>
       </c>
       <c r="X23" t="n">
-        <v>626.4662243515951</v>
+        <v>626.4662243515954</v>
       </c>
       <c r="Y23" t="n">
-        <v>540.7756799342397</v>
+        <v>540.7756799342401</v>
       </c>
     </row>
     <row r="24">
@@ -6042,34 +6042,34 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609899</v>
       </c>
       <c r="C24" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609899</v>
       </c>
       <c r="D24" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609899</v>
       </c>
       <c r="E24" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609899</v>
       </c>
       <c r="F24" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609899</v>
       </c>
       <c r="G24" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609899</v>
       </c>
       <c r="H24" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609899</v>
       </c>
       <c r="I24" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609899</v>
       </c>
       <c r="J24" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609899</v>
       </c>
       <c r="K24" t="n">
-        <v>53.0369076293646</v>
+        <v>53.03690762936459</v>
       </c>
       <c r="L24" t="n">
         <v>170.3626975743616</v>
@@ -6087,31 +6087,31 @@
         <v>753.9441803049492</v>
       </c>
       <c r="Q24" t="n">
-        <v>747.0010596398754</v>
+        <v>753.9441803049492</v>
       </c>
       <c r="R24" t="n">
-        <v>747.0010596398754</v>
+        <v>753.9441803049492</v>
       </c>
       <c r="S24" t="n">
-        <v>747.0010596398754</v>
+        <v>586.2487171704548</v>
       </c>
       <c r="T24" t="n">
-        <v>747.0010596398754</v>
+        <v>395.8587726490029</v>
       </c>
       <c r="U24" t="n">
-        <v>747.0010596398754</v>
+        <v>395.8587726490029</v>
       </c>
       <c r="V24" t="n">
-        <v>556.6111151184235</v>
+        <v>205.4688281275509</v>
       </c>
       <c r="W24" t="n">
-        <v>366.2211705969717</v>
+        <v>205.4688281275509</v>
       </c>
       <c r="X24" t="n">
-        <v>175.8312260755198</v>
+        <v>15.07888360609899</v>
       </c>
       <c r="Y24" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609899</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609899</v>
       </c>
       <c r="C25" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609899</v>
       </c>
       <c r="D25" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609899</v>
       </c>
       <c r="E25" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609899</v>
       </c>
       <c r="F25" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609899</v>
       </c>
       <c r="G25" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609899</v>
       </c>
       <c r="H25" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609899</v>
       </c>
       <c r="I25" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609899</v>
       </c>
       <c r="J25" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609899</v>
       </c>
       <c r="K25" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609899</v>
       </c>
       <c r="L25" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609899</v>
       </c>
       <c r="M25" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609899</v>
       </c>
       <c r="N25" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609899</v>
       </c>
       <c r="O25" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609899</v>
       </c>
       <c r="P25" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609899</v>
       </c>
       <c r="Q25" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609899</v>
       </c>
       <c r="R25" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609899</v>
       </c>
       <c r="S25" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609899</v>
       </c>
       <c r="T25" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609899</v>
       </c>
       <c r="U25" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609899</v>
       </c>
       <c r="V25" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609899</v>
       </c>
       <c r="W25" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609899</v>
       </c>
       <c r="X25" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609899</v>
       </c>
       <c r="Y25" t="n">
-        <v>15.07888360609898</v>
+        <v>15.07888360609899</v>
       </c>
     </row>
     <row r="26">
@@ -6200,31 +6200,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1020.877441161906</v>
+        <v>1020.877441161907</v>
       </c>
       <c r="C26" t="n">
-        <v>882.7789886073105</v>
+        <v>882.7789886073117</v>
       </c>
       <c r="D26" t="n">
-        <v>757.2394630617566</v>
+        <v>757.2394630617579</v>
       </c>
       <c r="E26" t="n">
-        <v>597.6527128501332</v>
+        <v>597.6527128501345</v>
       </c>
       <c r="F26" t="n">
-        <v>406.0252176098458</v>
+        <v>406.025217609847</v>
       </c>
       <c r="G26" t="n">
-        <v>198.600767511675</v>
+        <v>198.6007675116764</v>
       </c>
       <c r="H26" t="n">
-        <v>63.7179351102609</v>
+        <v>63.71793511026088</v>
       </c>
       <c r="I26" t="n">
         <v>35.91578399468465</v>
       </c>
       <c r="J26" t="n">
-        <v>171.24992184767</v>
+        <v>171.2499218476701</v>
       </c>
       <c r="K26" t="n">
         <v>375.9353445940055</v>
@@ -6239,34 +6239,34 @@
         <v>1212.874017025872</v>
       </c>
       <c r="O26" t="n">
-        <v>1458.437461161262</v>
+        <v>1458.437461161263</v>
       </c>
       <c r="P26" t="n">
         <v>1654.84073296935</v>
       </c>
       <c r="Q26" t="n">
-        <v>1777.37263543659</v>
+        <v>1777.372635436591</v>
       </c>
       <c r="R26" t="n">
-        <v>1795.789199734232</v>
+        <v>1795.789199734233</v>
       </c>
       <c r="S26" t="n">
-        <v>1781.617101019536</v>
+        <v>1781.617101019537</v>
       </c>
       <c r="T26" t="n">
-        <v>1772.548289510106</v>
+        <v>1772.548289510107</v>
       </c>
       <c r="U26" t="n">
         <v>1735.515443955102</v>
       </c>
       <c r="V26" t="n">
-        <v>1627.038924503563</v>
+        <v>1627.038924503564</v>
       </c>
       <c r="W26" t="n">
-        <v>1501.373839176656</v>
+        <v>1501.373839176657</v>
       </c>
       <c r="X26" t="n">
-        <v>1353.60143014375</v>
+        <v>1353.601430143751</v>
       </c>
       <c r="Y26" t="n">
         <v>1183.098866440396</v>
@@ -6306,49 +6306,49 @@
         <v>35.91578399468465</v>
       </c>
       <c r="K27" t="n">
-        <v>73.87380801795027</v>
+        <v>73.87380801795024</v>
       </c>
       <c r="L27" t="n">
         <v>191.1995979629473</v>
       </c>
       <c r="M27" t="n">
-        <v>372.8679251462136</v>
+        <v>372.8679251462135</v>
       </c>
       <c r="N27" t="n">
-        <v>577.7643619459218</v>
+        <v>577.7643619459217</v>
       </c>
       <c r="O27" t="n">
-        <v>709.457489489193</v>
+        <v>709.4574894891929</v>
       </c>
       <c r="P27" t="n">
-        <v>793.0763328677682</v>
+        <v>793.0763328677681</v>
       </c>
       <c r="Q27" t="n">
-        <v>786.1332122026944</v>
+        <v>793.0763328677681</v>
       </c>
       <c r="R27" t="n">
-        <v>786.1332122026944</v>
+        <v>656.9936460218443</v>
       </c>
       <c r="S27" t="n">
-        <v>786.1332122026944</v>
+        <v>463.4669719207885</v>
       </c>
       <c r="T27" t="n">
-        <v>784.6352041877676</v>
+        <v>461.9689639058618</v>
       </c>
       <c r="U27" t="n">
-        <v>760.6553634537074</v>
+        <v>437.9891231718016</v>
       </c>
       <c r="V27" t="n">
-        <v>534.8185666193098</v>
+        <v>410.5538791684953</v>
       </c>
       <c r="W27" t="n">
-        <v>265.4199973496011</v>
+        <v>356.7997839918463</v>
       </c>
       <c r="X27" t="n">
-        <v>261.556477059357</v>
+        <v>224.4478558932325</v>
       </c>
       <c r="Y27" t="n">
-        <v>35.91578399468465</v>
+        <v>214.4516369216198</v>
       </c>
     </row>
     <row r="28">
@@ -6364,67 +6364,67 @@
         <v>35.91578399468465</v>
       </c>
       <c r="D28" t="n">
-        <v>103.5381093050887</v>
+        <v>35.91578399468465</v>
       </c>
       <c r="E28" t="n">
-        <v>103.5381093050887</v>
+        <v>35.91578399468465</v>
       </c>
       <c r="F28" t="n">
-        <v>103.5381093050887</v>
+        <v>35.91578399468465</v>
       </c>
       <c r="G28" t="n">
-        <v>147.8774636587804</v>
+        <v>35.91578399468465</v>
       </c>
       <c r="H28" t="n">
-        <v>147.8774636587804</v>
+        <v>35.91578399468465</v>
       </c>
       <c r="I28" t="n">
-        <v>147.8774636587804</v>
+        <v>35.91578399468465</v>
       </c>
       <c r="J28" t="n">
-        <v>240.1914550489279</v>
+        <v>35.91578399468465</v>
       </c>
       <c r="K28" t="n">
-        <v>256.1827763203649</v>
+        <v>35.91578399468465</v>
       </c>
       <c r="L28" t="n">
-        <v>256.1827763203649</v>
+        <v>215.4345424482159</v>
       </c>
       <c r="M28" t="n">
-        <v>256.1827763203649</v>
+        <v>215.4345424482159</v>
       </c>
       <c r="N28" t="n">
-        <v>256.1827763203649</v>
+        <v>215.4345424482159</v>
       </c>
       <c r="O28" t="n">
-        <v>256.1827763203649</v>
+        <v>266.139026119299</v>
       </c>
       <c r="P28" t="n">
-        <v>256.1827763203649</v>
+        <v>266.139026119299</v>
       </c>
       <c r="Q28" t="n">
-        <v>256.1827763203649</v>
+        <v>266.139026119299</v>
       </c>
       <c r="R28" t="n">
-        <v>266.1390261192992</v>
+        <v>266.139026119299</v>
       </c>
       <c r="S28" t="n">
-        <v>243.9668043204432</v>
+        <v>243.966804320443</v>
       </c>
       <c r="T28" t="n">
-        <v>233.5893821974704</v>
+        <v>233.5893821974703</v>
       </c>
       <c r="U28" t="n">
-        <v>157.6615749923414</v>
+        <v>157.6615749923413</v>
       </c>
       <c r="V28" t="n">
         <v>125.7211852627243</v>
       </c>
       <c r="W28" t="n">
-        <v>48.12252088170784</v>
+        <v>48.12252088170779</v>
       </c>
       <c r="X28" t="n">
-        <v>39.60592890583558</v>
+        <v>39.60592890583556</v>
       </c>
       <c r="Y28" t="n">
         <v>35.91578399468465</v>
@@ -6449,7 +6449,7 @@
         <v>597.6527128501332</v>
       </c>
       <c r="F29" t="n">
-        <v>406.0252176098459</v>
+        <v>406.0252176098458</v>
       </c>
       <c r="G29" t="n">
         <v>198.6007675116752</v>
@@ -6461,19 +6461,19 @@
         <v>35.91578399468465</v>
       </c>
       <c r="J29" t="n">
-        <v>171.2499218476698</v>
+        <v>171.2499218476706</v>
       </c>
       <c r="K29" t="n">
-        <v>375.9353445940053</v>
+        <v>375.9353445940061</v>
       </c>
       <c r="L29" t="n">
-        <v>633.9996519916494</v>
+        <v>633.9996519916502</v>
       </c>
       <c r="M29" t="n">
-        <v>926.2039246636026</v>
+        <v>926.2039246636033</v>
       </c>
       <c r="N29" t="n">
-        <v>1212.874017025872</v>
+        <v>1212.874017025873</v>
       </c>
       <c r="O29" t="n">
         <v>1458.437461161263</v>
@@ -6491,22 +6491,22 @@
         <v>1781.617101019536</v>
       </c>
       <c r="T29" t="n">
-        <v>1772.548289510107</v>
+        <v>1772.548289510106</v>
       </c>
       <c r="U29" t="n">
         <v>1735.515443955102</v>
       </c>
       <c r="V29" t="n">
-        <v>1627.038924503564</v>
+        <v>1627.038924503563</v>
       </c>
       <c r="W29" t="n">
-        <v>1501.373839176657</v>
+        <v>1501.373839176656</v>
       </c>
       <c r="X29" t="n">
-        <v>1353.601430143751</v>
+        <v>1353.60143014375</v>
       </c>
       <c r="Y29" t="n">
-        <v>1183.098866440396</v>
+        <v>1183.098866440395</v>
       </c>
     </row>
     <row r="30">
@@ -6543,46 +6543,46 @@
         <v>35.91578399468465</v>
       </c>
       <c r="K30" t="n">
-        <v>73.87380801795027</v>
+        <v>73.87380801795024</v>
       </c>
       <c r="L30" t="n">
         <v>191.1995979629473</v>
       </c>
       <c r="M30" t="n">
-        <v>372.8679251462136</v>
+        <v>372.8679251462135</v>
       </c>
       <c r="N30" t="n">
-        <v>577.7643619459218</v>
+        <v>577.7643619459217</v>
       </c>
       <c r="O30" t="n">
-        <v>709.457489489193</v>
+        <v>709.4574894891929</v>
       </c>
       <c r="P30" t="n">
-        <v>793.0763328677682</v>
+        <v>793.0763328677681</v>
       </c>
       <c r="Q30" t="n">
-        <v>786.1332122026944</v>
+        <v>793.0763328677681</v>
       </c>
       <c r="R30" t="n">
-        <v>786.1332122026944</v>
+        <v>793.0763328677681</v>
       </c>
       <c r="S30" t="n">
-        <v>786.1332122026944</v>
+        <v>793.0763328677681</v>
       </c>
       <c r="T30" t="n">
-        <v>784.6352041877676</v>
+        <v>575.9338507597818</v>
       </c>
       <c r="U30" t="n">
-        <v>760.6553634537074</v>
+        <v>551.9540100257216</v>
       </c>
       <c r="V30" t="n">
-        <v>733.2201194504011</v>
+        <v>308.8742919293556</v>
       </c>
       <c r="W30" t="n">
-        <v>481.0644714426606</v>
+        <v>255.1201967527066</v>
       </c>
       <c r="X30" t="n">
-        <v>261.556477059357</v>
+        <v>45.91200296629738</v>
       </c>
       <c r="Y30" t="n">
         <v>35.91578399468465</v>
@@ -6625,43 +6625,43 @@
         <v>35.91578399468465</v>
       </c>
       <c r="L31" t="n">
-        <v>35.91578399468465</v>
+        <v>170.7767483796288</v>
       </c>
       <c r="M31" t="n">
-        <v>35.91578399468465</v>
+        <v>170.7767483796288</v>
       </c>
       <c r="N31" t="n">
-        <v>35.91578399468465</v>
+        <v>170.7767483796288</v>
       </c>
       <c r="O31" t="n">
-        <v>210.1609470742073</v>
+        <v>170.7767483796288</v>
       </c>
       <c r="P31" t="n">
-        <v>266.1390261192992</v>
+        <v>170.7767483796288</v>
       </c>
       <c r="Q31" t="n">
-        <v>266.1390261192992</v>
+        <v>256.1827763203647</v>
       </c>
       <c r="R31" t="n">
-        <v>266.1390261192992</v>
+        <v>266.139026119299</v>
       </c>
       <c r="S31" t="n">
-        <v>243.9668043204432</v>
+        <v>243.966804320443</v>
       </c>
       <c r="T31" t="n">
-        <v>233.5893821974704</v>
+        <v>233.5893821974703</v>
       </c>
       <c r="U31" t="n">
-        <v>157.6615749923415</v>
+        <v>157.6615749923413</v>
       </c>
       <c r="V31" t="n">
-        <v>125.7211852627244</v>
+        <v>125.7211852627243</v>
       </c>
       <c r="W31" t="n">
-        <v>48.12252088170785</v>
+        <v>48.12252088170779</v>
       </c>
       <c r="X31" t="n">
-        <v>39.60592890583559</v>
+        <v>39.60592890583556</v>
       </c>
       <c r="Y31" t="n">
         <v>35.91578399468465</v>
@@ -6689,7 +6689,7 @@
         <v>402.9866424213538</v>
       </c>
       <c r="G32" t="n">
-        <v>196.4812675345173</v>
+        <v>196.481267534517</v>
       </c>
       <c r="H32" t="n">
         <v>62.51751034443703</v>
@@ -6701,22 +6701,22 @@
         <v>171.8693579078084</v>
       </c>
       <c r="K32" t="n">
-        <v>377.4555662687723</v>
+        <v>355.5623675671084</v>
       </c>
       <c r="L32" t="n">
-        <v>636.4206592810448</v>
+        <v>614.5274605793809</v>
       </c>
       <c r="M32" t="n">
-        <v>929.5257175676261</v>
+        <v>907.6325188659623</v>
       </c>
       <c r="N32" t="n">
-        <v>1217.096595544524</v>
+        <v>1195.20339684286</v>
       </c>
       <c r="O32" t="n">
-        <v>1463.560825294543</v>
+        <v>1441.667626592879</v>
       </c>
       <c r="P32" t="n">
-        <v>1660.864882717258</v>
+        <v>1638.971684015594</v>
       </c>
       <c r="Q32" t="n">
         <v>1762.404372097463</v>
@@ -6753,19 +6753,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>185.8815431678905</v>
+        <v>35.63443444019467</v>
       </c>
       <c r="C33" t="n">
-        <v>185.8815431678905</v>
+        <v>35.63443444019467</v>
       </c>
       <c r="D33" t="n">
-        <v>185.8815431678905</v>
+        <v>35.63443444019467</v>
       </c>
       <c r="E33" t="n">
-        <v>185.8815431678905</v>
+        <v>35.63443444019467</v>
       </c>
       <c r="F33" t="n">
-        <v>185.8815431678905</v>
+        <v>35.63443444019467</v>
       </c>
       <c r="G33" t="n">
         <v>35.63443444019467</v>
@@ -6780,49 +6780,49 @@
         <v>35.63443444019467</v>
       </c>
       <c r="K33" t="n">
-        <v>73.59245846346028</v>
+        <v>73.59245846346026</v>
       </c>
       <c r="L33" t="n">
         <v>190.9182484084573</v>
       </c>
       <c r="M33" t="n">
-        <v>372.5865755917235</v>
+        <v>372.5865755917234</v>
       </c>
       <c r="N33" t="n">
-        <v>577.4830123914318</v>
+        <v>577.4830123914317</v>
       </c>
       <c r="O33" t="n">
-        <v>709.176139934703</v>
+        <v>709.1761399347029</v>
       </c>
       <c r="P33" t="n">
-        <v>792.7949833132782</v>
+        <v>792.7949833132781</v>
       </c>
       <c r="Q33" t="n">
-        <v>785.8518626482044</v>
+        <v>792.7949833132781</v>
       </c>
       <c r="R33" t="n">
-        <v>785.8518626482044</v>
+        <v>792.7949833132781</v>
       </c>
       <c r="S33" t="n">
-        <v>785.8518626482044</v>
+        <v>599.2683092122223</v>
       </c>
       <c r="T33" t="n">
-        <v>733.4421848958805</v>
+        <v>382.125827104236</v>
       </c>
       <c r="U33" t="n">
-        <v>710.3814193731541</v>
+        <v>142.5015122771162</v>
       </c>
       <c r="V33" t="n">
-        <v>467.3017012767882</v>
+        <v>115.9853434851438</v>
       </c>
       <c r="W33" t="n">
-        <v>197.9031320070795</v>
+        <v>63.15032351982857</v>
       </c>
       <c r="X33" t="n">
-        <v>194.9586869281694</v>
+        <v>60.20587844091842</v>
       </c>
       <c r="Y33" t="n">
-        <v>185.8815431678905</v>
+        <v>51.12873468063957</v>
       </c>
     </row>
     <row r="34">
@@ -6841,37 +6841,37 @@
         <v>35.63443444019467</v>
       </c>
       <c r="E34" t="n">
-        <v>107.628989313328</v>
+        <v>35.63443444019467</v>
       </c>
       <c r="F34" t="n">
-        <v>107.628989313328</v>
+        <v>35.63443444019467</v>
       </c>
       <c r="G34" t="n">
-        <v>152.869129281648</v>
+        <v>35.63443444019467</v>
       </c>
       <c r="H34" t="n">
-        <v>200.9566655363977</v>
+        <v>35.63443444019467</v>
       </c>
       <c r="I34" t="n">
-        <v>200.9566655363977</v>
+        <v>35.63443444019467</v>
       </c>
       <c r="J34" t="n">
-        <v>259.4241500854719</v>
+        <v>35.63443444019467</v>
       </c>
       <c r="K34" t="n">
-        <v>259.4241500854719</v>
+        <v>35.63443444019467</v>
       </c>
       <c r="L34" t="n">
-        <v>259.4241500854719</v>
+        <v>105.0673575932526</v>
       </c>
       <c r="M34" t="n">
-        <v>259.4241500854719</v>
+        <v>105.0673575932526</v>
       </c>
       <c r="N34" t="n">
-        <v>259.4241500854719</v>
+        <v>105.0673575932526</v>
       </c>
       <c r="O34" t="n">
-        <v>259.4241500854719</v>
+        <v>105.0673575932526</v>
       </c>
       <c r="P34" t="n">
         <v>259.4241500854719</v>
@@ -6932,31 +6932,31 @@
         <v>20.83690038858566</v>
       </c>
       <c r="I35" t="n">
-        <v>51.5733467117585</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="J35" t="n">
-        <v>244.892819196293</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="K35" t="n">
-        <v>482.0516596841115</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="L35" t="n">
-        <v>528.7628180231479</v>
+        <v>67.54805872762208</v>
       </c>
       <c r="M35" t="n">
-        <v>609.6139416364933</v>
+        <v>325.4047010363697</v>
       </c>
       <c r="N35" t="n">
-        <v>684.9308849401555</v>
+        <v>583.2613433451173</v>
       </c>
       <c r="O35" t="n">
-        <v>719.1411800169378</v>
+        <v>721.6717096052821</v>
       </c>
       <c r="P35" t="n">
-        <v>719.1411800169378</v>
+        <v>976.0603160449183</v>
       </c>
       <c r="Q35" t="n">
-        <v>899.6584171157274</v>
+        <v>976.0603160449183</v>
       </c>
       <c r="R35" t="n">
         <v>976.0603160449183</v>
@@ -6990,76 +6990,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>771.0543285965954</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="C36" t="n">
-        <v>771.0543285965954</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="D36" t="n">
-        <v>771.0543285965954</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="E36" t="n">
-        <v>597.4911247180098</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="F36" t="n">
-        <v>437.0634084352539</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="G36" t="n">
-        <v>286.8162997075581</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="H36" t="n">
-        <v>159.8103957706868</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="I36" t="n">
-        <v>51.36135310766758</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="J36" t="n">
         <v>20.83690038858566</v>
       </c>
       <c r="K36" t="n">
-        <v>58.79492441185128</v>
+        <v>58.79492441185126</v>
       </c>
       <c r="L36" t="n">
         <v>176.1207143568483</v>
       </c>
       <c r="M36" t="n">
-        <v>357.7890415401146</v>
+        <v>357.7890415401145</v>
       </c>
       <c r="N36" t="n">
-        <v>562.6854783398228</v>
+        <v>562.6854783398227</v>
       </c>
       <c r="O36" t="n">
-        <v>694.378605883094</v>
+        <v>694.3786058830939</v>
       </c>
       <c r="P36" t="n">
-        <v>777.9974492616692</v>
+        <v>777.9974492616691</v>
       </c>
       <c r="Q36" t="n">
-        <v>771.0543285965954</v>
+        <v>777.9974492616691</v>
       </c>
       <c r="R36" t="n">
-        <v>771.0543285965954</v>
+        <v>729.077764460118</v>
       </c>
       <c r="S36" t="n">
-        <v>771.0543285965954</v>
+        <v>729.077764460118</v>
       </c>
       <c r="T36" t="n">
-        <v>771.0543285965954</v>
+        <v>729.077764460118</v>
       </c>
       <c r="U36" t="n">
-        <v>771.0543285965954</v>
+        <v>729.077764460118</v>
       </c>
       <c r="V36" t="n">
-        <v>771.0543285965954</v>
+        <v>729.077764460118</v>
       </c>
       <c r="W36" t="n">
-        <v>771.0543285965954</v>
+        <v>465.9855878365616</v>
       </c>
       <c r="X36" t="n">
-        <v>771.0543285965954</v>
+        <v>246.477593453258</v>
       </c>
       <c r="Y36" t="n">
-        <v>771.0543285965954</v>
+        <v>20.83690038858566</v>
       </c>
     </row>
     <row r="37">
@@ -7084,10 +7084,10 @@
         <v>20.83690038858566</v>
       </c>
       <c r="G37" t="n">
-        <v>20.83690038858566</v>
+        <v>56.03802837397789</v>
       </c>
       <c r="H37" t="n">
-        <v>20.83690038858566</v>
+        <v>56.03802837397789</v>
       </c>
       <c r="I37" t="n">
         <v>56.03802837397789</v>
@@ -7169,37 +7169,37 @@
         <v>20.83690038858566</v>
       </c>
       <c r="I38" t="n">
-        <v>51.5733467117585</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="J38" t="n">
-        <v>244.892819196293</v>
+        <v>214.1563728731201</v>
       </c>
       <c r="K38" t="n">
-        <v>502.7494615050406</v>
+        <v>214.1563728731201</v>
       </c>
       <c r="L38" t="n">
-        <v>549.4606198440771</v>
+        <v>415.5195408058148</v>
       </c>
       <c r="M38" t="n">
-        <v>630.3117434574224</v>
+        <v>673.3761831145624</v>
       </c>
       <c r="N38" t="n">
-        <v>705.6286867610845</v>
+        <v>931.23282542331</v>
       </c>
       <c r="O38" t="n">
-        <v>739.8389818378669</v>
+        <v>965.4431205000923</v>
       </c>
       <c r="P38" t="n">
-        <v>739.8389818378669</v>
+        <v>965.4431205000923</v>
       </c>
       <c r="Q38" t="n">
-        <v>920.3562189366564</v>
+        <v>965.4431205000923</v>
       </c>
       <c r="R38" t="n">
-        <v>996.7581178658473</v>
+        <v>1041.845019429283</v>
       </c>
       <c r="S38" t="n">
-        <v>1040.853378547123</v>
+        <v>1041.845019429283</v>
       </c>
       <c r="T38" t="n">
         <v>1041.845019429283</v>
@@ -7227,76 +7227,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>342.7220470353013</v>
+        <v>210.2491746556219</v>
       </c>
       <c r="C39" t="n">
-        <v>342.7220470353013</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="D39" t="n">
-        <v>342.7220470353013</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="E39" t="n">
-        <v>342.7220470353013</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="F39" t="n">
-        <v>182.2943307525454</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="G39" t="n">
-        <v>182.2943307525454</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="H39" t="n">
-        <v>182.2943307525454</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="I39" t="n">
-        <v>73.84528808952619</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="J39" t="n">
         <v>20.83690038858566</v>
       </c>
       <c r="K39" t="n">
-        <v>58.79492441185128</v>
+        <v>58.79492441185126</v>
       </c>
       <c r="L39" t="n">
         <v>176.1207143568483</v>
       </c>
       <c r="M39" t="n">
-        <v>357.7890415401146</v>
+        <v>357.7890415401145</v>
       </c>
       <c r="N39" t="n">
-        <v>562.6854783398228</v>
+        <v>562.6854783398227</v>
       </c>
       <c r="O39" t="n">
-        <v>694.378605883094</v>
+        <v>694.3786058830939</v>
       </c>
       <c r="P39" t="n">
-        <v>777.9974492616692</v>
+        <v>777.9974492616691</v>
       </c>
       <c r="Q39" t="n">
-        <v>777.9974492616692</v>
+        <v>777.9974492616691</v>
       </c>
       <c r="R39" t="n">
-        <v>777.9974492616692</v>
+        <v>777.9974492616691</v>
       </c>
       <c r="S39" t="n">
-        <v>584.4707751606135</v>
+        <v>670.4713748599742</v>
       </c>
       <c r="T39" t="n">
-        <v>584.4707751606135</v>
+        <v>453.3288927519878</v>
       </c>
       <c r="U39" t="n">
-        <v>584.4707751606135</v>
+        <v>453.3288927519878</v>
       </c>
       <c r="V39" t="n">
-        <v>584.4707751606135</v>
+        <v>210.2491746556219</v>
       </c>
       <c r="W39" t="n">
-        <v>584.4707751606135</v>
+        <v>210.2491746556219</v>
       </c>
       <c r="X39" t="n">
-        <v>568.3627400999736</v>
+        <v>210.2491746556219</v>
       </c>
       <c r="Y39" t="n">
-        <v>342.7220470353013</v>
+        <v>210.2491746556219</v>
       </c>
     </row>
     <row r="40">
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>37.602035793338</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="C40" t="n">
-        <v>37.602035793338</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="D40" t="n">
-        <v>37.602035793338</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="E40" t="n">
-        <v>37.602035793338</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="F40" t="n">
-        <v>37.602035793338</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="G40" t="n">
-        <v>37.602035793338</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="H40" t="n">
-        <v>37.602035793338</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="I40" t="n">
-        <v>37.602035793338</v>
+        <v>56.03802837397789</v>
       </c>
       <c r="J40" t="n">
-        <v>37.602035793338</v>
+        <v>56.03802837397789</v>
       </c>
       <c r="K40" t="n">
-        <v>37.602035793338</v>
+        <v>56.03802837397789</v>
       </c>
       <c r="L40" t="n">
-        <v>37.602035793338</v>
+        <v>56.03802837397789</v>
       </c>
       <c r="M40" t="n">
-        <v>37.602035793338</v>
+        <v>56.03802837397789</v>
       </c>
       <c r="N40" t="n">
-        <v>37.602035793338</v>
+        <v>56.03802837397789</v>
       </c>
       <c r="O40" t="n">
-        <v>37.602035793338</v>
+        <v>56.03802837397789</v>
       </c>
       <c r="P40" t="n">
-        <v>37.602035793338</v>
+        <v>56.03802837397789</v>
       </c>
       <c r="Q40" t="n">
-        <v>37.602035793338</v>
+        <v>56.03802837397789</v>
       </c>
       <c r="R40" t="n">
-        <v>37.602035793338</v>
+        <v>56.03802837397789</v>
       </c>
       <c r="S40" t="n">
-        <v>37.602035793338</v>
+        <v>56.03802837397789</v>
       </c>
       <c r="T40" t="n">
-        <v>37.602035793338</v>
+        <v>56.03802837397789</v>
       </c>
       <c r="U40" t="n">
+        <v>39.27289296922555</v>
+      </c>
+      <c r="V40" t="n">
+        <v>39.27289296922555</v>
+      </c>
+      <c r="W40" t="n">
         <v>20.83690038858566</v>
       </c>
-      <c r="V40" t="n">
-        <v>47.51745904613708</v>
-      </c>
-      <c r="W40" t="n">
-        <v>29.08146646549719</v>
-      </c>
       <c r="X40" t="n">
-        <v>37.602035793338</v>
+        <v>20.83690038858566</v>
       </c>
       <c r="Y40" t="n">
-        <v>37.602035793338</v>
+        <v>20.83690038858566</v>
       </c>
     </row>
     <row r="41">
@@ -7388,16 +7388,16 @@
         <v>818.4119981543697</v>
       </c>
       <c r="C41" t="n">
-        <v>708.1156967153502</v>
+        <v>708.1156967153501</v>
       </c>
       <c r="D41" t="n">
         <v>610.3783222853726</v>
       </c>
       <c r="E41" t="n">
-        <v>478.5937231893254</v>
+        <v>478.5937231893256</v>
       </c>
       <c r="F41" t="n">
-        <v>314.7683790646142</v>
+        <v>314.7683790646147</v>
       </c>
       <c r="G41" t="n">
         <v>135.1460800820201</v>
@@ -7409,25 +7409,25 @@
         <v>28.06539879618224</v>
       </c>
       <c r="J41" t="n">
-        <v>28.06539879618224</v>
+        <v>190.6484249575439</v>
       </c>
       <c r="K41" t="n">
-        <v>28.06539879618224</v>
+        <v>190.6484249575439</v>
       </c>
       <c r="L41" t="n">
-        <v>313.3785945022027</v>
+        <v>475.9616206635643</v>
       </c>
       <c r="M41" t="n">
-        <v>632.8317554825321</v>
+        <v>556.8127442769096</v>
       </c>
       <c r="N41" t="n">
-        <v>946.7507361531782</v>
+        <v>861.1399946428644</v>
       </c>
       <c r="O41" t="n">
-        <v>1207.823696427477</v>
+        <v>1133.952327086631</v>
       </c>
       <c r="P41" t="n">
-        <v>1207.823696427477</v>
+        <v>1357.604487203094</v>
       </c>
       <c r="Q41" t="n">
         <v>1357.604487203094</v>
@@ -7464,16 +7464,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>292.1086827387669</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="C42" t="n">
-        <v>292.1086827387669</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="D42" t="n">
-        <v>188.4931150789382</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="E42" t="n">
-        <v>188.4931150789382</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="F42" t="n">
         <v>28.06539879618224</v>
@@ -7491,49 +7491,49 @@
         <v>28.06539879618224</v>
       </c>
       <c r="K42" t="n">
-        <v>66.02342281944786</v>
+        <v>66.02342281944783</v>
       </c>
       <c r="L42" t="n">
-        <v>183.3492127644449</v>
+        <v>183.3492127644448</v>
       </c>
       <c r="M42" t="n">
-        <v>365.0175399477112</v>
+        <v>365.017539947711</v>
       </c>
       <c r="N42" t="n">
-        <v>569.9139767474194</v>
+        <v>569.9139767474193</v>
       </c>
       <c r="O42" t="n">
-        <v>701.6071042906906</v>
+        <v>701.6071042906905</v>
       </c>
       <c r="P42" t="n">
-        <v>785.2259476692658</v>
+        <v>785.2259476692657</v>
       </c>
       <c r="Q42" t="n">
-        <v>778.282827004192</v>
+        <v>785.2259476692657</v>
       </c>
       <c r="R42" t="n">
-        <v>778.282827004192</v>
+        <v>785.2259476692657</v>
       </c>
       <c r="S42" t="n">
-        <v>778.282827004192</v>
+        <v>591.6992735682099</v>
       </c>
       <c r="T42" t="n">
-        <v>561.1403448962056</v>
+        <v>591.6992735682099</v>
       </c>
       <c r="U42" t="n">
-        <v>561.1403448962056</v>
+        <v>591.6992735682099</v>
       </c>
       <c r="V42" t="n">
-        <v>318.0606267998397</v>
+        <v>452.0611901674938</v>
       </c>
       <c r="W42" t="n">
-        <v>292.1086827387669</v>
+        <v>426.109246106421</v>
       </c>
       <c r="X42" t="n">
-        <v>292.1086827387669</v>
+        <v>206.6012517231173</v>
       </c>
       <c r="Y42" t="n">
-        <v>292.1086827387669</v>
+        <v>206.6012517231173</v>
       </c>
     </row>
     <row r="43">
@@ -7561,49 +7561,49 @@
         <v>28.06539879618224</v>
       </c>
       <c r="H43" t="n">
-        <v>54.72903559853609</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="I43" t="n">
-        <v>130.125806765216</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="J43" t="n">
-        <v>130.125806765216</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="K43" t="n">
-        <v>130.125806765216</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="L43" t="n">
-        <v>130.125806765216</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="M43" t="n">
-        <v>130.125806765216</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="N43" t="n">
-        <v>130.125806765216</v>
+        <v>130.1258067652159</v>
       </c>
       <c r="O43" t="n">
-        <v>130.125806765216</v>
+        <v>130.1258067652159</v>
       </c>
       <c r="P43" t="n">
-        <v>130.125806765216</v>
+        <v>130.1258067652159</v>
       </c>
       <c r="Q43" t="n">
-        <v>130.125806765216</v>
+        <v>130.1258067652159</v>
       </c>
       <c r="R43" t="n">
-        <v>130.125806765216</v>
+        <v>130.1258067652159</v>
       </c>
       <c r="S43" t="n">
-        <v>130.125806765216</v>
+        <v>130.1258067652159</v>
       </c>
       <c r="T43" t="n">
-        <v>130.125806765216</v>
+        <v>130.1258067652159</v>
       </c>
       <c r="U43" t="n">
-        <v>82.00015067566332</v>
+        <v>82.00015067566326</v>
       </c>
       <c r="V43" t="n">
-        <v>77.86191206162249</v>
+        <v>77.86191206162246</v>
       </c>
       <c r="W43" t="n">
         <v>28.06539879618224</v>
@@ -7622,19 +7622,19 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>818.4119981543699</v>
+        <v>818.4119981543706</v>
       </c>
       <c r="C44" t="n">
-        <v>708.1156967153504</v>
+        <v>708.1156967153513</v>
       </c>
       <c r="D44" t="n">
-        <v>610.3783222853729</v>
+        <v>610.3783222853735</v>
       </c>
       <c r="E44" t="n">
-        <v>478.5937231893254</v>
+        <v>478.5937231893261</v>
       </c>
       <c r="F44" t="n">
-        <v>314.7683790646142</v>
+        <v>314.7683790646149</v>
       </c>
       <c r="G44" t="n">
         <v>135.1460800820201</v>
@@ -7646,31 +7646,31 @@
         <v>28.06539879618224</v>
       </c>
       <c r="J44" t="n">
-        <v>190.6484249575439</v>
+        <v>174.365606607022</v>
       </c>
       <c r="K44" t="n">
-        <v>269.8779412442195</v>
+        <v>406.2999176617338</v>
       </c>
       <c r="L44" t="n">
-        <v>555.19113695024</v>
+        <v>691.6131133677542</v>
       </c>
       <c r="M44" t="n">
-        <v>874.6442979305693</v>
+        <v>772.4642369810995</v>
       </c>
       <c r="N44" t="n">
-        <v>949.9612412342315</v>
+        <v>1086.383217651746</v>
       </c>
       <c r="O44" t="n">
-        <v>984.1715363110138</v>
+        <v>1120.593512728528</v>
       </c>
       <c r="P44" t="n">
-        <v>1207.823696427477</v>
+        <v>1344.245672844991</v>
       </c>
       <c r="Q44" t="n">
-        <v>1357.604487203094</v>
+        <v>1344.245672844991</v>
       </c>
       <c r="R44" t="n">
-        <v>1403.269939809112</v>
+        <v>1389.911125451009</v>
       </c>
       <c r="S44" t="n">
         <v>1403.269939809112</v>
@@ -7679,19 +7679,19 @@
         <v>1403.269939809112</v>
       </c>
       <c r="U44" t="n">
-        <v>1394.039245369684</v>
+        <v>1394.039245369685</v>
       </c>
       <c r="V44" t="n">
         <v>1313.364877033722</v>
       </c>
       <c r="W44" t="n">
-        <v>1215.501942822391</v>
+        <v>1215.501942822392</v>
       </c>
       <c r="X44" t="n">
-        <v>1095.531684905061</v>
+        <v>1095.531684905062</v>
       </c>
       <c r="Y44" t="n">
-        <v>952.8312723172829</v>
+        <v>952.8312723172836</v>
       </c>
     </row>
     <row r="45">
@@ -7701,25 +7701,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>508.8842577344833</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="C45" t="n">
-        <v>508.8842577344833</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="D45" t="n">
-        <v>508.8842577344833</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="E45" t="n">
-        <v>508.8842577344833</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="F45" t="n">
-        <v>348.4565414517274</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="G45" t="n">
-        <v>263.5203453960727</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="H45" t="n">
-        <v>136.5144414592014</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="I45" t="n">
         <v>28.06539879618224</v>
@@ -7728,49 +7728,49 @@
         <v>28.06539879618224</v>
       </c>
       <c r="K45" t="n">
-        <v>66.02342281944786</v>
+        <v>66.02342281944783</v>
       </c>
       <c r="L45" t="n">
-        <v>183.3492127644449</v>
+        <v>183.3492127644448</v>
       </c>
       <c r="M45" t="n">
-        <v>365.0175399477112</v>
+        <v>365.017539947711</v>
       </c>
       <c r="N45" t="n">
-        <v>569.9139767474194</v>
+        <v>569.9139767474193</v>
       </c>
       <c r="O45" t="n">
-        <v>701.6071042906906</v>
+        <v>701.6071042906905</v>
       </c>
       <c r="P45" t="n">
-        <v>785.2259476692658</v>
+        <v>785.2259476692657</v>
       </c>
       <c r="Q45" t="n">
-        <v>778.282827004192</v>
+        <v>785.2259476692657</v>
       </c>
       <c r="R45" t="n">
-        <v>778.282827004192</v>
+        <v>704.3108138934169</v>
       </c>
       <c r="S45" t="n">
-        <v>778.282827004192</v>
+        <v>510.7841397923612</v>
       </c>
       <c r="T45" t="n">
-        <v>778.282827004192</v>
+        <v>293.6416576843749</v>
       </c>
       <c r="U45" t="n">
-        <v>778.282827004192</v>
+        <v>54.01734285725505</v>
       </c>
       <c r="V45" t="n">
-        <v>778.282827004192</v>
+        <v>54.01734285725505</v>
       </c>
       <c r="W45" t="n">
-        <v>508.8842577344833</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="X45" t="n">
-        <v>508.8842577344833</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="Y45" t="n">
-        <v>508.8842577344833</v>
+        <v>28.06539879618224</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>31.78314919833478</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="C46" t="n">
-        <v>31.78314919833478</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="D46" t="n">
-        <v>31.78314919833478</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="E46" t="n">
-        <v>130.125806765216</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="F46" t="n">
-        <v>130.125806765216</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="G46" t="n">
-        <v>130.125806765216</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="H46" t="n">
-        <v>130.125806765216</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="I46" t="n">
-        <v>130.125806765216</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="J46" t="n">
-        <v>130.125806765216</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="K46" t="n">
-        <v>130.125806765216</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="L46" t="n">
-        <v>130.125806765216</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="M46" t="n">
-        <v>130.125806765216</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="N46" t="n">
-        <v>130.125806765216</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="O46" t="n">
-        <v>130.125806765216</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="P46" t="n">
-        <v>130.125806765216</v>
+        <v>113.0478298795652</v>
       </c>
       <c r="Q46" t="n">
-        <v>130.125806765216</v>
+        <v>113.0478298795652</v>
       </c>
       <c r="R46" t="n">
-        <v>130.125806765216</v>
+        <v>113.0478298795652</v>
       </c>
       <c r="S46" t="n">
-        <v>130.125806765216</v>
+        <v>113.0478298795652</v>
       </c>
       <c r="T46" t="n">
-        <v>130.125806765216</v>
+        <v>130.1258067652159</v>
       </c>
       <c r="U46" t="n">
-        <v>82.00015067566332</v>
+        <v>82.00015067566326</v>
       </c>
       <c r="V46" t="n">
-        <v>77.86191206162249</v>
+        <v>77.86191206162246</v>
       </c>
       <c r="W46" t="n">
         <v>28.06539879618224</v>
       </c>
       <c r="X46" t="n">
-        <v>31.78314919833478</v>
+        <v>28.06539879618224</v>
       </c>
       <c r="Y46" t="n">
-        <v>31.78314919833478</v>
+        <v>28.06539879618224</v>
       </c>
     </row>
   </sheetData>
@@ -23255,28 +23255,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>7.459431452055071</v>
+        <v>7.459431452054986</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>172.0637335316378</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>159.6303957926862</v>
       </c>
       <c r="E11" t="n">
-        <v>193.3371482120952</v>
+        <v>4.851103135857812</v>
       </c>
       <c r="F11" t="n">
-        <v>225.0574857904725</v>
+        <v>36.57144071423514</v>
       </c>
       <c r="G11" t="n">
-        <v>240.696471099777</v>
+        <v>240.6964710997769</v>
       </c>
       <c r="H11" t="n">
-        <v>168.880269579988</v>
+        <v>168.8802695799879</v>
       </c>
       <c r="I11" t="n">
-        <v>62.87039510700853</v>
+        <v>62.87039510700843</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,28 +23303,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>16.74367530294985</v>
+        <v>16.74367530294967</v>
       </c>
       <c r="S11" t="n">
-        <v>49.37664323013701</v>
+        <v>49.37664323013689</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>44.32438889692364</v>
       </c>
       <c r="U11" t="n">
-        <v>72.00878260204234</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>142.7380197596111</v>
+        <v>142.7380197596109</v>
       </c>
       <c r="W11" t="n">
-        <v>159.7546999762259</v>
+        <v>65.74497407511824</v>
       </c>
       <c r="X11" t="n">
-        <v>14.66887001078881</v>
+        <v>181.6409504451651</v>
       </c>
       <c r="Y11" t="n">
-        <v>204.1438035689089</v>
+        <v>204.1438035689088</v>
       </c>
     </row>
     <row r="12">
@@ -23492,28 +23492,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>195.9454765282924</v>
+        <v>195.9454765282923</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>172.0637335316378</v>
       </c>
       <c r="D14" t="n">
-        <v>159.6303957926863</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>193.3371482120952</v>
+        <v>4.851103135857812</v>
       </c>
       <c r="F14" t="n">
-        <v>225.0574857904725</v>
+        <v>199.8366086518749</v>
       </c>
       <c r="G14" t="n">
-        <v>240.696471099777</v>
+        <v>240.6964710997769</v>
       </c>
       <c r="H14" t="n">
-        <v>168.880269579988</v>
+        <v>168.8802695799879</v>
       </c>
       <c r="I14" t="n">
-        <v>36.96779831792379</v>
+        <v>62.87039510700842</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,19 +23540,19 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>16.74367530294985</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>49.37664323013689</v>
       </c>
       <c r="T14" t="n">
-        <v>44.32438889692376</v>
+        <v>44.32438889692364</v>
       </c>
       <c r="U14" t="n">
-        <v>72.00878260204234</v>
+        <v>72.00878260204223</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>142.7380197596109</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -23561,7 +23561,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>204.1438035689089</v>
+        <v>204.1438035689088</v>
       </c>
     </row>
     <row r="15">
@@ -23978,7 +23978,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -26311,13 +26311,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>308676.1983117608</v>
+        <v>308676.1983117609</v>
       </c>
       <c r="C2" t="n">
         <v>308676.1983117608</v>
       </c>
       <c r="D2" t="n">
-        <v>308863.309389083</v>
+        <v>308863.3093890829</v>
       </c>
       <c r="E2" t="n">
         <v>265902.975618507</v>
@@ -26329,7 +26329,7 @@
         <v>309301.4921004877</v>
       </c>
       <c r="H2" t="n">
-        <v>309301.4921004877</v>
+        <v>309301.4921004875</v>
       </c>
       <c r="I2" t="n">
         <v>309301.4921004876</v>
@@ -26338,10 +26338,10 @@
         <v>309301.4921004876</v>
       </c>
       <c r="K2" t="n">
-        <v>309301.4921004876</v>
+        <v>309301.4921004875</v>
       </c>
       <c r="L2" t="n">
-        <v>309301.492100488</v>
+        <v>309301.4921004879</v>
       </c>
       <c r="M2" t="n">
         <v>309301.4921004876</v>
@@ -26350,10 +26350,10 @@
         <v>309301.4921004877</v>
       </c>
       <c r="O2" t="n">
+        <v>309301.4921004878</v>
+      </c>
+      <c r="P2" t="n">
         <v>309301.4921004877</v>
-      </c>
-      <c r="P2" t="n">
-        <v>309301.4921004875</v>
       </c>
     </row>
     <row r="3">
@@ -26378,7 +26378,7 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>95448.13167658172</v>
+        <v>95448.13167658163</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,13 +26387,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>143490.4163710103</v>
+        <v>143490.4163710104</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>96176.03924395816</v>
+        <v>96176.03924395805</v>
       </c>
       <c r="M3" t="n">
         <v>46128.92849852183</v>
@@ -26402,7 +26402,7 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>72249.07655134112</v>
+        <v>72249.07655134131</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26424,13 +26424,13 @@
         <v>382300.9666476649</v>
       </c>
       <c r="E4" t="n">
-        <v>267204.7942598715</v>
+        <v>267204.7942598716</v>
       </c>
       <c r="F4" t="n">
         <v>267204.7942598715</v>
       </c>
       <c r="G4" t="n">
-        <v>337819.8605646756</v>
+        <v>337819.8605646757</v>
       </c>
       <c r="H4" t="n">
         <v>337819.8605646756</v>
@@ -26457,7 +26457,7 @@
         <v>338072.405993227</v>
       </c>
       <c r="P4" t="n">
-        <v>338072.4059932269</v>
+        <v>338072.405993227</v>
       </c>
     </row>
     <row r="5">
@@ -26476,16 +26476,16 @@
         <v>33841.42566141239</v>
       </c>
       <c r="E5" t="n">
-        <v>28641.3515203439</v>
+        <v>28641.35152034391</v>
       </c>
       <c r="F5" t="n">
-        <v>28641.3515203439</v>
+        <v>28641.35152034391</v>
       </c>
       <c r="G5" t="n">
-        <v>38671.63774774209</v>
+        <v>38671.63774774208</v>
       </c>
       <c r="H5" t="n">
-        <v>38671.63774774209</v>
+        <v>38671.63774774208</v>
       </c>
       <c r="I5" t="n">
         <v>38671.63774774209</v>
@@ -26519,34 +26519,34 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-107589.0091733543</v>
+        <v>-107593.4755575595</v>
       </c>
       <c r="C6" t="n">
-        <v>-107589.0091733545</v>
+        <v>-107593.4755575595</v>
       </c>
       <c r="D6" t="n">
-        <v>-108371.5280713846</v>
+        <v>-108374.6579478947</v>
       </c>
       <c r="E6" t="n">
-        <v>-308953.3134290882</v>
+        <v>-309263.3028325311</v>
       </c>
       <c r="F6" t="n">
-        <v>-29943.17016170842</v>
+        <v>-30253.15956515115</v>
       </c>
       <c r="G6" t="n">
-        <v>-162638.1378885118</v>
+        <v>-162638.1378885117</v>
       </c>
       <c r="H6" t="n">
-        <v>-67190.00621193004</v>
+        <v>-67190.00621193022</v>
       </c>
       <c r="I6" t="n">
         <v>-67190.00621193016</v>
       </c>
       <c r="J6" t="n">
-        <v>-220147.8940117033</v>
+        <v>-220147.8940117034</v>
       </c>
       <c r="K6" t="n">
-        <v>-76657.47764069299</v>
+        <v>-76657.47764069311</v>
       </c>
       <c r="L6" t="n">
         <v>-172679.9259924205</v>
@@ -26558,10 +26558,10 @@
         <v>-69296.8632238787</v>
       </c>
       <c r="O6" t="n">
-        <v>-144816.5447551387</v>
+        <v>-144816.5447551389</v>
       </c>
       <c r="P6" t="n">
-        <v>-72567.46820379767</v>
+        <v>-72567.46820379756</v>
       </c>
     </row>
   </sheetData>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="F2" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="G2" t="n">
         <v>297.4519284452681</v>
@@ -26808,10 +26808,10 @@
         <v>188.4860450762373</v>
       </c>
       <c r="I4" t="n">
-        <v>188.4860450762373</v>
+        <v>188.4860450762374</v>
       </c>
       <c r="J4" t="n">
-        <v>448.947299933558</v>
+        <v>448.9472999335582</v>
       </c>
       <c r="K4" t="n">
         <v>448.9472999335581</v>
@@ -26826,10 +26826,10 @@
         <v>260.4612548573208</v>
       </c>
       <c r="O4" t="n">
-        <v>350.817484952278</v>
+        <v>350.8174849522781</v>
       </c>
       <c r="P4" t="n">
-        <v>350.817484952278</v>
+        <v>350.8174849522781</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>119.3101645957271</v>
+        <v>119.310164595727</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>94.17786475640185</v>
+        <v>94.17786475640199</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>120.2200490549477</v>
+        <v>120.2200490549476</v>
       </c>
       <c r="M2" t="n">
         <v>57.66116062315228</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>63.13094927844946</v>
+        <v>63.13094927844969</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27048,7 +27048,7 @@
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>90.3562300949572</v>
+        <v>90.35623009495725</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>119.3101645957271</v>
+        <v>119.310164595727</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>94.17786475640185</v>
+        <v>94.17786475640199</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27859,7 +27859,7 @@
         <v>337.7721596422273</v>
       </c>
       <c r="E8" t="n">
-        <v>371.4789120616362</v>
+        <v>371.3012636738836</v>
       </c>
       <c r="F8" t="n">
         <v>400</v>
@@ -27874,7 +27874,7 @@
         <v>256.6898085504863</v>
       </c>
       <c r="J8" t="n">
-        <v>111.1237485033009</v>
+        <v>111.3013968910535</v>
       </c>
       <c r="K8" t="n">
         <v>58.46339092876153</v>
@@ -27929,7 +27929,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>176.7504943976657</v>
+        <v>173.2336249665409</v>
       </c>
       <c r="C9" t="n">
         <v>187.5181515243659</v>
@@ -27974,25 +27974,25 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>31.13081250099125</v>
+        <v>34.64768193211606</v>
       </c>
       <c r="R9" t="n">
         <v>148.2309527983001</v>
       </c>
       <c r="S9" t="n">
-        <v>195.63287444794</v>
+        <v>192.5352158530052</v>
       </c>
       <c r="T9" t="n">
-        <v>215.8480604164874</v>
+        <v>212.3311909853626</v>
       </c>
       <c r="U9" t="n">
-        <v>233.7255167710576</v>
+        <v>237.2423862021824</v>
       </c>
       <c r="V9" t="n">
-        <v>237.1320514842774</v>
+        <v>240.6489209154022</v>
       </c>
       <c r="W9" t="n">
-        <v>263.6069249820769</v>
+        <v>263.1877141458868</v>
       </c>
       <c r="X9" t="n">
         <v>217.3129144394706</v>
@@ -28087,34 +28087,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="C11" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="D11" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="E11" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="F11" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="G11" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="H11" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="I11" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="J11" t="n">
-        <v>178.141763849541</v>
+        <v>76.78688000567911</v>
       </c>
       <c r="K11" t="n">
-        <v>48.35187653621936</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -28123,40 +28123,40 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>112.4083245674877</v>
+        <v>93.08400737260575</v>
       </c>
       <c r="O11" t="n">
-        <v>0</v>
+        <v>153.9301914633259</v>
       </c>
       <c r="P11" t="n">
-        <v>178.141763849541</v>
+        <v>15.10088611163703</v>
       </c>
       <c r="Q11" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="R11" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="S11" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="T11" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="U11" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="V11" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="W11" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="X11" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="Y11" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
     </row>
     <row r="12">
@@ -28169,7 +28169,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C12" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="D12" t="n">
         <v>159.1723150765785</v>
@@ -28190,7 +28190,7 @@
         <v>107.364552236389</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>52.47830382393112</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -28211,31 +28211,31 @@
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>6.873689458423154</v>
       </c>
       <c r="R12" t="n">
         <v>134.7218599774646</v>
       </c>
       <c r="S12" t="n">
-        <v>178.141763849541</v>
+        <v>173.4568876248765</v>
       </c>
       <c r="T12" t="n">
-        <v>26.48501221066917</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="U12" t="n">
-        <v>178.141763849541</v>
+        <v>48.74202660261134</v>
       </c>
       <c r="V12" t="n">
-        <v>161.2140416449616</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="W12" t="n">
-        <v>178.141763849541</v>
+        <v>78.21853850077432</v>
       </c>
       <c r="X12" t="n">
-        <v>28.8268693632333</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="Y12" t="n">
-        <v>178.141763849541</v>
+        <v>34.89824105778834</v>
       </c>
     </row>
     <row r="13">
@@ -28251,70 +28251,70 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D13" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="E13" t="n">
         <v>141.676141212225</v>
       </c>
       <c r="F13" t="n">
-        <v>138.9268822184467</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="G13" t="n">
-        <v>168.7008027322384</v>
+        <v>170.6220078318424</v>
       </c>
       <c r="H13" t="n">
-        <v>165.824644867158</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="I13" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="J13" t="n">
-        <v>120.241573402485</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="K13" t="n">
-        <v>71.06165244264324</v>
+        <v>67.0332105846294</v>
       </c>
       <c r="L13" t="n">
-        <v>178.141763849541</v>
+        <v>32.1559501061379</v>
       </c>
       <c r="M13" t="n">
-        <v>178.141763849541</v>
+        <v>25.22122397250158</v>
       </c>
       <c r="N13" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="O13" t="n">
-        <v>37.4828141202879</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="P13" t="n">
-        <v>58.48196179900677</v>
+        <v>58.48196179900678</v>
       </c>
       <c r="Q13" t="n">
-        <v>127.2193142604766</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="R13" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="S13" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="T13" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="U13" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="V13" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="W13" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="X13" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="Y13" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
     </row>
     <row r="14">
@@ -28324,76 +28324,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="C14" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="D14" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="E14" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="F14" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="G14" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="H14" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="I14" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="J14" t="n">
-        <v>76.78688000567909</v>
+        <v>76.78688000567911</v>
       </c>
       <c r="K14" t="n">
-        <v>155.2968415009732</v>
+        <v>6.73507708310327</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>141.3030568549884</v>
       </c>
       <c r="M14" t="n">
-        <v>106.8182434465955</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>48.57009249532109</v>
       </c>
       <c r="O14" t="n">
-        <v>0</v>
+        <v>153.9301914633259</v>
       </c>
       <c r="P14" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="Q14" t="n">
-        <v>178.141763849541</v>
+        <v>89.71843090037106</v>
       </c>
       <c r="R14" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="S14" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="T14" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="U14" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="V14" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="W14" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="X14" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="Y14" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
     </row>
     <row r="15">
@@ -28406,13 +28406,13 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C15" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="D15" t="n">
         <v>159.1723150765785</v>
       </c>
       <c r="E15" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F15" t="n">
         <v>158.8234391199283</v>
@@ -28421,13 +28421,13 @@
         <v>148.7446376404189</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>125.7358448975026</v>
       </c>
       <c r="I15" t="n">
-        <v>27.67660736157822</v>
+        <v>107.364552236389</v>
       </c>
       <c r="J15" t="n">
-        <v>52.47830382393111</v>
+        <v>52.47830382393112</v>
       </c>
       <c r="K15" t="n">
         <v>0</v>
@@ -28448,31 +28448,31 @@
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>6.873689458423137</v>
+        <v>6.873689458423154</v>
       </c>
       <c r="R15" t="n">
-        <v>134.7218599774646</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>178.141763849541</v>
+        <v>35.53548756365853</v>
       </c>
       <c r="T15" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="U15" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="V15" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="W15" t="n">
-        <v>178.141763849541</v>
+        <v>78.21853850077432</v>
       </c>
       <c r="X15" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="Y15" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
     </row>
     <row r="16">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>178.141763849541</v>
+        <v>177.6169206649681</v>
       </c>
       <c r="C16" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="D16" t="n">
-        <v>145.1826502507107</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="E16" t="n">
-        <v>178.141763849541</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F16" t="n">
-        <v>138.9268822184467</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="G16" t="n">
         <v>168.7008027322384</v>
       </c>
       <c r="H16" t="n">
-        <v>178.141763849541</v>
+        <v>165.824644867158</v>
       </c>
       <c r="I16" t="n">
-        <v>164.8538042427314</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="J16" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="K16" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="L16" t="n">
-        <v>32.15595010613789</v>
+        <v>32.1559501061379</v>
       </c>
       <c r="M16" t="n">
-        <v>178.141763849541</v>
+        <v>129.2062130448629</v>
       </c>
       <c r="N16" t="n">
-        <v>16.52441230575095</v>
+        <v>16.52441230575096</v>
       </c>
       <c r="O16" t="n">
-        <v>45.70078102679262</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="P16" t="n">
-        <v>178.141763849541</v>
+        <v>58.48196179900678</v>
       </c>
       <c r="Q16" t="n">
         <v>127.2193142604766</v>
       </c>
       <c r="R16" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="S16" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="T16" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="U16" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="V16" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="W16" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="X16" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
       <c r="Y16" t="n">
-        <v>178.141763849541</v>
+        <v>178.1417638495411</v>
       </c>
     </row>
     <row r="17">
@@ -28582,19 +28582,19 @@
         <v>297.4519284452681</v>
       </c>
       <c r="I17" t="n">
-        <v>241.0121589565495</v>
+        <v>263.947650136583</v>
       </c>
       <c r="J17" t="n">
-        <v>170.2914064957156</v>
+        <v>265.2729250819164</v>
       </c>
       <c r="K17" t="n">
-        <v>6.735077083103242</v>
+        <v>6.73507708310327</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>141.3030568549884</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>106.8182434465955</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -28603,19 +28603,19 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>15.100886111637</v>
+        <v>15.10088611163703</v>
       </c>
       <c r="Q17" t="n">
-        <v>278.2044759766084</v>
+        <v>89.71843090037106</v>
       </c>
       <c r="R17" t="n">
-        <v>297.4519284452681</v>
+        <v>194.8854391524908</v>
       </c>
       <c r="S17" t="n">
         <v>227.518407079678</v>
       </c>
       <c r="T17" t="n">
-        <v>297.4519284452681</v>
+        <v>222.4661527464647</v>
       </c>
       <c r="U17" t="n">
         <v>297.4519284452681</v>
@@ -28646,25 +28646,25 @@
         <v>187.5181515243659</v>
       </c>
       <c r="D18" t="n">
-        <v>0</v>
+        <v>65.12546637215868</v>
       </c>
       <c r="E18" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>148.7446376404189</v>
       </c>
       <c r="H18" t="n">
-        <v>125.7358448975026</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>107.364552236389</v>
       </c>
       <c r="J18" t="n">
-        <v>52.47830382393111</v>
+        <v>52.47830382393112</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -28685,31 +28685,31 @@
         <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>6.873689458423154</v>
       </c>
       <c r="R18" t="n">
-        <v>134.7218599774646</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>191.5914073600452</v>
       </c>
       <c r="T18" t="n">
-        <v>214.9710572869065</v>
+        <v>26.4850122106692</v>
       </c>
       <c r="U18" t="n">
-        <v>237.2280716788486</v>
+        <v>48.74202660261134</v>
       </c>
       <c r="V18" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W18" t="n">
-        <v>197.3280662167361</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X18" t="n">
         <v>217.3129144394706</v>
       </c>
       <c r="Y18" t="n">
-        <v>34.89824105778831</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="19">
@@ -28746,22 +28746,22 @@
         <v>120.241573402485</v>
       </c>
       <c r="K19" t="n">
-        <v>67.03321058462939</v>
+        <v>67.0332105846294</v>
       </c>
       <c r="L19" t="n">
-        <v>32.15595010613789</v>
+        <v>32.1559501061379</v>
       </c>
       <c r="M19" t="n">
-        <v>25.22122397250156</v>
+        <v>25.22122397250158</v>
       </c>
       <c r="N19" t="n">
-        <v>16.52441230575095</v>
+        <v>16.52441230575096</v>
       </c>
       <c r="O19" t="n">
-        <v>37.4828141202879</v>
+        <v>37.48281412028791</v>
       </c>
       <c r="P19" t="n">
-        <v>58.48196179900677</v>
+        <v>58.48196179900678</v>
       </c>
       <c r="Q19" t="n">
         <v>127.2193142604766</v>
@@ -28819,40 +28819,40 @@
         <v>297.4519284452681</v>
       </c>
       <c r="I20" t="n">
+        <v>241.0121589565495</v>
+      </c>
+      <c r="J20" t="n">
+        <v>76.78688000567911</v>
+      </c>
+      <c r="K20" t="n">
+        <v>195.2211221593406</v>
+      </c>
+      <c r="L20" t="n">
+        <v>141.3030568549884</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>102.0693409215104</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>15.10088611163703</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>89.71843090037106</v>
+      </c>
+      <c r="R20" t="n">
+        <v>194.8854391524908</v>
+      </c>
+      <c r="S20" t="n">
+        <v>227.518407079678</v>
+      </c>
+      <c r="T20" t="n">
         <v>297.4519284452681</v>
-      </c>
-      <c r="J20" t="n">
-        <v>76.78688000567909</v>
-      </c>
-      <c r="K20" t="n">
-        <v>6.735077083103242</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>104.519279439853</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>278.2044759766084</v>
-      </c>
-      <c r="R20" t="n">
-        <v>297.4519284452681</v>
-      </c>
-      <c r="S20" t="n">
-        <v>297.4519284452681</v>
-      </c>
-      <c r="T20" t="n">
-        <v>222.4661527464647</v>
       </c>
       <c r="U20" t="n">
         <v>250.1505464515833</v>
@@ -28895,13 +28895,13 @@
         <v>148.7446376404189</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>125.7358448975026</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>107.364552236389</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>52.47830382393112</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -28922,31 +28922,31 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>6.873689458423154</v>
       </c>
       <c r="R21" t="n">
         <v>134.7218599774646</v>
       </c>
       <c r="S21" t="n">
-        <v>191.5914073600452</v>
+        <v>3.105362283807921</v>
       </c>
       <c r="T21" t="n">
         <v>214.9710572869065</v>
       </c>
       <c r="U21" t="n">
-        <v>237.2280716788486</v>
+        <v>48.74202660261133</v>
       </c>
       <c r="V21" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W21" t="n">
-        <v>204.6524204138703</v>
+        <v>78.21853850077432</v>
       </c>
       <c r="X21" t="n">
-        <v>28.8268693632333</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y21" t="n">
-        <v>34.89824105778831</v>
+        <v>57.36577763087593</v>
       </c>
     </row>
     <row r="22">
@@ -28983,22 +28983,22 @@
         <v>120.241573402485</v>
       </c>
       <c r="K22" t="n">
-        <v>67.03321058462939</v>
+        <v>67.0332105846294</v>
       </c>
       <c r="L22" t="n">
-        <v>32.15595010613789</v>
+        <v>32.1559501061379</v>
       </c>
       <c r="M22" t="n">
-        <v>25.22122397250156</v>
+        <v>25.22122397250158</v>
       </c>
       <c r="N22" t="n">
-        <v>16.52441230575095</v>
+        <v>16.52441230575096</v>
       </c>
       <c r="O22" t="n">
-        <v>37.4828141202879</v>
+        <v>37.48281412028791</v>
       </c>
       <c r="P22" t="n">
-        <v>58.48196179900677</v>
+        <v>58.48196179900678</v>
       </c>
       <c r="Q22" t="n">
         <v>127.2193142604766</v>
@@ -29059,13 +29059,13 @@
         <v>241.0121589565495</v>
       </c>
       <c r="J23" t="n">
-        <v>159.3576264110592</v>
+        <v>76.78688000567911</v>
       </c>
       <c r="K23" t="n">
-        <v>6.735077083103242</v>
+        <v>6.73507708310327</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>141.3030568549885</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -29074,13 +29074,13 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>153.930191463326</v>
       </c>
       <c r="P23" t="n">
-        <v>203.5869311878743</v>
+        <v>15.10088611163703</v>
       </c>
       <c r="Q23" t="n">
-        <v>278.2044759766084</v>
+        <v>179.0422434411082</v>
       </c>
       <c r="R23" t="n">
         <v>194.8854391524908</v>
@@ -29089,7 +29089,7 @@
         <v>227.518407079678</v>
       </c>
       <c r="T23" t="n">
-        <v>222.4661527464647</v>
+        <v>297.4519284452681</v>
       </c>
       <c r="U23" t="n">
         <v>297.4519284452681</v>
@@ -29138,7 +29138,7 @@
         <v>107.364552236389</v>
       </c>
       <c r="J24" t="n">
-        <v>52.47830382393111</v>
+        <v>52.47830382393112</v>
       </c>
       <c r="K24" t="n">
         <v>0</v>
@@ -29159,31 +29159,31 @@
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>6.873689458423154</v>
       </c>
       <c r="R24" t="n">
         <v>134.7218599774646</v>
       </c>
       <c r="S24" t="n">
-        <v>191.5914073600452</v>
+        <v>25.57289885689576</v>
       </c>
       <c r="T24" t="n">
-        <v>214.9710572869065</v>
+        <v>26.48501221066905</v>
       </c>
       <c r="U24" t="n">
         <v>237.2280716788486</v>
       </c>
       <c r="V24" t="n">
-        <v>52.16287583916494</v>
+        <v>52.16287583916483</v>
       </c>
       <c r="W24" t="n">
-        <v>78.21853850077429</v>
+        <v>266.7045835770116</v>
       </c>
       <c r="X24" t="n">
-        <v>28.8268693632333</v>
+        <v>28.82686936323319</v>
       </c>
       <c r="Y24" t="n">
-        <v>64.23946708929898</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="25">
@@ -29220,22 +29220,22 @@
         <v>120.241573402485</v>
       </c>
       <c r="K25" t="n">
-        <v>67.03321058462939</v>
+        <v>67.0332105846294</v>
       </c>
       <c r="L25" t="n">
-        <v>32.15595010613789</v>
+        <v>32.1559501061379</v>
       </c>
       <c r="M25" t="n">
-        <v>25.22122397250156</v>
+        <v>25.22122397250158</v>
       </c>
       <c r="N25" t="n">
-        <v>16.52441230575095</v>
+        <v>16.52441230575096</v>
       </c>
       <c r="O25" t="n">
-        <v>37.4828141202879</v>
+        <v>37.48281412028791</v>
       </c>
       <c r="P25" t="n">
-        <v>58.48196179900677</v>
+        <v>58.48196179900678</v>
       </c>
       <c r="Q25" t="n">
         <v>127.2193142604766</v>
@@ -29311,13 +29311,13 @@
         <v>213.488029352129</v>
       </c>
       <c r="O26" t="n">
-        <v>213.488029352129</v>
+        <v>213.48802935213</v>
       </c>
       <c r="P26" t="n">
         <v>213.488029352129</v>
       </c>
       <c r="Q26" t="n">
-        <v>213.4880293521294</v>
+        <v>213.488029352129</v>
       </c>
       <c r="R26" t="n">
         <v>213.488029352129</v>
@@ -29351,7 +29351,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>187.5181515243659</v>
@@ -29375,7 +29375,7 @@
         <v>107.364552236389</v>
       </c>
       <c r="J27" t="n">
-        <v>52.47830382393111</v>
+        <v>52.47830382393112</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
@@ -29396,13 +29396,13 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>6.873689458423154</v>
       </c>
       <c r="R27" t="n">
-        <v>134.7218599774646</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>191.5914073600452</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
         <v>213.488029352129</v>
@@ -29411,16 +29411,16 @@
         <v>213.488029352129</v>
       </c>
       <c r="V27" t="n">
-        <v>17.07049204934859</v>
+        <v>213.488029352129</v>
       </c>
       <c r="W27" t="n">
-        <v>0</v>
+        <v>213.488029352129</v>
       </c>
       <c r="X27" t="n">
+        <v>86.28450562184298</v>
+      </c>
+      <c r="Y27" t="n">
         <v>213.488029352129</v>
-      </c>
-      <c r="Y27" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="28">
@@ -29436,7 +29436,7 @@
         <v>166.4571809719723</v>
       </c>
       <c r="D28" t="n">
-        <v>213.488029352129</v>
+        <v>145.1826502507107</v>
       </c>
       <c r="E28" t="n">
         <v>141.676141212225</v>
@@ -29445,7 +29445,7 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G28" t="n">
-        <v>213.488029352129</v>
+        <v>168.7008027322384</v>
       </c>
       <c r="H28" t="n">
         <v>165.824644867158</v>
@@ -29454,31 +29454,31 @@
         <v>164.8538042427314</v>
       </c>
       <c r="J28" t="n">
+        <v>120.241573402485</v>
+      </c>
+      <c r="K28" t="n">
+        <v>67.0332105846294</v>
+      </c>
+      <c r="L28" t="n">
         <v>213.488029352129</v>
       </c>
-      <c r="K28" t="n">
-        <v>83.18606035375763</v>
-      </c>
-      <c r="L28" t="n">
-        <v>32.15595010613789</v>
-      </c>
       <c r="M28" t="n">
-        <v>25.22122397250156</v>
+        <v>25.22122397250158</v>
       </c>
       <c r="N28" t="n">
-        <v>16.52441230575095</v>
+        <v>16.52441230575096</v>
       </c>
       <c r="O28" t="n">
-        <v>37.4828141202879</v>
+        <v>88.6994642930992</v>
       </c>
       <c r="P28" t="n">
-        <v>58.48196179900677</v>
+        <v>58.48196179900678</v>
       </c>
       <c r="Q28" t="n">
         <v>127.2193142604766</v>
       </c>
       <c r="R28" t="n">
-        <v>213.488029352129</v>
+        <v>203.4312113734075</v>
       </c>
       <c r="S28" t="n">
         <v>213.488029352129</v>
@@ -29612,7 +29612,7 @@
         <v>107.364552236389</v>
       </c>
       <c r="J30" t="n">
-        <v>52.47830382393111</v>
+        <v>52.47830382393112</v>
       </c>
       <c r="K30" t="n">
         <v>0</v>
@@ -29633,7 +29633,7 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>6.873689458423154</v>
       </c>
       <c r="R30" t="n">
         <v>134.7218599774646</v>
@@ -29642,22 +29642,22 @@
         <v>191.5914073600452</v>
       </c>
       <c r="T30" t="n">
-        <v>213.488029352129</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
         <v>213.488029352129</v>
       </c>
       <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="n">
         <v>213.488029352129</v>
       </c>
-      <c r="W30" t="n">
-        <v>17.07049204934859</v>
-      </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>10.1968025909255</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>213.488029352129</v>
       </c>
     </row>
     <row r="31">
@@ -29694,28 +29694,28 @@
         <v>120.241573402485</v>
       </c>
       <c r="K31" t="n">
-        <v>67.03321058462939</v>
+        <v>67.0332105846294</v>
       </c>
       <c r="L31" t="n">
-        <v>32.15595010613789</v>
+        <v>168.3791464545664</v>
       </c>
       <c r="M31" t="n">
-        <v>25.22122397250156</v>
+        <v>25.22122397250158</v>
       </c>
       <c r="N31" t="n">
-        <v>16.52441230575095</v>
+        <v>16.52441230575096</v>
       </c>
       <c r="O31" t="n">
+        <v>37.48281412028791</v>
+      </c>
+      <c r="P31" t="n">
+        <v>58.48196179900678</v>
+      </c>
+      <c r="Q31" t="n">
         <v>213.488029352129</v>
       </c>
-      <c r="P31" t="n">
-        <v>115.0254759859683</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>127.2193142604766</v>
-      </c>
       <c r="R31" t="n">
-        <v>203.4312113734075</v>
+        <v>213.488029352129</v>
       </c>
       <c r="S31" t="n">
         <v>213.488029352129</v>
@@ -29773,7 +29773,7 @@
         <v>214.3979138113496</v>
       </c>
       <c r="K32" t="n">
-        <v>214.3979138113496</v>
+        <v>192.2835716884568</v>
       </c>
       <c r="L32" t="n">
         <v>214.3979138113496</v>
@@ -29791,7 +29791,7 @@
         <v>214.3979138113496</v>
       </c>
       <c r="Q32" t="n">
-        <v>192.2835716884568</v>
+        <v>214.3979138113496</v>
       </c>
       <c r="R32" t="n">
         <v>214.3979138113496</v>
@@ -29825,7 +29825,7 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>176.7504943976657</v>
+        <v>161.4111371596253</v>
       </c>
       <c r="C33" t="n">
         <v>187.5181515243659</v>
@@ -29840,7 +29840,7 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>148.7446376404189</v>
       </c>
       <c r="H33" t="n">
         <v>125.7358448975026</v>
@@ -29849,7 +29849,7 @@
         <v>107.364552236389</v>
       </c>
       <c r="J33" t="n">
-        <v>52.47830382393111</v>
+        <v>52.47830382393112</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -29870,25 +29870,25 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>6.873689458423154</v>
       </c>
       <c r="R33" t="n">
         <v>134.7218599774646</v>
       </c>
       <c r="S33" t="n">
-        <v>191.5914073600452</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>163.0854763121058</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
+        <v>0</v>
+      </c>
+      <c r="V33" t="n">
         <v>214.3979138113496</v>
       </c>
-      <c r="V33" t="n">
-        <v>0</v>
-      </c>
       <c r="W33" t="n">
-        <v>0</v>
+        <v>214.3979138113496</v>
       </c>
       <c r="X33" t="n">
         <v>214.3979138113496</v>
@@ -29913,40 +29913,40 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E34" t="n">
-        <v>214.3979138113496</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F34" t="n">
         <v>138.9268822184467</v>
       </c>
       <c r="G34" t="n">
-        <v>214.3979138113496</v>
+        <v>168.7008027322384</v>
       </c>
       <c r="H34" t="n">
-        <v>214.3979138113496</v>
+        <v>165.824644867158</v>
       </c>
       <c r="I34" t="n">
         <v>164.8538042427314</v>
       </c>
       <c r="J34" t="n">
-        <v>179.2996386035701</v>
+        <v>120.241573402485</v>
       </c>
       <c r="K34" t="n">
-        <v>67.03321058462939</v>
+        <v>67.0332105846294</v>
       </c>
       <c r="L34" t="n">
-        <v>32.15595010613789</v>
+        <v>102.2902159173075</v>
       </c>
       <c r="M34" t="n">
-        <v>25.22122397250156</v>
+        <v>25.22122397250158</v>
       </c>
       <c r="N34" t="n">
-        <v>16.52441230575095</v>
+        <v>16.52441230575096</v>
       </c>
       <c r="O34" t="n">
-        <v>37.4828141202879</v>
+        <v>37.48281412028791</v>
       </c>
       <c r="P34" t="n">
-        <v>58.48196179900677</v>
+        <v>214.3979138113496</v>
       </c>
       <c r="Q34" t="n">
         <v>127.2193142604766</v>
@@ -30004,34 +30004,34 @@
         <v>272.0590744345018</v>
       </c>
       <c r="I35" t="n">
+        <v>241.0121589565495</v>
+      </c>
+      <c r="J35" t="n">
+        <v>76.78688000567911</v>
+      </c>
+      <c r="K35" t="n">
+        <v>6.73507708310327</v>
+      </c>
+      <c r="L35" t="n">
+        <v>0</v>
+      </c>
+      <c r="M35" t="n">
+        <v>178.7934532276791</v>
+      </c>
+      <c r="N35" t="n">
+        <v>184.3835343485712</v>
+      </c>
+      <c r="O35" t="n">
+        <v>105.2525971549318</v>
+      </c>
+      <c r="P35" t="n">
         <v>272.0590744345018</v>
       </c>
-      <c r="J35" t="n">
-        <v>272.0590744345018</v>
-      </c>
-      <c r="K35" t="n">
-        <v>246.289461414233</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="n">
-        <v>0</v>
-      </c>
-      <c r="O35" t="n">
-        <v>0</v>
-      </c>
-      <c r="P35" t="n">
-        <v>15.100886111637</v>
-      </c>
       <c r="Q35" t="n">
-        <v>272.0590744345018</v>
+        <v>89.71843090037106</v>
       </c>
       <c r="R35" t="n">
-        <v>272.0590744345018</v>
+        <v>194.8854391524908</v>
       </c>
       <c r="S35" t="n">
         <v>272.0590744345018</v>
@@ -30071,22 +30071,22 @@
         <v>159.1723150765785</v>
       </c>
       <c r="E36" t="n">
-        <v>0</v>
+        <v>171.8275718397997</v>
       </c>
       <c r="F36" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
-        <v>0</v>
+        <v>148.7446376404189</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>125.7358448975026</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>107.364552236389</v>
       </c>
       <c r="J36" t="n">
-        <v>22.25909563204002</v>
+        <v>52.47830382393112</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -30107,10 +30107,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>6.873689458423154</v>
       </c>
       <c r="R36" t="n">
-        <v>134.7218599774646</v>
+        <v>86.29137202392909</v>
       </c>
       <c r="S36" t="n">
         <v>191.5914073600452</v>
@@ -30125,13 +30125,13 @@
         <v>240.6489209154022</v>
       </c>
       <c r="W36" t="n">
-        <v>266.7045835770116</v>
+        <v>6.243328719690794</v>
       </c>
       <c r="X36" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>223.3842861340256</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -30156,34 +30156,34 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G37" t="n">
-        <v>168.7008027322384</v>
+        <v>204.257497666978</v>
       </c>
       <c r="H37" t="n">
         <v>165.824644867158</v>
       </c>
       <c r="I37" t="n">
-        <v>200.410499177471</v>
+        <v>164.8538042427314</v>
       </c>
       <c r="J37" t="n">
         <v>120.241573402485</v>
       </c>
       <c r="K37" t="n">
-        <v>67.03321058462939</v>
+        <v>67.0332105846294</v>
       </c>
       <c r="L37" t="n">
-        <v>32.15595010613789</v>
+        <v>32.1559501061379</v>
       </c>
       <c r="M37" t="n">
-        <v>25.22122397250156</v>
+        <v>25.22122397250158</v>
       </c>
       <c r="N37" t="n">
-        <v>16.52441230575095</v>
+        <v>16.52441230575096</v>
       </c>
       <c r="O37" t="n">
-        <v>37.4828141202879</v>
+        <v>37.48281412028791</v>
       </c>
       <c r="P37" t="n">
-        <v>58.48196179900677</v>
+        <v>58.48196179900678</v>
       </c>
       <c r="Q37" t="n">
         <v>127.2193142604766</v>
@@ -30241,40 +30241,40 @@
         <v>272.0590744345018</v>
       </c>
       <c r="I38" t="n">
-        <v>272.0590744345018</v>
+        <v>241.0121589565495</v>
       </c>
       <c r="J38" t="n">
         <v>272.0590744345018</v>
       </c>
       <c r="K38" t="n">
-        <v>267.196331940424</v>
+        <v>6.73507708310327</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>156.2141511047053</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>178.7934532276791</v>
       </c>
       <c r="N38" t="n">
-        <v>0</v>
+        <v>184.3835343485712</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>15.100886111637</v>
+        <v>15.10088611163703</v>
       </c>
       <c r="Q38" t="n">
-        <v>272.0590744345018</v>
+        <v>89.71843090037106</v>
       </c>
       <c r="R38" t="n">
         <v>272.0590744345018</v>
       </c>
       <c r="S38" t="n">
-        <v>272.0590744345018</v>
+        <v>227.518407079678</v>
       </c>
       <c r="T38" t="n">
-        <v>223.4678102031922</v>
+        <v>222.4661527464647</v>
       </c>
       <c r="U38" t="n">
         <v>250.1505464515833</v>
@@ -30302,7 +30302,7 @@
         <v>176.7504943976657</v>
       </c>
       <c r="C39" t="n">
-        <v>187.5181515243659</v>
+        <v>0</v>
       </c>
       <c r="D39" t="n">
         <v>159.1723150765785</v>
@@ -30311,7 +30311,7 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F39" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
         <v>148.7446376404189</v>
@@ -30320,10 +30320,10 @@
         <v>125.7358448975026</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>107.364552236389</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>52.47830382393112</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -30344,31 +30344,31 @@
         <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>6.873689458423137</v>
+        <v>6.873689458423154</v>
       </c>
       <c r="R39" t="n">
         <v>134.7218599774646</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>85.14059370236723</v>
       </c>
       <c r="T39" t="n">
-        <v>214.9710572869065</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
         <v>237.2280716788486</v>
       </c>
       <c r="V39" t="n">
-        <v>240.6489209154022</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
         <v>266.7045835770116</v>
       </c>
       <c r="X39" t="n">
-        <v>201.3659597294372</v>
+        <v>217.3129144394706</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>223.3842861340256</v>
       </c>
     </row>
     <row r="40">
@@ -30399,28 +30399,28 @@
         <v>165.824644867158</v>
       </c>
       <c r="I40" t="n">
-        <v>164.8538042427314</v>
+        <v>200.410499177471</v>
       </c>
       <c r="J40" t="n">
         <v>120.241573402485</v>
       </c>
       <c r="K40" t="n">
-        <v>67.03321058462939</v>
+        <v>67.0332105846294</v>
       </c>
       <c r="L40" t="n">
-        <v>32.15595010613789</v>
+        <v>32.1559501061379</v>
       </c>
       <c r="M40" t="n">
-        <v>25.22122397250156</v>
+        <v>25.22122397250158</v>
       </c>
       <c r="N40" t="n">
-        <v>16.52441230575095</v>
+        <v>16.52441230575096</v>
       </c>
       <c r="O40" t="n">
-        <v>37.4828141202879</v>
+        <v>37.48281412028791</v>
       </c>
       <c r="P40" t="n">
-        <v>58.48196179900677</v>
+        <v>58.48196179900678</v>
       </c>
       <c r="Q40" t="n">
         <v>127.2193142604766</v>
@@ -30438,13 +30438,13 @@
         <v>272.0590744345018</v>
       </c>
       <c r="V40" t="n">
-        <v>272.0590744345018</v>
+        <v>245.1090151844499</v>
       </c>
       <c r="W40" t="n">
         <v>272.0590744345018</v>
       </c>
       <c r="X40" t="n">
-        <v>230.5260910929302</v>
+        <v>221.9194554082425</v>
       </c>
       <c r="Y40" t="n">
         <v>217.1412728141684</v>
@@ -30481,28 +30481,28 @@
         <v>241.0121589565495</v>
       </c>
       <c r="J41" t="n">
-        <v>76.78688000567909</v>
+        <v>241.0121589565495</v>
       </c>
       <c r="K41" t="n">
-        <v>6.735077083103242</v>
+        <v>6.73507708310327</v>
       </c>
       <c r="L41" t="n">
         <v>241.0121589565495</v>
       </c>
       <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>231.3235424871643</v>
+      </c>
+      <c r="O41" t="n">
         <v>241.0121589565495</v>
       </c>
-      <c r="N41" t="n">
+      <c r="P41" t="n">
         <v>241.0121589565495</v>
       </c>
-      <c r="O41" t="n">
-        <v>229.1542072702189</v>
-      </c>
-      <c r="P41" t="n">
-        <v>15.100886111637</v>
-      </c>
       <c r="Q41" t="n">
-        <v>241.0121589565495</v>
+        <v>89.71843090037106</v>
       </c>
       <c r="R41" t="n">
         <v>241.0121589565495</v>
@@ -30536,19 +30536,19 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>176.7504943976657</v>
+        <v>0</v>
       </c>
       <c r="C42" t="n">
         <v>187.5181515243659</v>
       </c>
       <c r="D42" t="n">
-        <v>56.5929030933481</v>
+        <v>159.1723150765785</v>
       </c>
       <c r="E42" t="n">
         <v>171.8275718397997</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G42" t="n">
         <v>148.7446376404189</v>
@@ -30560,7 +30560,7 @@
         <v>107.364552236389</v>
       </c>
       <c r="J42" t="n">
-        <v>52.47830382393111</v>
+        <v>52.47830382393112</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -30581,28 +30581,28 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>6.873689458423154</v>
       </c>
       <c r="R42" t="n">
         <v>134.7218599774646</v>
       </c>
       <c r="S42" t="n">
-        <v>191.5914073600452</v>
+        <v>0</v>
       </c>
       <c r="T42" t="n">
-        <v>0</v>
+        <v>214.9710572869065</v>
       </c>
       <c r="U42" t="n">
         <v>237.2280716788486</v>
       </c>
       <c r="V42" t="n">
-        <v>0</v>
+        <v>102.4072183486933</v>
       </c>
       <c r="W42" t="n">
         <v>241.0121589565495</v>
       </c>
       <c r="X42" t="n">
-        <v>217.3129144394706</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
         <v>223.3842861340256</v>
@@ -30633,31 +30633,31 @@
         <v>168.7008027322384</v>
       </c>
       <c r="H43" t="n">
-        <v>192.7576113341821</v>
+        <v>165.824644867158</v>
       </c>
       <c r="I43" t="n">
-        <v>241.0121589565495</v>
+        <v>164.8538042427314</v>
       </c>
       <c r="J43" t="n">
         <v>120.241573402485</v>
       </c>
       <c r="K43" t="n">
-        <v>67.03321058462939</v>
+        <v>67.0332105846294</v>
       </c>
       <c r="L43" t="n">
-        <v>32.15595010613789</v>
+        <v>32.1559501061379</v>
       </c>
       <c r="M43" t="n">
-        <v>25.22122397250156</v>
+        <v>25.22122397250158</v>
       </c>
       <c r="N43" t="n">
-        <v>16.52441230575095</v>
+        <v>119.6157334865931</v>
       </c>
       <c r="O43" t="n">
-        <v>37.4828141202879</v>
+        <v>37.48281412028791</v>
       </c>
       <c r="P43" t="n">
-        <v>58.48196179900677</v>
+        <v>58.48196179900678</v>
       </c>
       <c r="Q43" t="n">
         <v>127.2193142604766</v>
@@ -30718,19 +30718,19 @@
         <v>241.0121589565495</v>
       </c>
       <c r="J44" t="n">
+        <v>224.5648676933961</v>
+      </c>
+      <c r="K44" t="n">
         <v>241.0121589565495</v>
-      </c>
-      <c r="K44" t="n">
-        <v>86.7648915140887</v>
       </c>
       <c r="L44" t="n">
         <v>241.0121589565495</v>
       </c>
       <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
         <v>241.0121589565495</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>0</v>
@@ -30739,13 +30739,13 @@
         <v>241.0121589565495</v>
       </c>
       <c r="Q44" t="n">
-        <v>241.0121589565495</v>
+        <v>89.71843090037106</v>
       </c>
       <c r="R44" t="n">
         <v>241.0121589565495</v>
       </c>
       <c r="S44" t="n">
-        <v>227.518407079678</v>
+        <v>241.0121589565495</v>
       </c>
       <c r="T44" t="n">
         <v>222.4661527464647</v>
@@ -30785,19 +30785,19 @@
         <v>171.8275718397997</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
-        <v>64.65780354532079</v>
+        <v>148.7446376404189</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>125.7358448975026</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>107.364552236389</v>
       </c>
       <c r="J45" t="n">
-        <v>52.47830382393111</v>
+        <v>52.47830382393112</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -30818,25 +30818,25 @@
         <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>6.873689458423154</v>
       </c>
       <c r="R45" t="n">
-        <v>134.7218599774646</v>
+        <v>54.61587753937437</v>
       </c>
       <c r="S45" t="n">
-        <v>191.5914073600452</v>
+        <v>0</v>
       </c>
       <c r="T45" t="n">
-        <v>214.9710572869065</v>
+        <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>237.2280716788486</v>
+        <v>0</v>
       </c>
       <c r="V45" t="n">
         <v>240.6489209154022</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>241.0121589565495</v>
       </c>
       <c r="X45" t="n">
         <v>217.3129144394706</v>
@@ -30861,7 +30861,7 @@
         <v>145.1826502507107</v>
       </c>
       <c r="E46" t="n">
-        <v>241.0121589565495</v>
+        <v>141.676141212225</v>
       </c>
       <c r="F46" t="n">
         <v>138.9268822184467</v>
@@ -30879,22 +30879,22 @@
         <v>120.241573402485</v>
       </c>
       <c r="K46" t="n">
-        <v>67.03321058462939</v>
+        <v>67.0332105846294</v>
       </c>
       <c r="L46" t="n">
-        <v>32.15595010613789</v>
+        <v>32.1559501061379</v>
       </c>
       <c r="M46" t="n">
-        <v>25.22122397250156</v>
+        <v>25.22122397250158</v>
       </c>
       <c r="N46" t="n">
-        <v>16.52441230575095</v>
+        <v>16.52441230575096</v>
       </c>
       <c r="O46" t="n">
-        <v>37.4828141202879</v>
+        <v>37.48281412028791</v>
       </c>
       <c r="P46" t="n">
-        <v>58.48196179900677</v>
+        <v>144.3228012771714</v>
       </c>
       <c r="Q46" t="n">
         <v>127.2193142604766</v>
@@ -30906,7 +30906,7 @@
         <v>235.4385289329965</v>
       </c>
       <c r="T46" t="n">
-        <v>223.761677253872</v>
+        <v>241.0121589565495</v>
       </c>
       <c r="U46" t="n">
         <v>241.0121589565495</v>
@@ -30918,7 +30918,7 @@
         <v>241.0121589565495</v>
       </c>
       <c r="X46" t="n">
-        <v>225.6747588447602</v>
+        <v>221.9194554082425</v>
       </c>
       <c r="Y46" t="n">
         <v>217.1412728141684</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.4066571452937374</v>
+        <v>0.4066571452937371</v>
       </c>
       <c r="H11" t="n">
-        <v>4.164677489239489</v>
+        <v>4.164677489239486</v>
       </c>
       <c r="I11" t="n">
-        <v>15.67764959393683</v>
+        <v>15.67764959393682</v>
       </c>
       <c r="J11" t="n">
-        <v>34.51451688537438</v>
+        <v>34.51451688537436</v>
       </c>
       <c r="K11" t="n">
-        <v>51.72831384565828</v>
+        <v>51.72831384565826</v>
       </c>
       <c r="L11" t="n">
-        <v>64.17354745594152</v>
+        <v>64.17354745594147</v>
       </c>
       <c r="M11" t="n">
-        <v>71.40543646355901</v>
+        <v>71.40543646355897</v>
       </c>
       <c r="N11" t="n">
-        <v>72.56085107762485</v>
+        <v>72.56085107762482</v>
       </c>
       <c r="O11" t="n">
-        <v>68.51715408911025</v>
+        <v>68.51715408911021</v>
       </c>
       <c r="P11" t="n">
-        <v>58.47780581467109</v>
+        <v>58.47780581467106</v>
       </c>
       <c r="Q11" t="n">
-        <v>43.91439679883911</v>
+        <v>43.91439679883909</v>
       </c>
       <c r="R11" t="n">
-        <v>25.54467690305775</v>
+        <v>25.54467690305774</v>
       </c>
       <c r="S11" t="n">
-        <v>9.26669969838105</v>
+        <v>9.266699698381045</v>
       </c>
       <c r="T11" t="n">
-        <v>1.780141653523336</v>
+        <v>1.780141653523335</v>
       </c>
       <c r="U11" t="n">
-        <v>0.03253257162349898</v>
+        <v>0.03253257162349896</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.2175807546729654</v>
+        <v>0.2175807546729653</v>
       </c>
       <c r="H12" t="n">
-        <v>2.101372025394166</v>
+        <v>2.101372025394165</v>
       </c>
       <c r="I12" t="n">
-        <v>7.491267211327977</v>
+        <v>7.491267211327973</v>
       </c>
       <c r="J12" t="n">
-        <v>20.55660980881732</v>
+        <v>20.55660980881731</v>
       </c>
       <c r="K12" t="n">
-        <v>35.134520371906</v>
+        <v>35.13452037190598</v>
       </c>
       <c r="L12" t="n">
-        <v>47.24269850914541</v>
+        <v>47.24269850914538</v>
       </c>
       <c r="M12" t="n">
-        <v>55.13000086604039</v>
+        <v>55.13000086604036</v>
       </c>
       <c r="N12" t="n">
-        <v>38.1090752432813</v>
+        <v>38.10907524328127</v>
       </c>
       <c r="O12" t="n">
-        <v>51.76799648572085</v>
+        <v>51.76799648572082</v>
       </c>
       <c r="P12" t="n">
-        <v>41.54838112698057</v>
+        <v>41.54838112698054</v>
       </c>
       <c r="Q12" t="n">
-        <v>27.77399247369292</v>
+        <v>27.7739924736929</v>
       </c>
       <c r="R12" t="n">
         <v>13.50909282083552</v>
       </c>
       <c r="S12" t="n">
-        <v>4.041467087894771</v>
+        <v>4.04146708789477</v>
       </c>
       <c r="T12" t="n">
-        <v>0.8770031295809436</v>
+        <v>0.8770031295809431</v>
       </c>
       <c r="U12" t="n">
-        <v>0.01431452333374773</v>
+        <v>0.01431452333374772</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31908,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1824123957065557</v>
+        <v>0.1824123957065556</v>
       </c>
       <c r="H13" t="n">
         <v>1.621812027281923</v>
       </c>
       <c r="I13" t="n">
-        <v>5.485638227248057</v>
+        <v>5.485638227248055</v>
       </c>
       <c r="J13" t="n">
-        <v>12.89655637645349</v>
+        <v>12.89655637645348</v>
       </c>
       <c r="K13" t="n">
-        <v>21.19300379208892</v>
+        <v>21.19300379208891</v>
       </c>
       <c r="L13" t="n">
-        <v>27.11974835804556</v>
+        <v>27.11974835804555</v>
       </c>
       <c r="M13" t="n">
-        <v>28.59397217425581</v>
+        <v>28.59397217425579</v>
       </c>
       <c r="N13" t="n">
-        <v>27.91407142662231</v>
+        <v>27.91407142662229</v>
       </c>
       <c r="O13" t="n">
-        <v>25.78316298586844</v>
+        <v>25.78316298586843</v>
       </c>
       <c r="P13" t="n">
-        <v>22.06195011345469</v>
+        <v>22.06195011345467</v>
       </c>
       <c r="Q13" t="n">
         <v>15.2745506986644</v>
       </c>
       <c r="R13" t="n">
-        <v>8.20192462876931</v>
+        <v>8.201924628769305</v>
       </c>
       <c r="S13" t="n">
-        <v>3.178950568813337</v>
+        <v>3.178950568813335</v>
       </c>
       <c r="T13" t="n">
-        <v>0.7793984180189195</v>
+        <v>0.7793984180189191</v>
       </c>
       <c r="U13" t="n">
-        <v>0.009949767038539411</v>
+        <v>0.009949767038539406</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4066571452937374</v>
+        <v>0.4066571452937371</v>
       </c>
       <c r="H14" t="n">
-        <v>4.164677489239489</v>
+        <v>4.164677489239486</v>
       </c>
       <c r="I14" t="n">
-        <v>15.67764959393683</v>
+        <v>15.67764959393682</v>
       </c>
       <c r="J14" t="n">
-        <v>34.51451688537438</v>
+        <v>34.51451688537436</v>
       </c>
       <c r="K14" t="n">
-        <v>51.72831384565828</v>
+        <v>51.72831384565826</v>
       </c>
       <c r="L14" t="n">
-        <v>64.17354745594152</v>
+        <v>64.17354745594147</v>
       </c>
       <c r="M14" t="n">
-        <v>71.40543646355901</v>
+        <v>71.40543646355897</v>
       </c>
       <c r="N14" t="n">
-        <v>72.56085107762485</v>
+        <v>72.56085107762482</v>
       </c>
       <c r="O14" t="n">
-        <v>68.51715408911025</v>
+        <v>68.51715408911021</v>
       </c>
       <c r="P14" t="n">
-        <v>58.47780581467109</v>
+        <v>58.47780581467106</v>
       </c>
       <c r="Q14" t="n">
-        <v>43.91439679883911</v>
+        <v>43.91439679883909</v>
       </c>
       <c r="R14" t="n">
-        <v>25.54467690305775</v>
+        <v>25.54467690305774</v>
       </c>
       <c r="S14" t="n">
-        <v>9.26669969838105</v>
+        <v>9.266699698381045</v>
       </c>
       <c r="T14" t="n">
-        <v>1.780141653523336</v>
+        <v>1.780141653523335</v>
       </c>
       <c r="U14" t="n">
-        <v>0.03253257162349898</v>
+        <v>0.03253257162349896</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2175807546729654</v>
+        <v>0.2175807546729653</v>
       </c>
       <c r="H15" t="n">
-        <v>2.101372025394166</v>
+        <v>2.101372025394165</v>
       </c>
       <c r="I15" t="n">
-        <v>7.491267211327977</v>
+        <v>7.491267211327973</v>
       </c>
       <c r="J15" t="n">
-        <v>20.55660980881732</v>
+        <v>20.55660980881731</v>
       </c>
       <c r="K15" t="n">
-        <v>35.134520371906</v>
+        <v>35.13452037190598</v>
       </c>
       <c r="L15" t="n">
-        <v>47.24269850914541</v>
+        <v>47.24269850914538</v>
       </c>
       <c r="M15" t="n">
-        <v>55.13000086604039</v>
+        <v>55.13000086604036</v>
       </c>
       <c r="N15" t="n">
-        <v>38.1090752432813</v>
+        <v>38.10907524328127</v>
       </c>
       <c r="O15" t="n">
-        <v>51.76799648572085</v>
+        <v>51.76799648572082</v>
       </c>
       <c r="P15" t="n">
-        <v>41.54838112698057</v>
+        <v>41.54838112698054</v>
       </c>
       <c r="Q15" t="n">
-        <v>27.77399247369292</v>
+        <v>27.7739924736929</v>
       </c>
       <c r="R15" t="n">
         <v>13.50909282083552</v>
       </c>
       <c r="S15" t="n">
-        <v>4.041467087894771</v>
+        <v>4.04146708789477</v>
       </c>
       <c r="T15" t="n">
-        <v>0.8770031295809436</v>
+        <v>0.8770031295809431</v>
       </c>
       <c r="U15" t="n">
-        <v>0.01431452333374773</v>
+        <v>0.01431452333374772</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32145,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1824123957065557</v>
+        <v>0.1824123957065556</v>
       </c>
       <c r="H16" t="n">
         <v>1.621812027281923</v>
       </c>
       <c r="I16" t="n">
-        <v>5.485638227248057</v>
+        <v>5.485638227248055</v>
       </c>
       <c r="J16" t="n">
-        <v>12.89655637645349</v>
+        <v>12.89655637645348</v>
       </c>
       <c r="K16" t="n">
-        <v>21.19300379208892</v>
+        <v>21.19300379208891</v>
       </c>
       <c r="L16" t="n">
-        <v>27.11974835804556</v>
+        <v>27.11974835804555</v>
       </c>
       <c r="M16" t="n">
-        <v>28.59397217425581</v>
+        <v>28.59397217425579</v>
       </c>
       <c r="N16" t="n">
-        <v>27.91407142662231</v>
+        <v>27.91407142662229</v>
       </c>
       <c r="O16" t="n">
-        <v>25.78316298586844</v>
+        <v>25.78316298586843</v>
       </c>
       <c r="P16" t="n">
-        <v>22.06195011345469</v>
+        <v>22.06195011345467</v>
       </c>
       <c r="Q16" t="n">
         <v>15.2745506986644</v>
       </c>
       <c r="R16" t="n">
-        <v>8.20192462876931</v>
+        <v>8.201924628769305</v>
       </c>
       <c r="S16" t="n">
-        <v>3.178950568813337</v>
+        <v>3.178950568813335</v>
       </c>
       <c r="T16" t="n">
-        <v>0.7793984180189195</v>
+        <v>0.7793984180189191</v>
       </c>
       <c r="U16" t="n">
-        <v>0.009949767038539411</v>
+        <v>0.009949767038539406</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.4066571452937374</v>
+        <v>0.4066571452937371</v>
       </c>
       <c r="H17" t="n">
-        <v>4.164677489239489</v>
+        <v>4.164677489239486</v>
       </c>
       <c r="I17" t="n">
-        <v>15.67764959393683</v>
+        <v>15.67764959393682</v>
       </c>
       <c r="J17" t="n">
-        <v>34.51451688537438</v>
+        <v>34.51451688537436</v>
       </c>
       <c r="K17" t="n">
-        <v>51.72831384565828</v>
+        <v>51.72831384565826</v>
       </c>
       <c r="L17" t="n">
-        <v>64.17354745594152</v>
+        <v>64.17354745594147</v>
       </c>
       <c r="M17" t="n">
-        <v>71.40543646355901</v>
+        <v>71.40543646355897</v>
       </c>
       <c r="N17" t="n">
-        <v>72.56085107762485</v>
+        <v>72.56085107762482</v>
       </c>
       <c r="O17" t="n">
-        <v>68.51715408911025</v>
+        <v>68.51715408911021</v>
       </c>
       <c r="P17" t="n">
-        <v>58.47780581467109</v>
+        <v>58.47780581467106</v>
       </c>
       <c r="Q17" t="n">
-        <v>43.91439679883911</v>
+        <v>43.91439679883909</v>
       </c>
       <c r="R17" t="n">
-        <v>25.54467690305775</v>
+        <v>25.54467690305774</v>
       </c>
       <c r="S17" t="n">
-        <v>9.26669969838105</v>
+        <v>9.266699698381045</v>
       </c>
       <c r="T17" t="n">
-        <v>1.780141653523336</v>
+        <v>1.780141653523335</v>
       </c>
       <c r="U17" t="n">
-        <v>0.03253257162349898</v>
+        <v>0.03253257162349896</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32303,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.2175807546729654</v>
+        <v>0.2175807546729653</v>
       </c>
       <c r="H18" t="n">
-        <v>2.101372025394166</v>
+        <v>2.101372025394165</v>
       </c>
       <c r="I18" t="n">
-        <v>7.491267211327977</v>
+        <v>7.491267211327973</v>
       </c>
       <c r="J18" t="n">
-        <v>20.55660980881732</v>
+        <v>20.55660980881731</v>
       </c>
       <c r="K18" t="n">
-        <v>35.134520371906</v>
+        <v>35.13452037190598</v>
       </c>
       <c r="L18" t="n">
-        <v>47.24269850914541</v>
+        <v>47.24269850914538</v>
       </c>
       <c r="M18" t="n">
-        <v>55.13000086604039</v>
+        <v>55.13000086604036</v>
       </c>
       <c r="N18" t="n">
-        <v>38.1090752432813</v>
+        <v>38.10907524328127</v>
       </c>
       <c r="O18" t="n">
-        <v>51.76799648572085</v>
+        <v>51.76799648572082</v>
       </c>
       <c r="P18" t="n">
-        <v>41.54838112698057</v>
+        <v>41.54838112698059</v>
       </c>
       <c r="Q18" t="n">
-        <v>27.77399247369292</v>
+        <v>27.7739924736929</v>
       </c>
       <c r="R18" t="n">
         <v>13.50909282083552</v>
       </c>
       <c r="S18" t="n">
-        <v>4.041467087894771</v>
+        <v>4.04146708789477</v>
       </c>
       <c r="T18" t="n">
-        <v>0.8770031295809436</v>
+        <v>0.8770031295809431</v>
       </c>
       <c r="U18" t="n">
-        <v>0.01431452333374773</v>
+        <v>0.01431452333374772</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1824123957065557</v>
+        <v>0.1824123957065556</v>
       </c>
       <c r="H19" t="n">
         <v>1.621812027281923</v>
       </c>
       <c r="I19" t="n">
-        <v>5.485638227248057</v>
+        <v>5.485638227248055</v>
       </c>
       <c r="J19" t="n">
-        <v>12.89655637645349</v>
+        <v>12.89655637645348</v>
       </c>
       <c r="K19" t="n">
-        <v>21.19300379208892</v>
+        <v>21.19300379208891</v>
       </c>
       <c r="L19" t="n">
-        <v>27.11974835804556</v>
+        <v>27.11974835804555</v>
       </c>
       <c r="M19" t="n">
-        <v>28.59397217425581</v>
+        <v>28.59397217425579</v>
       </c>
       <c r="N19" t="n">
-        <v>27.91407142662231</v>
+        <v>27.91407142662229</v>
       </c>
       <c r="O19" t="n">
-        <v>25.78316298586844</v>
+        <v>25.78316298586843</v>
       </c>
       <c r="P19" t="n">
-        <v>22.06195011345469</v>
+        <v>22.06195011345467</v>
       </c>
       <c r="Q19" t="n">
         <v>15.2745506986644</v>
       </c>
       <c r="R19" t="n">
-        <v>8.20192462876931</v>
+        <v>8.201924628769305</v>
       </c>
       <c r="S19" t="n">
-        <v>3.178950568813337</v>
+        <v>3.178950568813335</v>
       </c>
       <c r="T19" t="n">
-        <v>0.7793984180189195</v>
+        <v>0.7793984180189191</v>
       </c>
       <c r="U19" t="n">
-        <v>0.009949767038539411</v>
+        <v>0.009949767038539406</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32461,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.4066571452937374</v>
+        <v>0.4066571452937371</v>
       </c>
       <c r="H20" t="n">
-        <v>4.164677489239489</v>
+        <v>4.164677489239486</v>
       </c>
       <c r="I20" t="n">
-        <v>15.67764959393683</v>
+        <v>15.67764959393682</v>
       </c>
       <c r="J20" t="n">
-        <v>34.51451688537438</v>
+        <v>34.51451688537436</v>
       </c>
       <c r="K20" t="n">
-        <v>51.72831384565828</v>
+        <v>51.72831384565826</v>
       </c>
       <c r="L20" t="n">
-        <v>64.17354745594152</v>
+        <v>64.17354745594147</v>
       </c>
       <c r="M20" t="n">
-        <v>71.40543646355901</v>
+        <v>71.40543646355897</v>
       </c>
       <c r="N20" t="n">
-        <v>72.56085107762485</v>
+        <v>72.56085107762482</v>
       </c>
       <c r="O20" t="n">
-        <v>68.51715408911025</v>
+        <v>68.51715408911021</v>
       </c>
       <c r="P20" t="n">
-        <v>58.47780581467109</v>
+        <v>58.47780581467106</v>
       </c>
       <c r="Q20" t="n">
-        <v>43.91439679883911</v>
+        <v>43.91439679883909</v>
       </c>
       <c r="R20" t="n">
-        <v>25.54467690305775</v>
+        <v>25.54467690305774</v>
       </c>
       <c r="S20" t="n">
-        <v>9.26669969838105</v>
+        <v>9.266699698381045</v>
       </c>
       <c r="T20" t="n">
-        <v>1.780141653523336</v>
+        <v>1.780141653523335</v>
       </c>
       <c r="U20" t="n">
-        <v>0.03253257162349898</v>
+        <v>0.03253257162349896</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2175807546729654</v>
+        <v>0.2175807546729653</v>
       </c>
       <c r="H21" t="n">
-        <v>2.101372025394166</v>
+        <v>2.101372025394165</v>
       </c>
       <c r="I21" t="n">
-        <v>7.491267211327977</v>
+        <v>7.491267211327973</v>
       </c>
       <c r="J21" t="n">
-        <v>20.55660980881732</v>
+        <v>20.55660980881731</v>
       </c>
       <c r="K21" t="n">
-        <v>35.134520371906</v>
+        <v>35.13452037190598</v>
       </c>
       <c r="L21" t="n">
-        <v>47.24269850914541</v>
+        <v>47.24269850914538</v>
       </c>
       <c r="M21" t="n">
-        <v>55.13000086604039</v>
+        <v>55.13000086604036</v>
       </c>
       <c r="N21" t="n">
-        <v>38.1090752432813</v>
+        <v>38.10907524328127</v>
       </c>
       <c r="O21" t="n">
-        <v>51.76799648572085</v>
+        <v>51.76799648572082</v>
       </c>
       <c r="P21" t="n">
-        <v>41.54838112698057</v>
+        <v>41.54838112698054</v>
       </c>
       <c r="Q21" t="n">
-        <v>27.77399247369292</v>
+        <v>27.7739924736929</v>
       </c>
       <c r="R21" t="n">
         <v>13.50909282083552</v>
       </c>
       <c r="S21" t="n">
-        <v>4.041467087894771</v>
+        <v>4.04146708789477</v>
       </c>
       <c r="T21" t="n">
-        <v>0.8770031295809436</v>
+        <v>0.8770031295809431</v>
       </c>
       <c r="U21" t="n">
-        <v>0.01431452333374773</v>
+        <v>0.01431452333374772</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32619,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1824123957065557</v>
+        <v>0.1824123957065556</v>
       </c>
       <c r="H22" t="n">
         <v>1.621812027281923</v>
       </c>
       <c r="I22" t="n">
-        <v>5.485638227248057</v>
+        <v>5.485638227248055</v>
       </c>
       <c r="J22" t="n">
-        <v>12.89655637645349</v>
+        <v>12.89655637645348</v>
       </c>
       <c r="K22" t="n">
-        <v>21.19300379208892</v>
+        <v>21.19300379208891</v>
       </c>
       <c r="L22" t="n">
-        <v>27.11974835804556</v>
+        <v>27.11974835804555</v>
       </c>
       <c r="M22" t="n">
-        <v>28.59397217425581</v>
+        <v>28.59397217425579</v>
       </c>
       <c r="N22" t="n">
-        <v>27.91407142662231</v>
+        <v>27.91407142662229</v>
       </c>
       <c r="O22" t="n">
-        <v>25.78316298586844</v>
+        <v>25.78316298586843</v>
       </c>
       <c r="P22" t="n">
-        <v>22.06195011345469</v>
+        <v>22.06195011345467</v>
       </c>
       <c r="Q22" t="n">
         <v>15.2745506986644</v>
       </c>
       <c r="R22" t="n">
-        <v>8.20192462876931</v>
+        <v>8.201924628769305</v>
       </c>
       <c r="S22" t="n">
-        <v>3.178950568813337</v>
+        <v>3.178950568813335</v>
       </c>
       <c r="T22" t="n">
-        <v>0.7793984180189195</v>
+        <v>0.7793984180189191</v>
       </c>
       <c r="U22" t="n">
-        <v>0.009949767038539411</v>
+        <v>0.009949767038539406</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32698,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.4066571452937374</v>
+        <v>0.4066571452937371</v>
       </c>
       <c r="H23" t="n">
-        <v>4.164677489239489</v>
+        <v>4.164677489239486</v>
       </c>
       <c r="I23" t="n">
-        <v>15.67764959393683</v>
+        <v>15.67764959393682</v>
       </c>
       <c r="J23" t="n">
-        <v>34.51451688537438</v>
+        <v>34.51451688537436</v>
       </c>
       <c r="K23" t="n">
-        <v>51.72831384565828</v>
+        <v>51.72831384565826</v>
       </c>
       <c r="L23" t="n">
-        <v>64.17354745594152</v>
+        <v>64.17354745594147</v>
       </c>
       <c r="M23" t="n">
-        <v>71.40543646355901</v>
+        <v>71.40543646355897</v>
       </c>
       <c r="N23" t="n">
-        <v>72.56085107762485</v>
+        <v>72.56085107762482</v>
       </c>
       <c r="O23" t="n">
-        <v>68.51715408911025</v>
+        <v>68.51715408911021</v>
       </c>
       <c r="P23" t="n">
-        <v>58.47780581467109</v>
+        <v>58.47780581467106</v>
       </c>
       <c r="Q23" t="n">
-        <v>43.91439679883911</v>
+        <v>43.91439679883909</v>
       </c>
       <c r="R23" t="n">
-        <v>25.54467690305775</v>
+        <v>25.54467690305774</v>
       </c>
       <c r="S23" t="n">
-        <v>9.26669969838105</v>
+        <v>9.266699698381045</v>
       </c>
       <c r="T23" t="n">
-        <v>1.780141653523336</v>
+        <v>1.780141653523335</v>
       </c>
       <c r="U23" t="n">
-        <v>0.03253257162349898</v>
+        <v>0.03253257162349896</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2175807546729654</v>
+        <v>0.2175807546729653</v>
       </c>
       <c r="H24" t="n">
-        <v>2.101372025394166</v>
+        <v>2.101372025394165</v>
       </c>
       <c r="I24" t="n">
-        <v>7.491267211327977</v>
+        <v>7.491267211327973</v>
       </c>
       <c r="J24" t="n">
-        <v>20.55660980881732</v>
+        <v>20.55660980881731</v>
       </c>
       <c r="K24" t="n">
-        <v>35.134520371906</v>
+        <v>35.13452037190598</v>
       </c>
       <c r="L24" t="n">
-        <v>47.24269850914541</v>
+        <v>47.24269850914538</v>
       </c>
       <c r="M24" t="n">
-        <v>55.13000086604039</v>
+        <v>55.13000086604036</v>
       </c>
       <c r="N24" t="n">
-        <v>38.1090752432813</v>
+        <v>38.10907524328141</v>
       </c>
       <c r="O24" t="n">
-        <v>51.76799648572085</v>
+        <v>51.76799648572082</v>
       </c>
       <c r="P24" t="n">
-        <v>41.54838112698057</v>
+        <v>41.54838112698054</v>
       </c>
       <c r="Q24" t="n">
-        <v>27.77399247369292</v>
+        <v>27.7739924736929</v>
       </c>
       <c r="R24" t="n">
         <v>13.50909282083552</v>
       </c>
       <c r="S24" t="n">
-        <v>4.041467087894771</v>
+        <v>4.04146708789477</v>
       </c>
       <c r="T24" t="n">
-        <v>0.8770031295809436</v>
+        <v>0.8770031295809431</v>
       </c>
       <c r="U24" t="n">
-        <v>0.01431452333374773</v>
+        <v>0.01431452333374772</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1824123957065557</v>
+        <v>0.1824123957065556</v>
       </c>
       <c r="H25" t="n">
         <v>1.621812027281923</v>
       </c>
       <c r="I25" t="n">
-        <v>5.485638227248057</v>
+        <v>5.485638227248055</v>
       </c>
       <c r="J25" t="n">
-        <v>12.89655637645349</v>
+        <v>12.89655637645348</v>
       </c>
       <c r="K25" t="n">
-        <v>21.19300379208892</v>
+        <v>21.19300379208891</v>
       </c>
       <c r="L25" t="n">
-        <v>27.11974835804556</v>
+        <v>27.11974835804555</v>
       </c>
       <c r="M25" t="n">
-        <v>28.59397217425581</v>
+        <v>28.59397217425579</v>
       </c>
       <c r="N25" t="n">
-        <v>27.91407142662231</v>
+        <v>27.91407142662229</v>
       </c>
       <c r="O25" t="n">
-        <v>25.78316298586844</v>
+        <v>25.78316298586843</v>
       </c>
       <c r="P25" t="n">
-        <v>22.06195011345469</v>
+        <v>22.06195011345467</v>
       </c>
       <c r="Q25" t="n">
         <v>15.2745506986644</v>
       </c>
       <c r="R25" t="n">
-        <v>8.20192462876931</v>
+        <v>8.201924628769305</v>
       </c>
       <c r="S25" t="n">
-        <v>3.178950568813337</v>
+        <v>3.178950568813335</v>
       </c>
       <c r="T25" t="n">
-        <v>0.7793984180189195</v>
+        <v>0.7793984180189191</v>
       </c>
       <c r="U25" t="n">
-        <v>0.009949767038539411</v>
+        <v>0.009949767038539406</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32935,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0.4066571452937374</v>
+        <v>0.4066571452937371</v>
       </c>
       <c r="H26" t="n">
-        <v>4.164677489239489</v>
+        <v>4.164677489239486</v>
       </c>
       <c r="I26" t="n">
-        <v>15.67764959393683</v>
+        <v>15.67764959393682</v>
       </c>
       <c r="J26" t="n">
-        <v>34.51451688537438</v>
+        <v>34.51451688537436</v>
       </c>
       <c r="K26" t="n">
-        <v>51.72831384565828</v>
+        <v>51.72831384565826</v>
       </c>
       <c r="L26" t="n">
-        <v>64.17354745594152</v>
+        <v>64.17354745594147</v>
       </c>
       <c r="M26" t="n">
-        <v>71.40543646355901</v>
+        <v>71.40543646355897</v>
       </c>
       <c r="N26" t="n">
-        <v>72.56085107762485</v>
+        <v>72.56085107762482</v>
       </c>
       <c r="O26" t="n">
-        <v>68.51715408911025</v>
+        <v>68.51715408911021</v>
       </c>
       <c r="P26" t="n">
-        <v>58.47780581467109</v>
+        <v>58.47780581467106</v>
       </c>
       <c r="Q26" t="n">
-        <v>43.91439679883911</v>
+        <v>43.91439679883909</v>
       </c>
       <c r="R26" t="n">
-        <v>25.54467690305775</v>
+        <v>25.54467690305774</v>
       </c>
       <c r="S26" t="n">
-        <v>9.26669969838105</v>
+        <v>9.266699698381045</v>
       </c>
       <c r="T26" t="n">
-        <v>1.780141653523336</v>
+        <v>1.780141653523335</v>
       </c>
       <c r="U26" t="n">
-        <v>0.03253257162349898</v>
+        <v>0.03253257162349896</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.2175807546729654</v>
+        <v>0.2175807546729653</v>
       </c>
       <c r="H27" t="n">
-        <v>2.101372025394166</v>
+        <v>2.101372025394165</v>
       </c>
       <c r="I27" t="n">
-        <v>7.491267211327977</v>
+        <v>7.491267211327973</v>
       </c>
       <c r="J27" t="n">
-        <v>20.55660980881732</v>
+        <v>20.55660980881731</v>
       </c>
       <c r="K27" t="n">
-        <v>35.134520371906</v>
+        <v>35.13452037190598</v>
       </c>
       <c r="L27" t="n">
-        <v>47.24269850914541</v>
+        <v>47.24269850914538</v>
       </c>
       <c r="M27" t="n">
-        <v>55.13000086604039</v>
+        <v>55.13000086604036</v>
       </c>
       <c r="N27" t="n">
-        <v>56.58912794452709</v>
+        <v>56.58912794452706</v>
       </c>
       <c r="O27" t="n">
-        <v>51.76799648572085</v>
+        <v>51.76799648572082</v>
       </c>
       <c r="P27" t="n">
-        <v>41.54838112698057</v>
+        <v>41.54838112698054</v>
       </c>
       <c r="Q27" t="n">
-        <v>27.77399247369292</v>
+        <v>27.7739924736929</v>
       </c>
       <c r="R27" t="n">
         <v>13.50909282083552</v>
       </c>
       <c r="S27" t="n">
-        <v>4.041467087894771</v>
+        <v>4.04146708789477</v>
       </c>
       <c r="T27" t="n">
-        <v>0.8770031295809436</v>
+        <v>0.8770031295809431</v>
       </c>
       <c r="U27" t="n">
-        <v>0.01431452333374773</v>
+        <v>0.01431452333374772</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33093,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1824123957065557</v>
+        <v>0.1824123957065556</v>
       </c>
       <c r="H28" t="n">
         <v>1.621812027281923</v>
       </c>
       <c r="I28" t="n">
-        <v>5.485638227248057</v>
+        <v>5.485638227248055</v>
       </c>
       <c r="J28" t="n">
-        <v>12.89655637645349</v>
+        <v>12.89655637645348</v>
       </c>
       <c r="K28" t="n">
-        <v>21.19300379208892</v>
+        <v>21.19300379208891</v>
       </c>
       <c r="L28" t="n">
-        <v>27.11974835804556</v>
+        <v>27.11974835804555</v>
       </c>
       <c r="M28" t="n">
-        <v>28.59397217425581</v>
+        <v>28.59397217425579</v>
       </c>
       <c r="N28" t="n">
-        <v>27.91407142662231</v>
+        <v>27.91407142662229</v>
       </c>
       <c r="O28" t="n">
-        <v>25.78316298586844</v>
+        <v>25.78316298586843</v>
       </c>
       <c r="P28" t="n">
-        <v>22.06195011345469</v>
+        <v>22.06195011345467</v>
       </c>
       <c r="Q28" t="n">
         <v>15.2745506986644</v>
       </c>
       <c r="R28" t="n">
-        <v>8.20192462876931</v>
+        <v>8.201924628769305</v>
       </c>
       <c r="S28" t="n">
-        <v>3.178950568813337</v>
+        <v>3.178950568813335</v>
       </c>
       <c r="T28" t="n">
-        <v>0.7793984180189195</v>
+        <v>0.7793984180189191</v>
       </c>
       <c r="U28" t="n">
-        <v>0.009949767038539411</v>
+        <v>0.009949767038539406</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33172,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.4066571452937374</v>
+        <v>0.4066571452937371</v>
       </c>
       <c r="H29" t="n">
-        <v>4.164677489239489</v>
+        <v>4.164677489239486</v>
       </c>
       <c r="I29" t="n">
-        <v>15.67764959393683</v>
+        <v>15.67764959393682</v>
       </c>
       <c r="J29" t="n">
-        <v>34.51451688537438</v>
+        <v>34.51451688537436</v>
       </c>
       <c r="K29" t="n">
-        <v>51.72831384565828</v>
+        <v>51.72831384565826</v>
       </c>
       <c r="L29" t="n">
-        <v>64.17354745594152</v>
+        <v>64.17354745594147</v>
       </c>
       <c r="M29" t="n">
-        <v>71.40543646355901</v>
+        <v>71.40543646355897</v>
       </c>
       <c r="N29" t="n">
-        <v>72.56085107762485</v>
+        <v>72.56085107762482</v>
       </c>
       <c r="O29" t="n">
-        <v>68.51715408911025</v>
+        <v>68.51715408911021</v>
       </c>
       <c r="P29" t="n">
-        <v>58.47780581467109</v>
+        <v>58.47780581467106</v>
       </c>
       <c r="Q29" t="n">
-        <v>43.91439679883911</v>
+        <v>43.91439679883909</v>
       </c>
       <c r="R29" t="n">
-        <v>25.54467690305775</v>
+        <v>25.54467690305774</v>
       </c>
       <c r="S29" t="n">
-        <v>9.26669969838105</v>
+        <v>9.266699698381045</v>
       </c>
       <c r="T29" t="n">
-        <v>1.780141653523336</v>
+        <v>1.780141653523335</v>
       </c>
       <c r="U29" t="n">
-        <v>0.03253257162349898</v>
+        <v>0.03253257162349896</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.2175807546729654</v>
+        <v>0.2175807546729653</v>
       </c>
       <c r="H30" t="n">
-        <v>2.101372025394166</v>
+        <v>2.101372025394165</v>
       </c>
       <c r="I30" t="n">
-        <v>7.491267211327977</v>
+        <v>7.491267211327973</v>
       </c>
       <c r="J30" t="n">
-        <v>20.55660980881732</v>
+        <v>20.55660980881731</v>
       </c>
       <c r="K30" t="n">
-        <v>35.134520371906</v>
+        <v>35.13452037190598</v>
       </c>
       <c r="L30" t="n">
-        <v>47.24269850914541</v>
+        <v>47.24269850914538</v>
       </c>
       <c r="M30" t="n">
-        <v>55.13000086604039</v>
+        <v>55.13000086604036</v>
       </c>
       <c r="N30" t="n">
-        <v>56.58912794452709</v>
+        <v>56.58912794452706</v>
       </c>
       <c r="O30" t="n">
-        <v>51.76799648572085</v>
+        <v>51.76799648572082</v>
       </c>
       <c r="P30" t="n">
-        <v>41.54838112698057</v>
+        <v>41.54838112698054</v>
       </c>
       <c r="Q30" t="n">
-        <v>27.77399247369292</v>
+        <v>27.7739924736929</v>
       </c>
       <c r="R30" t="n">
         <v>13.50909282083552</v>
       </c>
       <c r="S30" t="n">
-        <v>4.041467087894771</v>
+        <v>4.04146708789477</v>
       </c>
       <c r="T30" t="n">
-        <v>0.8770031295809436</v>
+        <v>0.8770031295809431</v>
       </c>
       <c r="U30" t="n">
-        <v>0.01431452333374773</v>
+        <v>0.01431452333374772</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33330,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1824123957065557</v>
+        <v>0.1824123957065556</v>
       </c>
       <c r="H31" t="n">
         <v>1.621812027281923</v>
       </c>
       <c r="I31" t="n">
-        <v>5.485638227248057</v>
+        <v>5.485638227248055</v>
       </c>
       <c r="J31" t="n">
-        <v>12.89655637645349</v>
+        <v>12.89655637645348</v>
       </c>
       <c r="K31" t="n">
-        <v>21.19300379208892</v>
+        <v>21.19300379208891</v>
       </c>
       <c r="L31" t="n">
-        <v>27.11974835804556</v>
+        <v>27.11974835804555</v>
       </c>
       <c r="M31" t="n">
-        <v>28.59397217425581</v>
+        <v>28.59397217425579</v>
       </c>
       <c r="N31" t="n">
-        <v>27.91407142662231</v>
+        <v>27.91407142662229</v>
       </c>
       <c r="O31" t="n">
-        <v>25.78316298586844</v>
+        <v>25.78316298586843</v>
       </c>
       <c r="P31" t="n">
-        <v>22.06195011345469</v>
+        <v>22.06195011345467</v>
       </c>
       <c r="Q31" t="n">
         <v>15.2745506986644</v>
       </c>
       <c r="R31" t="n">
-        <v>8.20192462876931</v>
+        <v>8.201924628769305</v>
       </c>
       <c r="S31" t="n">
-        <v>3.178950568813337</v>
+        <v>3.178950568813335</v>
       </c>
       <c r="T31" t="n">
-        <v>0.7793984180189195</v>
+        <v>0.7793984180189191</v>
       </c>
       <c r="U31" t="n">
-        <v>0.009949767038539411</v>
+        <v>0.009949767038539406</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33409,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0.4066571452937374</v>
+        <v>0.4066571452937371</v>
       </c>
       <c r="H32" t="n">
-        <v>4.164677489239489</v>
+        <v>4.164677489239486</v>
       </c>
       <c r="I32" t="n">
-        <v>15.67764959393683</v>
+        <v>15.67764959393682</v>
       </c>
       <c r="J32" t="n">
-        <v>34.51451688537438</v>
+        <v>34.51451688537436</v>
       </c>
       <c r="K32" t="n">
-        <v>51.72831384565828</v>
+        <v>51.72831384565826</v>
       </c>
       <c r="L32" t="n">
-        <v>64.17354745594152</v>
+        <v>64.17354745594147</v>
       </c>
       <c r="M32" t="n">
-        <v>71.40543646355901</v>
+        <v>71.40543646355897</v>
       </c>
       <c r="N32" t="n">
-        <v>72.56085107762485</v>
+        <v>72.56085107762482</v>
       </c>
       <c r="O32" t="n">
-        <v>68.51715408911025</v>
+        <v>68.51715408911021</v>
       </c>
       <c r="P32" t="n">
-        <v>58.47780581467109</v>
+        <v>58.47780581467106</v>
       </c>
       <c r="Q32" t="n">
-        <v>43.91439679883911</v>
+        <v>43.91439679883909</v>
       </c>
       <c r="R32" t="n">
-        <v>25.54467690305775</v>
+        <v>25.54467690305774</v>
       </c>
       <c r="S32" t="n">
-        <v>9.26669969838105</v>
+        <v>9.266699698381045</v>
       </c>
       <c r="T32" t="n">
-        <v>1.780141653523336</v>
+        <v>1.780141653523335</v>
       </c>
       <c r="U32" t="n">
-        <v>0.03253257162349898</v>
+        <v>0.03253257162349896</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.2175807546729654</v>
+        <v>0.2175807546729653</v>
       </c>
       <c r="H33" t="n">
-        <v>2.101372025394166</v>
+        <v>2.101372025394165</v>
       </c>
       <c r="I33" t="n">
-        <v>7.491267211327977</v>
+        <v>7.491267211327973</v>
       </c>
       <c r="J33" t="n">
-        <v>20.55660980881732</v>
+        <v>20.55660980881731</v>
       </c>
       <c r="K33" t="n">
-        <v>35.134520371906</v>
+        <v>35.13452037190598</v>
       </c>
       <c r="L33" t="n">
-        <v>47.24269850914541</v>
+        <v>47.24269850914538</v>
       </c>
       <c r="M33" t="n">
-        <v>55.13000086604039</v>
+        <v>55.13000086604036</v>
       </c>
       <c r="N33" t="n">
-        <v>56.58912794452709</v>
+        <v>56.58912794452706</v>
       </c>
       <c r="O33" t="n">
-        <v>51.76799648572085</v>
+        <v>51.76799648572082</v>
       </c>
       <c r="P33" t="n">
-        <v>41.54838112698057</v>
+        <v>41.54838112698054</v>
       </c>
       <c r="Q33" t="n">
-        <v>27.77399247369292</v>
+        <v>27.7739924736929</v>
       </c>
       <c r="R33" t="n">
         <v>13.50909282083552</v>
       </c>
       <c r="S33" t="n">
-        <v>4.041467087894771</v>
+        <v>4.04146708789477</v>
       </c>
       <c r="T33" t="n">
-        <v>0.8770031295809436</v>
+        <v>0.8770031295809431</v>
       </c>
       <c r="U33" t="n">
-        <v>0.01431452333374773</v>
+        <v>0.01431452333374772</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33567,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1824123957065557</v>
+        <v>0.1824123957065556</v>
       </c>
       <c r="H34" t="n">
         <v>1.621812027281923</v>
       </c>
       <c r="I34" t="n">
-        <v>5.485638227248057</v>
+        <v>5.485638227248055</v>
       </c>
       <c r="J34" t="n">
-        <v>12.89655637645349</v>
+        <v>12.89655637645348</v>
       </c>
       <c r="K34" t="n">
-        <v>21.19300379208892</v>
+        <v>21.19300379208891</v>
       </c>
       <c r="L34" t="n">
-        <v>27.11974835804556</v>
+        <v>27.11974835804555</v>
       </c>
       <c r="M34" t="n">
-        <v>28.59397217425581</v>
+        <v>28.59397217425579</v>
       </c>
       <c r="N34" t="n">
-        <v>27.91407142662231</v>
+        <v>27.91407142662229</v>
       </c>
       <c r="O34" t="n">
-        <v>25.78316298586844</v>
+        <v>25.78316298586843</v>
       </c>
       <c r="P34" t="n">
-        <v>22.06195011345469</v>
+        <v>22.06195011345467</v>
       </c>
       <c r="Q34" t="n">
         <v>15.2745506986644</v>
       </c>
       <c r="R34" t="n">
-        <v>8.20192462876931</v>
+        <v>8.201924628769305</v>
       </c>
       <c r="S34" t="n">
-        <v>3.178950568813337</v>
+        <v>3.178950568813335</v>
       </c>
       <c r="T34" t="n">
-        <v>0.7793984180189195</v>
+        <v>0.7793984180189191</v>
       </c>
       <c r="U34" t="n">
-        <v>0.009949767038539411</v>
+        <v>0.009949767038539406</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33646,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0.4066571452937374</v>
+        <v>0.4066571452937371</v>
       </c>
       <c r="H35" t="n">
-        <v>4.164677489239489</v>
+        <v>4.164677489239486</v>
       </c>
       <c r="I35" t="n">
-        <v>15.67764959393683</v>
+        <v>15.67764959393682</v>
       </c>
       <c r="J35" t="n">
-        <v>34.51451688537438</v>
+        <v>34.51451688537436</v>
       </c>
       <c r="K35" t="n">
-        <v>51.72831384565828</v>
+        <v>51.72831384565826</v>
       </c>
       <c r="L35" t="n">
-        <v>64.17354745594152</v>
+        <v>64.17354745594147</v>
       </c>
       <c r="M35" t="n">
-        <v>71.40543646355901</v>
+        <v>71.40543646355897</v>
       </c>
       <c r="N35" t="n">
-        <v>72.56085107762485</v>
+        <v>72.56085107762482</v>
       </c>
       <c r="O35" t="n">
-        <v>68.51715408911025</v>
+        <v>68.51715408911021</v>
       </c>
       <c r="P35" t="n">
-        <v>58.47780581467109</v>
+        <v>58.47780581467106</v>
       </c>
       <c r="Q35" t="n">
-        <v>43.91439679883911</v>
+        <v>43.91439679883909</v>
       </c>
       <c r="R35" t="n">
-        <v>25.54467690305775</v>
+        <v>25.54467690305774</v>
       </c>
       <c r="S35" t="n">
-        <v>9.26669969838105</v>
+        <v>9.266699698381045</v>
       </c>
       <c r="T35" t="n">
-        <v>1.780141653523336</v>
+        <v>1.780141653523335</v>
       </c>
       <c r="U35" t="n">
-        <v>0.03253257162349898</v>
+        <v>0.03253257162349896</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.2175807546729654</v>
+        <v>0.2175807546729653</v>
       </c>
       <c r="H36" t="n">
-        <v>2.101372025394166</v>
+        <v>2.101372025394165</v>
       </c>
       <c r="I36" t="n">
-        <v>7.491267211327977</v>
+        <v>7.491267211327973</v>
       </c>
       <c r="J36" t="n">
-        <v>20.55660980881732</v>
+        <v>20.55660980881731</v>
       </c>
       <c r="K36" t="n">
-        <v>35.134520371906</v>
+        <v>35.13452037190598</v>
       </c>
       <c r="L36" t="n">
-        <v>47.24269850914541</v>
+        <v>47.24269850914538</v>
       </c>
       <c r="M36" t="n">
-        <v>55.13000086604039</v>
+        <v>55.13000086604036</v>
       </c>
       <c r="N36" t="n">
-        <v>56.58912794452709</v>
+        <v>56.58912794452706</v>
       </c>
       <c r="O36" t="n">
-        <v>51.76799648572085</v>
+        <v>51.76799648572082</v>
       </c>
       <c r="P36" t="n">
-        <v>41.54838112698057</v>
+        <v>41.54838112698054</v>
       </c>
       <c r="Q36" t="n">
-        <v>27.77399247369292</v>
+        <v>27.7739924736929</v>
       </c>
       <c r="R36" t="n">
         <v>13.50909282083552</v>
       </c>
       <c r="S36" t="n">
-        <v>4.041467087894771</v>
+        <v>4.04146708789477</v>
       </c>
       <c r="T36" t="n">
-        <v>0.8770031295809436</v>
+        <v>0.8770031295809431</v>
       </c>
       <c r="U36" t="n">
-        <v>0.01431452333374773</v>
+        <v>0.01431452333374772</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33804,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1824123957065557</v>
+        <v>0.1824123957065556</v>
       </c>
       <c r="H37" t="n">
         <v>1.621812027281923</v>
       </c>
       <c r="I37" t="n">
-        <v>5.485638227248057</v>
+        <v>5.485638227248055</v>
       </c>
       <c r="J37" t="n">
-        <v>12.89655637645349</v>
+        <v>12.89655637645348</v>
       </c>
       <c r="K37" t="n">
-        <v>21.19300379208892</v>
+        <v>21.19300379208891</v>
       </c>
       <c r="L37" t="n">
-        <v>27.11974835804556</v>
+        <v>27.11974835804555</v>
       </c>
       <c r="M37" t="n">
-        <v>28.59397217425581</v>
+        <v>28.59397217425579</v>
       </c>
       <c r="N37" t="n">
-        <v>27.91407142662231</v>
+        <v>27.91407142662229</v>
       </c>
       <c r="O37" t="n">
-        <v>25.78316298586844</v>
+        <v>25.78316298586843</v>
       </c>
       <c r="P37" t="n">
-        <v>22.06195011345469</v>
+        <v>22.06195011345467</v>
       </c>
       <c r="Q37" t="n">
         <v>15.2745506986644</v>
       </c>
       <c r="R37" t="n">
-        <v>8.20192462876931</v>
+        <v>8.201924628769305</v>
       </c>
       <c r="S37" t="n">
-        <v>3.178950568813337</v>
+        <v>3.178950568813335</v>
       </c>
       <c r="T37" t="n">
-        <v>0.7793984180189195</v>
+        <v>0.7793984180189191</v>
       </c>
       <c r="U37" t="n">
-        <v>0.009949767038539411</v>
+        <v>0.009949767038539406</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33883,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.4066571452937374</v>
+        <v>0.4066571452937371</v>
       </c>
       <c r="H38" t="n">
-        <v>4.164677489239489</v>
+        <v>4.164677489239486</v>
       </c>
       <c r="I38" t="n">
-        <v>15.67764959393683</v>
+        <v>15.67764959393682</v>
       </c>
       <c r="J38" t="n">
-        <v>34.51451688537438</v>
+        <v>34.51451688537436</v>
       </c>
       <c r="K38" t="n">
-        <v>51.72831384565828</v>
+        <v>51.72831384565826</v>
       </c>
       <c r="L38" t="n">
-        <v>64.17354745594152</v>
+        <v>64.17354745594147</v>
       </c>
       <c r="M38" t="n">
-        <v>71.40543646355901</v>
+        <v>71.40543646355897</v>
       </c>
       <c r="N38" t="n">
-        <v>72.56085107762485</v>
+        <v>72.56085107762482</v>
       </c>
       <c r="O38" t="n">
-        <v>68.51715408911025</v>
+        <v>68.51715408911021</v>
       </c>
       <c r="P38" t="n">
-        <v>58.47780581467109</v>
+        <v>58.47780581467106</v>
       </c>
       <c r="Q38" t="n">
-        <v>43.91439679883911</v>
+        <v>43.91439679883909</v>
       </c>
       <c r="R38" t="n">
-        <v>25.54467690305775</v>
+        <v>25.54467690305774</v>
       </c>
       <c r="S38" t="n">
-        <v>9.26669969838105</v>
+        <v>9.266699698381045</v>
       </c>
       <c r="T38" t="n">
-        <v>1.780141653523336</v>
+        <v>1.780141653523335</v>
       </c>
       <c r="U38" t="n">
-        <v>0.03253257162349898</v>
+        <v>0.03253257162349896</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.2175807546729654</v>
+        <v>0.2175807546729653</v>
       </c>
       <c r="H39" t="n">
-        <v>2.101372025394166</v>
+        <v>2.101372025394165</v>
       </c>
       <c r="I39" t="n">
-        <v>7.491267211327977</v>
+        <v>7.491267211327973</v>
       </c>
       <c r="J39" t="n">
-        <v>20.55660980881732</v>
+        <v>20.55660980881731</v>
       </c>
       <c r="K39" t="n">
-        <v>35.134520371906</v>
+        <v>35.13452037190598</v>
       </c>
       <c r="L39" t="n">
-        <v>47.24269850914541</v>
+        <v>47.24269850914538</v>
       </c>
       <c r="M39" t="n">
-        <v>55.13000086604039</v>
+        <v>55.13000086604036</v>
       </c>
       <c r="N39" t="n">
-        <v>56.58912794452709</v>
+        <v>56.58912794452706</v>
       </c>
       <c r="O39" t="n">
-        <v>51.76799648572085</v>
+        <v>51.76799648572082</v>
       </c>
       <c r="P39" t="n">
-        <v>41.54838112698057</v>
+        <v>41.54838112698054</v>
       </c>
       <c r="Q39" t="n">
-        <v>27.77399247369292</v>
+        <v>27.7739924736929</v>
       </c>
       <c r="R39" t="n">
         <v>13.50909282083552</v>
       </c>
       <c r="S39" t="n">
-        <v>4.041467087894771</v>
+        <v>4.04146708789477</v>
       </c>
       <c r="T39" t="n">
-        <v>0.8770031295809436</v>
+        <v>0.8770031295809431</v>
       </c>
       <c r="U39" t="n">
-        <v>0.01431452333374773</v>
+        <v>0.01431452333374772</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34041,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1824123957065557</v>
+        <v>0.1824123957065556</v>
       </c>
       <c r="H40" t="n">
         <v>1.621812027281923</v>
       </c>
       <c r="I40" t="n">
-        <v>5.485638227248057</v>
+        <v>5.485638227248055</v>
       </c>
       <c r="J40" t="n">
-        <v>12.89655637645349</v>
+        <v>12.89655637645348</v>
       </c>
       <c r="K40" t="n">
-        <v>21.19300379208892</v>
+        <v>21.19300379208891</v>
       </c>
       <c r="L40" t="n">
-        <v>27.11974835804556</v>
+        <v>27.11974835804555</v>
       </c>
       <c r="M40" t="n">
-        <v>28.59397217425581</v>
+        <v>28.59397217425579</v>
       </c>
       <c r="N40" t="n">
-        <v>27.91407142662231</v>
+        <v>27.91407142662229</v>
       </c>
       <c r="O40" t="n">
-        <v>25.78316298586844</v>
+        <v>25.78316298586843</v>
       </c>
       <c r="P40" t="n">
-        <v>22.06195011345469</v>
+        <v>22.06195011345467</v>
       </c>
       <c r="Q40" t="n">
         <v>15.2745506986644</v>
       </c>
       <c r="R40" t="n">
-        <v>8.20192462876931</v>
+        <v>8.201924628769305</v>
       </c>
       <c r="S40" t="n">
-        <v>3.178950568813337</v>
+        <v>3.178950568813335</v>
       </c>
       <c r="T40" t="n">
-        <v>0.7793984180189195</v>
+        <v>0.7793984180189191</v>
       </c>
       <c r="U40" t="n">
-        <v>0.009949767038539411</v>
+        <v>0.009949767038539406</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34120,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4066571452937374</v>
+        <v>0.4066571452937371</v>
       </c>
       <c r="H41" t="n">
-        <v>4.164677489239489</v>
+        <v>4.164677489239486</v>
       </c>
       <c r="I41" t="n">
-        <v>15.67764959393683</v>
+        <v>15.67764959393682</v>
       </c>
       <c r="J41" t="n">
-        <v>34.51451688537438</v>
+        <v>34.51451688537436</v>
       </c>
       <c r="K41" t="n">
-        <v>51.72831384565828</v>
+        <v>51.72831384565826</v>
       </c>
       <c r="L41" t="n">
-        <v>64.17354745594152</v>
+        <v>64.17354745594147</v>
       </c>
       <c r="M41" t="n">
-        <v>71.40543646355901</v>
+        <v>71.40543646355897</v>
       </c>
       <c r="N41" t="n">
-        <v>72.56085107762485</v>
+        <v>72.56085107762482</v>
       </c>
       <c r="O41" t="n">
-        <v>68.51715408911025</v>
+        <v>68.51715408911021</v>
       </c>
       <c r="P41" t="n">
-        <v>58.47780581467109</v>
+        <v>58.47780581467106</v>
       </c>
       <c r="Q41" t="n">
-        <v>43.91439679883911</v>
+        <v>43.91439679883909</v>
       </c>
       <c r="R41" t="n">
-        <v>25.54467690305775</v>
+        <v>25.54467690305774</v>
       </c>
       <c r="S41" t="n">
-        <v>9.26669969838105</v>
+        <v>9.266699698381045</v>
       </c>
       <c r="T41" t="n">
-        <v>1.780141653523336</v>
+        <v>1.780141653523335</v>
       </c>
       <c r="U41" t="n">
-        <v>0.03253257162349898</v>
+        <v>0.03253257162349896</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.2175807546729654</v>
+        <v>0.2175807546729653</v>
       </c>
       <c r="H42" t="n">
-        <v>2.101372025394166</v>
+        <v>2.101372025394165</v>
       </c>
       <c r="I42" t="n">
-        <v>7.491267211327977</v>
+        <v>7.491267211327973</v>
       </c>
       <c r="J42" t="n">
-        <v>20.55660980881732</v>
+        <v>20.55660980881731</v>
       </c>
       <c r="K42" t="n">
-        <v>35.134520371906</v>
+        <v>35.13452037190598</v>
       </c>
       <c r="L42" t="n">
-        <v>47.24269850914541</v>
+        <v>47.24269850914538</v>
       </c>
       <c r="M42" t="n">
-        <v>55.13000086604039</v>
+        <v>55.13000086604036</v>
       </c>
       <c r="N42" t="n">
-        <v>56.58912794452709</v>
+        <v>56.58912794452706</v>
       </c>
       <c r="O42" t="n">
-        <v>51.76799648572085</v>
+        <v>51.76799648572082</v>
       </c>
       <c r="P42" t="n">
-        <v>41.54838112698057</v>
+        <v>41.54838112698054</v>
       </c>
       <c r="Q42" t="n">
-        <v>27.77399247369292</v>
+        <v>27.7739924736929</v>
       </c>
       <c r="R42" t="n">
         <v>13.50909282083552</v>
       </c>
       <c r="S42" t="n">
-        <v>4.041467087894771</v>
+        <v>4.04146708789477</v>
       </c>
       <c r="T42" t="n">
-        <v>0.8770031295809436</v>
+        <v>0.8770031295809431</v>
       </c>
       <c r="U42" t="n">
-        <v>0.01431452333374773</v>
+        <v>0.01431452333374772</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34278,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.1824123957065557</v>
+        <v>0.1824123957065556</v>
       </c>
       <c r="H43" t="n">
         <v>1.621812027281923</v>
       </c>
       <c r="I43" t="n">
-        <v>5.485638227248057</v>
+        <v>5.485638227248055</v>
       </c>
       <c r="J43" t="n">
-        <v>12.89655637645349</v>
+        <v>12.89655637645348</v>
       </c>
       <c r="K43" t="n">
-        <v>21.19300379208892</v>
+        <v>21.19300379208891</v>
       </c>
       <c r="L43" t="n">
-        <v>27.11974835804556</v>
+        <v>27.11974835804555</v>
       </c>
       <c r="M43" t="n">
-        <v>28.59397217425581</v>
+        <v>28.59397217425579</v>
       </c>
       <c r="N43" t="n">
-        <v>27.91407142662231</v>
+        <v>27.91407142662229</v>
       </c>
       <c r="O43" t="n">
-        <v>25.78316298586844</v>
+        <v>25.78316298586843</v>
       </c>
       <c r="P43" t="n">
-        <v>22.06195011345469</v>
+        <v>22.06195011345467</v>
       </c>
       <c r="Q43" t="n">
         <v>15.2745506986644</v>
       </c>
       <c r="R43" t="n">
-        <v>8.20192462876931</v>
+        <v>8.201924628769305</v>
       </c>
       <c r="S43" t="n">
-        <v>3.178950568813337</v>
+        <v>3.178950568813335</v>
       </c>
       <c r="T43" t="n">
-        <v>0.7793984180189195</v>
+        <v>0.7793984180189191</v>
       </c>
       <c r="U43" t="n">
-        <v>0.009949767038539411</v>
+        <v>0.009949767038539406</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4066571452937374</v>
+        <v>0.4066571452937371</v>
       </c>
       <c r="H44" t="n">
-        <v>4.164677489239489</v>
+        <v>4.164677489239486</v>
       </c>
       <c r="I44" t="n">
-        <v>15.67764959393683</v>
+        <v>15.67764959393682</v>
       </c>
       <c r="J44" t="n">
-        <v>34.51451688537438</v>
+        <v>34.51451688537436</v>
       </c>
       <c r="K44" t="n">
-        <v>51.72831384565828</v>
+        <v>51.72831384565826</v>
       </c>
       <c r="L44" t="n">
-        <v>64.17354745594152</v>
+        <v>64.17354745594147</v>
       </c>
       <c r="M44" t="n">
-        <v>71.40543646355901</v>
+        <v>71.40543646355897</v>
       </c>
       <c r="N44" t="n">
-        <v>72.56085107762485</v>
+        <v>72.56085107762482</v>
       </c>
       <c r="O44" t="n">
-        <v>68.51715408911025</v>
+        <v>68.51715408911021</v>
       </c>
       <c r="P44" t="n">
-        <v>58.47780581467109</v>
+        <v>58.47780581467106</v>
       </c>
       <c r="Q44" t="n">
-        <v>43.91439679883911</v>
+        <v>43.91439679883909</v>
       </c>
       <c r="R44" t="n">
-        <v>25.54467690305775</v>
+        <v>25.54467690305774</v>
       </c>
       <c r="S44" t="n">
-        <v>9.26669969838105</v>
+        <v>9.266699698381045</v>
       </c>
       <c r="T44" t="n">
-        <v>1.780141653523336</v>
+        <v>1.780141653523335</v>
       </c>
       <c r="U44" t="n">
-        <v>0.03253257162349898</v>
+        <v>0.03253257162349896</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2175807546729654</v>
+        <v>0.2175807546729653</v>
       </c>
       <c r="H45" t="n">
-        <v>2.101372025394166</v>
+        <v>2.101372025394165</v>
       </c>
       <c r="I45" t="n">
-        <v>7.491267211327977</v>
+        <v>7.491267211327973</v>
       </c>
       <c r="J45" t="n">
-        <v>20.55660980881732</v>
+        <v>20.55660980881731</v>
       </c>
       <c r="K45" t="n">
-        <v>35.134520371906</v>
+        <v>35.13452037190598</v>
       </c>
       <c r="L45" t="n">
-        <v>47.24269850914541</v>
+        <v>47.24269850914538</v>
       </c>
       <c r="M45" t="n">
-        <v>55.13000086604039</v>
+        <v>55.13000086604036</v>
       </c>
       <c r="N45" t="n">
-        <v>56.58912794452709</v>
+        <v>56.58912794452706</v>
       </c>
       <c r="O45" t="n">
-        <v>51.76799648572085</v>
+        <v>51.76799648572082</v>
       </c>
       <c r="P45" t="n">
-        <v>41.54838112698057</v>
+        <v>41.54838112698054</v>
       </c>
       <c r="Q45" t="n">
-        <v>27.77399247369292</v>
+        <v>27.7739924736929</v>
       </c>
       <c r="R45" t="n">
         <v>13.50909282083552</v>
       </c>
       <c r="S45" t="n">
-        <v>4.041467087894771</v>
+        <v>4.04146708789477</v>
       </c>
       <c r="T45" t="n">
-        <v>0.8770031295809436</v>
+        <v>0.8770031295809431</v>
       </c>
       <c r="U45" t="n">
-        <v>0.01431452333374773</v>
+        <v>0.01431452333374772</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.1824123957065557</v>
+        <v>0.1824123957065556</v>
       </c>
       <c r="H46" t="n">
         <v>1.621812027281923</v>
       </c>
       <c r="I46" t="n">
-        <v>5.485638227248057</v>
+        <v>5.485638227248055</v>
       </c>
       <c r="J46" t="n">
-        <v>12.89655637645349</v>
+        <v>12.89655637645348</v>
       </c>
       <c r="K46" t="n">
-        <v>21.19300379208892</v>
+        <v>21.19300379208891</v>
       </c>
       <c r="L46" t="n">
-        <v>27.11974835804556</v>
+        <v>27.11974835804555</v>
       </c>
       <c r="M46" t="n">
-        <v>28.59397217425581</v>
+        <v>28.59397217425579</v>
       </c>
       <c r="N46" t="n">
-        <v>27.91407142662231</v>
+        <v>27.91407142662229</v>
       </c>
       <c r="O46" t="n">
-        <v>25.78316298586844</v>
+        <v>25.78316298586843</v>
       </c>
       <c r="P46" t="n">
-        <v>22.06195011345469</v>
+        <v>22.06195011345467</v>
       </c>
       <c r="Q46" t="n">
         <v>15.2745506986644</v>
       </c>
       <c r="R46" t="n">
-        <v>8.20192462876931</v>
+        <v>8.201924628769305</v>
       </c>
       <c r="S46" t="n">
-        <v>3.178950568813337</v>
+        <v>3.178950568813335</v>
       </c>
       <c r="T46" t="n">
-        <v>0.7793984180189195</v>
+        <v>0.7793984180189191</v>
       </c>
       <c r="U46" t="n">
-        <v>0.009949767038539411</v>
+        <v>0.009949767038539406</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35407,28 +35407,28 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>101.3548838438619</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>41.61679945311612</v>
+        <v>171.4066867664378</v>
       </c>
       <c r="L11" t="n">
-        <v>47.18298822124895</v>
+        <v>47.18298822124891</v>
       </c>
       <c r="M11" t="n">
-        <v>81.66780162964177</v>
+        <v>81.66780162964173</v>
       </c>
       <c r="N11" t="n">
+        <v>169.1617278813554</v>
+      </c>
+      <c r="O11" t="n">
         <v>188.4860450762373</v>
       </c>
-      <c r="O11" t="n">
-        <v>34.55585361291142</v>
-      </c>
       <c r="P11" t="n">
-        <v>163.0408777379039</v>
+        <v>0</v>
       </c>
       <c r="Q11" t="n">
-        <v>88.42333294916992</v>
+        <v>88.42333294917</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>38.34143840733901</v>
+        <v>38.34143840733898</v>
       </c>
       <c r="L12" t="n">
         <v>118.5108989343404</v>
@@ -35504,7 +35504,7 @@
         <v>133.0233611548194</v>
       </c>
       <c r="P12" t="n">
-        <v>84.46347816017695</v>
+        <v>84.46347816017693</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35547,46 +35547,46 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>32.95911359883024</v>
+        <v>32.95911359883036</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>39.21488163109441</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>1.921205099603946</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>12.31711898238311</v>
       </c>
       <c r="I13" t="n">
-        <v>13.28795960680959</v>
+        <v>13.2879596068097</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>57.90019044705602</v>
       </c>
       <c r="K13" t="n">
-        <v>4.028441858013845</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>145.9858137434031</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>152.9205398770394</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>161.61735154379</v>
+        <v>161.6173515437901</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>140.6589497292532</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>50.92244958906448</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35647,25 +35647,25 @@
         <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>148.56176441787</v>
+        <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>47.18298822124895</v>
+        <v>188.4860450762373</v>
       </c>
       <c r="M14" t="n">
+        <v>81.66780162964173</v>
+      </c>
+      <c r="N14" t="n">
+        <v>124.6478130040707</v>
+      </c>
+      <c r="O14" t="n">
         <v>188.4860450762373</v>
       </c>
-      <c r="N14" t="n">
-        <v>76.07772050874965</v>
-      </c>
-      <c r="O14" t="n">
-        <v>34.55585361291142</v>
-      </c>
       <c r="P14" t="n">
-        <v>163.0408777379039</v>
+        <v>163.040877737904</v>
       </c>
       <c r="Q14" t="n">
-        <v>88.42333294916992</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>38.34143840733901</v>
+        <v>38.34143840733898</v>
       </c>
       <c r="L15" t="n">
         <v>118.5108989343404</v>
@@ -35741,7 +35741,7 @@
         <v>133.0233611548194</v>
       </c>
       <c r="P15" t="n">
-        <v>84.46347816017695</v>
+        <v>84.46347816017693</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35778,49 +35778,49 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.5248431845728589</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>11.6845828775686</v>
+        <v>11.68458287756872</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>32.95911359883036</v>
       </c>
       <c r="E16" t="n">
-        <v>36.46562263731596</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>39.21488163109441</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>12.317118982383</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>13.2879596068097</v>
       </c>
       <c r="J16" t="n">
-        <v>57.90019044705592</v>
+        <v>57.90019044705602</v>
       </c>
       <c r="K16" t="n">
-        <v>111.1085532649116</v>
+        <v>111.1085532649117</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>152.9205398770394</v>
+        <v>103.9849890723613</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>8.217966906504719</v>
+        <v>140.6589497292532</v>
       </c>
       <c r="P16" t="n">
-        <v>119.6598020505342</v>
+        <v>0</v>
       </c>
       <c r="Q16" t="n">
         <v>0</v>
@@ -35878,40 +35878,40 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>22.93549118003349</v>
       </c>
       <c r="J17" t="n">
-        <v>93.50452649003648</v>
+        <v>188.4860450762373</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>47.18298822124895</v>
+        <v>188.4860450762373</v>
       </c>
       <c r="M17" t="n">
-        <v>81.66780162964177</v>
+        <v>188.4860450762373</v>
       </c>
       <c r="N17" t="n">
-        <v>76.07772050874965</v>
+        <v>76.07772050874962</v>
       </c>
       <c r="O17" t="n">
-        <v>34.55585361291142</v>
+        <v>34.55585361291138</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>188.4860450762373</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>102.5664892927773</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>74.98577569880338</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
         <v>47.30138199368479</v>
@@ -35963,7 +35963,7 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>38.34143840733901</v>
+        <v>38.34143840733898</v>
       </c>
       <c r="L18" t="n">
         <v>118.5108989343404</v>
@@ -36115,40 +36115,40 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>56.43976948871862</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>188.4860450762373</v>
       </c>
       <c r="L20" t="n">
-        <v>47.18298822124895</v>
+        <v>188.4860450762373</v>
       </c>
       <c r="M20" t="n">
-        <v>81.66780162964177</v>
+        <v>81.66780162964173</v>
       </c>
       <c r="N20" t="n">
-        <v>76.07772050874965</v>
+        <v>178.14706143026</v>
       </c>
       <c r="O20" t="n">
-        <v>34.55585361291142</v>
+        <v>34.55585361291138</v>
       </c>
       <c r="P20" t="n">
-        <v>89.41839332821601</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>188.4860450762373</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>102.5664892927773</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>69.93352136559014</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>74.98577569880338</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -36200,7 +36200,7 @@
         <v>0</v>
       </c>
       <c r="K21" t="n">
-        <v>38.34143840733901</v>
+        <v>38.34143840733898</v>
       </c>
       <c r="L21" t="n">
         <v>118.5108989343404</v>
@@ -36215,7 +36215,7 @@
         <v>133.0233611548194</v>
       </c>
       <c r="P21" t="n">
-        <v>84.46347816017695</v>
+        <v>84.46347816017693</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36355,28 +36355,28 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>82.57074640538008</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>47.18298822124895</v>
+        <v>188.4860450762374</v>
       </c>
       <c r="M23" t="n">
-        <v>81.66780162964177</v>
+        <v>81.66780162964173</v>
       </c>
       <c r="N23" t="n">
-        <v>76.07772050874965</v>
+        <v>76.07772050874962</v>
       </c>
       <c r="O23" t="n">
-        <v>34.55585361291142</v>
+        <v>188.4860450762374</v>
       </c>
       <c r="P23" t="n">
-        <v>188.4860450762373</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>188.4860450762373</v>
+        <v>89.32381254073708</v>
       </c>
       <c r="R23" t="n">
         <v>0</v>
@@ -36385,7 +36385,7 @@
         <v>0</v>
       </c>
       <c r="T23" t="n">
-        <v>0</v>
+        <v>74.98577569880338</v>
       </c>
       <c r="U23" t="n">
         <v>47.30138199368479</v>
@@ -36437,7 +36437,7 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>38.34143840733901</v>
+        <v>38.34143840733898</v>
       </c>
       <c r="L24" t="n">
         <v>118.5108989343404</v>
@@ -36446,13 +36446,13 @@
         <v>183.503360791178</v>
       </c>
       <c r="N24" t="n">
-        <v>188.4860450762373</v>
+        <v>188.4860450762374</v>
       </c>
       <c r="O24" t="n">
         <v>133.0233611548194</v>
       </c>
       <c r="P24" t="n">
-        <v>84.46347816017695</v>
+        <v>84.46347816017693</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36607,16 +36607,16 @@
         <v>289.5657498608787</v>
       </c>
       <c r="O26" t="n">
-        <v>248.0438829650404</v>
+        <v>248.0438829650413</v>
       </c>
       <c r="P26" t="n">
         <v>198.387143240492</v>
       </c>
       <c r="Q26" t="n">
-        <v>123.7695984517584</v>
+        <v>123.769598451758</v>
       </c>
       <c r="R26" t="n">
-        <v>18.60259019963819</v>
+        <v>18.6025901996382</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36674,7 +36674,7 @@
         <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>38.34143840733901</v>
+        <v>38.34143840733898</v>
       </c>
       <c r="L27" t="n">
         <v>118.5108989343404</v>
@@ -36689,7 +36689,7 @@
         <v>133.0233611548194</v>
       </c>
       <c r="P27" t="n">
-        <v>84.46347816017695</v>
+        <v>84.46347816017693</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36732,7 +36732,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>68.30537910141828</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -36741,7 +36741,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>44.78722661989058</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -36750,13 +36750,13 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>93.24645594964396</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>16.15284976912824</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>181.3320792459911</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -36765,7 +36765,7 @@
         <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>51.21665017281129</v>
       </c>
       <c r="P28" t="n">
         <v>0</v>
@@ -36774,7 +36774,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>10.05681797872153</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -36853,7 +36853,7 @@
         <v>123.769598451758</v>
       </c>
       <c r="R29" t="n">
-        <v>18.60259019963819</v>
+        <v>18.6025901996382</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,7 +36911,7 @@
         <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>38.34143840733901</v>
+        <v>38.34143840733898</v>
       </c>
       <c r="L30" t="n">
         <v>118.5108989343404</v>
@@ -36926,7 +36926,7 @@
         <v>133.0233611548194</v>
       </c>
       <c r="P30" t="n">
-        <v>84.46347816017695</v>
+        <v>84.46347816017693</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36993,7 +36993,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>0</v>
+        <v>136.2231963484284</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -37002,16 +37002,16 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>176.0052152318411</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>56.54351418696152</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>86.26871509165244</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>10.05681797872155</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -37069,7 +37069,7 @@
         <v>137.6110338056704</v>
       </c>
       <c r="K32" t="n">
-        <v>207.6628367282463</v>
+        <v>185.5484946053535</v>
       </c>
       <c r="L32" t="n">
         <v>261.5809020325985</v>
@@ -37081,16 +37081,16 @@
         <v>290.4756343200992</v>
       </c>
       <c r="O32" t="n">
-        <v>248.953767424261</v>
+        <v>248.9537674242609</v>
       </c>
       <c r="P32" t="n">
         <v>199.2970276997125</v>
       </c>
       <c r="Q32" t="n">
-        <v>102.5651407880858</v>
+        <v>124.6794829109785</v>
       </c>
       <c r="R32" t="n">
-        <v>19.51247465885875</v>
+        <v>19.51247465885874</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,7 +37148,7 @@
         <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>38.34143840733901</v>
+        <v>38.34143840733898</v>
       </c>
       <c r="L33" t="n">
         <v>118.5108989343404</v>
@@ -37163,7 +37163,7 @@
         <v>133.0233611548194</v>
       </c>
       <c r="P33" t="n">
-        <v>84.46347816017695</v>
+        <v>84.46347816017693</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37209,28 +37209,28 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>72.72177259912456</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>45.69711107911115</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>48.5732689441916</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>59.05806520108506</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>70.13426581116958</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -37242,7 +37242,7 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>155.9159520123428</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>31.04691547795236</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>195.2721944288228</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>239.5543843311297</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>47.18298822124895</v>
+        <v>47.18298822124891</v>
       </c>
       <c r="M35" t="n">
-        <v>81.66780162964177</v>
+        <v>260.4612548573208</v>
       </c>
       <c r="N35" t="n">
-        <v>76.07772050874965</v>
+        <v>260.4612548573208</v>
       </c>
       <c r="O35" t="n">
-        <v>34.55585361291142</v>
+        <v>139.8084507678432</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>256.9581883228648</v>
       </c>
       <c r="Q35" t="n">
-        <v>182.3406435341308</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>77.17363528201103</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>44.54066735482388</v>
@@ -37385,7 +37385,7 @@
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>38.34143840733901</v>
+        <v>38.34143840733898</v>
       </c>
       <c r="L36" t="n">
         <v>118.5108989343404</v>
@@ -37400,7 +37400,7 @@
         <v>133.0233611548194</v>
       </c>
       <c r="P36" t="n">
-        <v>84.46347816017695</v>
+        <v>84.46347816017693</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37452,13 +37452,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>35.55669493473963</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>35.55669493473963</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -37537,40 +37537,40 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>31.04691547795236</v>
+        <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>195.2721944288228</v>
+        <v>195.2721944288227</v>
       </c>
       <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>203.3971393259542</v>
+      </c>
+      <c r="M38" t="n">
         <v>260.4612548573208</v>
       </c>
-      <c r="L38" t="n">
-        <v>47.18298822124895</v>
-      </c>
-      <c r="M38" t="n">
-        <v>81.66780162964177</v>
-      </c>
       <c r="N38" t="n">
-        <v>76.07772050874965</v>
+        <v>260.4612548573208</v>
       </c>
       <c r="O38" t="n">
-        <v>34.55585361291142</v>
+        <v>34.55585361291138</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>182.3406435341308</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>77.17363528201103</v>
+        <v>77.17363528201102</v>
       </c>
       <c r="S38" t="n">
-        <v>44.54066735482388</v>
+        <v>0</v>
       </c>
       <c r="T38" t="n">
-        <v>1.00165745672753</v>
+        <v>0</v>
       </c>
       <c r="U38" t="n">
         <v>0</v>
@@ -37622,7 +37622,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>38.34143840733901</v>
+        <v>38.34143840733898</v>
       </c>
       <c r="L39" t="n">
         <v>118.5108989343404</v>
@@ -37637,7 +37637,7 @@
         <v>133.0233611548194</v>
       </c>
       <c r="P39" t="n">
-        <v>84.46347816017695</v>
+        <v>84.46347816017693</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37695,7 +37695,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>35.55669493473963</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -37734,13 +37734,13 @@
         <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>26.95005925005194</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>8.60663568468769</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>164.2252789508704</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -37786,22 +37786,22 @@
         <v>288.1951471777984</v>
       </c>
       <c r="M41" t="n">
-        <v>322.6799605861913</v>
+        <v>81.66780162964173</v>
       </c>
       <c r="N41" t="n">
-        <v>317.0898794652991</v>
+        <v>307.401262995914</v>
       </c>
       <c r="O41" t="n">
-        <v>263.7100608831303</v>
+        <v>275.5680125694609</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>225.9112728449125</v>
       </c>
       <c r="Q41" t="n">
-        <v>151.2937280561785</v>
+        <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>46.12671980405868</v>
+        <v>46.12671980405869</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37859,7 +37859,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>38.34143840733901</v>
+        <v>38.34143840733898</v>
       </c>
       <c r="L42" t="n">
         <v>118.5108989343404</v>
@@ -37874,7 +37874,7 @@
         <v>133.0233611548194</v>
       </c>
       <c r="P42" t="n">
-        <v>84.46347816017695</v>
+        <v>84.46347816017693</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37929,10 +37929,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>26.93296646702409</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>76.15835471381813</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -37947,7 +37947,7 @@
         <v>0</v>
       </c>
       <c r="N43" t="n">
-        <v>0</v>
+        <v>103.0913211808421</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -38014,34 +38014,34 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>164.2252789508704</v>
+        <v>147.7779876877169</v>
       </c>
       <c r="K44" t="n">
-        <v>80.02981443098547</v>
+        <v>234.2770818734462</v>
       </c>
       <c r="L44" t="n">
         <v>288.1951471777984</v>
       </c>
       <c r="M44" t="n">
-        <v>322.6799605861913</v>
+        <v>81.66780162964173</v>
       </c>
       <c r="N44" t="n">
-        <v>76.07772050874965</v>
+        <v>317.0898794652991</v>
       </c>
       <c r="O44" t="n">
-        <v>34.55585361291142</v>
+        <v>34.55585361291138</v>
       </c>
       <c r="P44" t="n">
         <v>225.9112728449125</v>
       </c>
       <c r="Q44" t="n">
-        <v>151.2937280561785</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>46.12671980405868</v>
+        <v>46.12671980405869</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>13.49375187687155</v>
       </c>
       <c r="T44" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>38.34143840733901</v>
+        <v>38.34143840733898</v>
       </c>
       <c r="L45" t="n">
         <v>118.5108989343404</v>
@@ -38111,7 +38111,7 @@
         <v>133.0233611548194</v>
       </c>
       <c r="P45" t="n">
-        <v>84.46347816017695</v>
+        <v>84.46347816017693</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38157,7 +38157,7 @@
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>99.33601774432449</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -38190,7 +38190,7 @@
         <v>0</v>
       </c>
       <c r="P46" t="n">
-        <v>0</v>
+        <v>85.84083947816463</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
@@ -38202,7 +38202,7 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>17.25048170267748</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -38214,7 +38214,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>3.75530343651772</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
